--- a/docs/static/file/ICHI2023_Agenda.xlsx
+++ b/docs/static/file/ICHI2023_Agenda.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lgindybekhet\Desktop\SBMI misc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tqy/Downloads/Myfile/tamu/Conference/ICHK2023/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D39467B0-B586-46AF-8F00-6D23DB03FA50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C8FDDE-82FC-1942-BB05-8FBD7417B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" activeTab="1" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
+    <workbookView xWindow="38400" yWindow="2620" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule at glance" sheetId="8" r:id="rId1"/>
@@ -1697,7 +1697,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1889,6 +1889,12 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1927,30 +1933,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2270,39 +2252,39 @@
   <dimension ref="A1:N73"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="20.140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="71.7109375" style="22" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="20.1640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="71.6640625" style="22" customWidth="1"/>
     <col min="10" max="10" width="13" style="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11" style="13" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" style="13" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="13"/>
+    <col min="13" max="14" width="8.6640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+    <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="70"/>
+      <c r="B1" s="72"/>
       <c r="I1" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="I2" s="23" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
@@ -2332,47 +2314,47 @@
       </c>
       <c r="J3" s="10"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>0.3125</v>
       </c>
       <c r="B4" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C4" s="69" t="s">
+      <c r="C4" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="69"/>
-      <c r="H4" s="69"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
       <c r="I4" s="24" t="s">
         <v>251</v>
       </c>
       <c r="J4" s="8"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>0.3125</v>
       </c>
       <c r="B5" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
+      <c r="F5" s="71"/>
+      <c r="G5" s="71"/>
+      <c r="H5" s="71"/>
       <c r="I5" s="24" t="s">
         <v>253</v>
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11">
         <v>0.35416666666666669</v>
       </c>
@@ -2399,21 +2381,21 @@
         <v>254</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="B7" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C7" s="69" t="s">
+      <c r="C7" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="69"/>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
       <c r="I7" s="24" t="s">
         <v>255</v>
       </c>
@@ -2423,7 +2405,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="14"/>
     </row>
-    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>0.43055555555555558</v>
       </c>
@@ -2451,21 +2433,21 @@
       </c>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>0.5</v>
       </c>
       <c r="B9" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C9" s="69" t="s">
+      <c r="C9" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
       <c r="I9" s="25"/>
       <c r="J9" s="8"/>
       <c r="K9" s="14"/>
@@ -2473,7 +2455,7 @@
       <c r="M9" s="14"/>
       <c r="N9" s="14"/>
     </row>
-    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -2500,21 +2482,21 @@
       </c>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>0.60416666666666663</v>
       </c>
       <c r="B11" s="4">
         <v>0.61805555555555558</v>
       </c>
-      <c r="C11" s="69" t="s">
+      <c r="C11" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
-      <c r="G11" s="69"/>
-      <c r="H11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
       <c r="I11" s="25"/>
       <c r="J11" s="12"/>
       <c r="K11" s="14"/>
@@ -2522,7 +2504,7 @@
       <c r="M11" s="14"/>
       <c r="N11" s="14"/>
     </row>
-    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>0.61805555555555558</v>
       </c>
@@ -2551,12 +2533,12 @@
         <v>250</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="I13" s="25" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -2565,7 +2547,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -2592,42 +2574,42 @@
         <v>260</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>0.3125</v>
       </c>
       <c r="B16" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C16" s="69" t="s">
+      <c r="C16" s="71" t="s">
         <v>247</v>
       </c>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="71"/>
       <c r="I16" s="25" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>0.3125</v>
       </c>
       <c r="B17" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C17" s="69" t="s">
+      <c r="C17" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-    </row>
-    <row r="18" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="71"/>
+      <c r="H17" s="71"/>
+    </row>
+    <row r="18" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>0.35416666666666669</v>
       </c>
@@ -2657,21 +2639,21 @@
       <c r="M18" s="15"/>
       <c r="N18" s="15"/>
     </row>
-    <row r="19" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="B19" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C19" s="69" t="s">
+      <c r="C19" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="71"/>
+      <c r="H19" s="71"/>
       <c r="I19" s="22"/>
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
@@ -2679,7 +2661,7 @@
       <c r="M19" s="15"/>
       <c r="N19" s="15"/>
     </row>
-    <row r="20" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>0.43055555555555558</v>
       </c>
@@ -2709,21 +2691,21 @@
       <c r="M20" s="15"/>
       <c r="N20" s="15"/>
     </row>
-    <row r="21" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>0.5</v>
       </c>
       <c r="B21" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C21" s="69" t="s">
+      <c r="C21" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="71"/>
+      <c r="H21" s="71"/>
       <c r="I21" s="22"/>
       <c r="J21" s="12"/>
       <c r="K21" s="15"/>
@@ -2731,21 +2713,21 @@
       <c r="M21" s="15"/>
       <c r="N21" s="15"/>
     </row>
-    <row r="22" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="6">
         <v>0.54166666666666663</v>
       </c>
       <c r="B22" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C22" s="72" t="s">
+      <c r="C22" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="72"/>
-      <c r="F22" s="72"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="74"/>
+      <c r="H22" s="74"/>
       <c r="I22" s="22"/>
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
@@ -2753,39 +2735,39 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="6">
         <v>0.55555555555555558</v>
       </c>
       <c r="B23" s="6">
         <v>0.59375</v>
       </c>
-      <c r="C23" s="72" t="s">
+      <c r="C23" s="74" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="72"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-    </row>
-    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
+    </row>
+    <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>0.59375</v>
       </c>
       <c r="B24" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C24" s="69" t="s">
+      <c r="C24" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="71"/>
+      <c r="E24" s="71"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="71"/>
+      <c r="H24" s="71"/>
+    </row>
+    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
         <v>0.60416666666666663</v>
       </c>
@@ -2807,21 +2789,21 @@
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
     </row>
-    <row r="26" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="6">
         <v>0.66666666666666663</v>
       </c>
       <c r="B26" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C26" s="72" t="s">
+      <c r="C26" s="74" t="s">
         <v>249</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="72"/>
-      <c r="F26" s="72"/>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="I26" s="22"/>
       <c r="J26" s="12"/>
       <c r="K26" s="15"/>
@@ -2829,29 +2811,29 @@
       <c r="M26" s="15"/>
       <c r="N26" s="15"/>
     </row>
-    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>0.75</v>
       </c>
       <c r="B27" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C27" s="69" t="s">
+      <c r="C27" s="71" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-    </row>
-    <row r="29" spans="1:14" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
+      <c r="F27" s="71"/>
+      <c r="G27" s="71"/>
+      <c r="H27" s="71"/>
+    </row>
+    <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B29" s="1"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -2870,87 +2852,87 @@
       <c r="F31" s="2"/>
       <c r="H31" s="2"/>
     </row>
-    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>0.3125</v>
       </c>
       <c r="B32" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="71" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="71"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>0.3125</v>
       </c>
       <c r="B33" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C33" s="69" t="s">
+      <c r="C33" s="71" t="s">
         <v>241</v>
       </c>
-      <c r="D33" s="69"/>
-      <c r="E33" s="69"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
         <v>0.32291666666666669</v>
       </c>
       <c r="B34" s="6">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C34" s="71" t="s">
+      <c r="C34" s="73" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
         <v>0.375</v>
       </c>
       <c r="B35" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C35" s="72" t="s">
+      <c r="C35" s="74" t="s">
         <v>43</v>
       </c>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
     </row>
-    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>0.41666666666666669</v>
       </c>
       <c r="B36" s="4">
         <v>0.4375</v>
       </c>
-      <c r="C36" s="69" t="s">
+      <c r="C36" s="71" t="s">
         <v>242</v>
       </c>
-      <c r="D36" s="69"/>
-      <c r="E36" s="69"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="11">
         <v>0.4375</v>
       </c>
@@ -2970,23 +2952,23 @@
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
     </row>
-    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>0.5</v>
       </c>
       <c r="B38" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C38" s="69" t="s">
+      <c r="C38" s="71" t="s">
         <v>243</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
+      <c r="D38" s="71"/>
+      <c r="E38" s="71"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="11">
         <v>0.54166666666666663</v>
       </c>
@@ -3006,23 +2988,23 @@
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
     </row>
-    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>0.60416666666666663</v>
       </c>
       <c r="B40" s="4">
         <v>0.625</v>
       </c>
-      <c r="C40" s="69" t="s">
+      <c r="C40" s="71" t="s">
         <v>244</v>
       </c>
-      <c r="D40" s="69"/>
-      <c r="E40" s="69"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="71"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>0.625</v>
       </c>
@@ -3041,45 +3023,45 @@
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
     </row>
-    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6">
         <v>0.6875</v>
       </c>
       <c r="B42" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C42" s="72" t="s">
+      <c r="C42" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="72"/>
-      <c r="E42" s="72"/>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
     </row>
-    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>0.75</v>
       </c>
       <c r="B43" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C43" s="69" t="s">
+      <c r="C43" s="71" t="s">
         <v>245</v>
       </c>
-      <c r="D43" s="69"/>
-      <c r="E43" s="69"/>
+      <c r="D43" s="71"/>
+      <c r="E43" s="71"/>
       <c r="F43" s="16"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="45" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="24" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B45" s="1"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -3094,7 +3076,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>0.3125</v>
       </c>
@@ -3110,7 +3092,7 @@
       <c r="G48" s="16"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>0.3125</v>
       </c>
@@ -3126,7 +3108,7 @@
       <c r="G49" s="16"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="6">
         <v>0.36458333333333331</v>
       </c>
@@ -3142,7 +3124,7 @@
       <c r="G50" s="17"/>
       <c r="H50" s="17"/>
     </row>
-    <row r="51" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>0.40625</v>
       </c>
@@ -3164,7 +3146,7 @@
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
     </row>
-    <row r="52" spans="1:14" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="11">
         <v>0.4375</v>
       </c>
@@ -3186,7 +3168,7 @@
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
     </row>
-    <row r="53" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="6">
         <v>0</v>
       </c>
@@ -3208,7 +3190,7 @@
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
     </row>
-    <row r="54" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>0.52083333333333337</v>
       </c>
@@ -3230,7 +3212,7 @@
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
     </row>
-    <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="19"/>
@@ -3246,15 +3228,15 @@
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
     </row>
-    <row r="56" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="69"/>
-      <c r="D56" s="69"/>
-      <c r="E56" s="69"/>
-      <c r="F56" s="69"/>
-      <c r="G56" s="69"/>
-      <c r="H56" s="69"/>
+      <c r="C56" s="71"/>
+      <c r="D56" s="71"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="71"/>
+      <c r="H56" s="71"/>
       <c r="I56" s="22"/>
       <c r="J56" s="12"/>
       <c r="K56" s="13"/>
@@ -3262,7 +3244,7 @@
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
     </row>
-    <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="19"/>
@@ -3278,15 +3260,15 @@
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
     </row>
-    <row r="58" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="72"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="72"/>
-      <c r="H58" s="72"/>
+      <c r="C58" s="74"/>
+      <c r="D58" s="74"/>
+      <c r="E58" s="74"/>
+      <c r="F58" s="74"/>
+      <c r="G58" s="74"/>
+      <c r="H58" s="74"/>
       <c r="I58" s="22"/>
       <c r="J58" s="12"/>
       <c r="K58" s="13"/>
@@ -3294,15 +3276,15 @@
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
     </row>
-    <row r="59" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="69"/>
-      <c r="D59" s="69"/>
-      <c r="E59" s="69"/>
-      <c r="F59" s="69"/>
-      <c r="G59" s="69"/>
-      <c r="H59" s="69"/>
+      <c r="C59" s="71"/>
+      <c r="D59" s="71"/>
+      <c r="E59" s="71"/>
+      <c r="F59" s="71"/>
+      <c r="G59" s="71"/>
+      <c r="H59" s="71"/>
       <c r="I59" s="22"/>
       <c r="J59" s="12"/>
       <c r="K59" s="13"/>
@@ -3310,7 +3292,7 @@
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
     </row>
-    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3326,12 +3308,12 @@
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
     </row>
-    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
-      <c r="C61" s="73"/>
-      <c r="D61" s="73"/>
-      <c r="E61" s="73"/>
+      <c r="C61" s="75"/>
+      <c r="D61" s="75"/>
+      <c r="E61" s="75"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -3342,12 +3324,12 @@
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
     </row>
-    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="73"/>
-      <c r="D62" s="73"/>
-      <c r="E62" s="73"/>
+      <c r="C62" s="75"/>
+      <c r="D62" s="75"/>
+      <c r="E62" s="75"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -3358,12 +3340,12 @@
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
     </row>
-    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="18"/>
       <c r="B63" s="18"/>
-      <c r="C63" s="73"/>
-      <c r="D63" s="73"/>
-      <c r="E63" s="73"/>
+      <c r="C63" s="75"/>
+      <c r="D63" s="75"/>
+      <c r="E63" s="75"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -3374,12 +3356,12 @@
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
     </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
-      <c r="C64" s="73"/>
-      <c r="D64" s="73"/>
-      <c r="E64" s="73"/>
+      <c r="C64" s="75"/>
+      <c r="D64" s="75"/>
+      <c r="E64" s="75"/>
       <c r="I64" s="22"/>
       <c r="J64" s="12"/>
       <c r="K64" s="13"/>
@@ -3387,12 +3369,12 @@
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
     </row>
-    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="18"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="73"/>
-      <c r="D65" s="73"/>
-      <c r="E65" s="73"/>
+      <c r="C65" s="75"/>
+      <c r="D65" s="75"/>
+      <c r="E65" s="75"/>
       <c r="I65" s="22"/>
       <c r="J65" s="12"/>
       <c r="K65" s="13"/>
@@ -3400,12 +3382,12 @@
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
     </row>
-    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="73"/>
-      <c r="D66" s="73"/>
-      <c r="E66" s="73"/>
+      <c r="C66" s="75"/>
+      <c r="D66" s="75"/>
+      <c r="E66" s="75"/>
       <c r="I66" s="22"/>
       <c r="J66" s="12"/>
       <c r="K66" s="13"/>
@@ -3413,12 +3395,12 @@
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
     </row>
-    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
-      <c r="C67" s="73"/>
-      <c r="D67" s="73"/>
-      <c r="E67" s="73"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
       <c r="I67" s="22"/>
       <c r="J67" s="12"/>
       <c r="K67" s="13"/>
@@ -3426,12 +3408,12 @@
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
     </row>
-    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="18"/>
       <c r="B68" s="18"/>
-      <c r="C68" s="73"/>
-      <c r="D68" s="73"/>
-      <c r="E68" s="73"/>
+      <c r="C68" s="75"/>
+      <c r="D68" s="75"/>
+      <c r="E68" s="75"/>
       <c r="I68" s="22"/>
       <c r="J68" s="12"/>
       <c r="K68" s="13"/>
@@ -3439,12 +3421,12 @@
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
     </row>
-    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
-      <c r="C69" s="73"/>
-      <c r="D69" s="73"/>
-      <c r="E69" s="73"/>
+      <c r="C69" s="75"/>
+      <c r="D69" s="75"/>
+      <c r="E69" s="75"/>
       <c r="I69" s="22"/>
       <c r="J69" s="12"/>
       <c r="K69" s="13"/>
@@ -3452,12 +3434,12 @@
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
     </row>
-    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="74"/>
-      <c r="B70" s="74"/>
-      <c r="C70" s="74"/>
-      <c r="D70" s="74"/>
-      <c r="E70" s="74"/>
+    <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="76"/>
+      <c r="B70" s="76"/>
+      <c r="C70" s="76"/>
+      <c r="D70" s="76"/>
+      <c r="E70" s="76"/>
       <c r="I70" s="22"/>
       <c r="J70" s="12"/>
       <c r="K70" s="13"/>
@@ -3465,12 +3447,12 @@
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
     </row>
-    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A71" s="18"/>
       <c r="B71" s="18"/>
-      <c r="C71" s="73"/>
-      <c r="D71" s="73"/>
-      <c r="E71" s="73"/>
+      <c r="C71" s="75"/>
+      <c r="D71" s="75"/>
+      <c r="E71" s="75"/>
       <c r="I71" s="22"/>
       <c r="J71" s="12"/>
       <c r="K71" s="13"/>
@@ -3478,12 +3460,12 @@
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
     </row>
-    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="75"/>
+      <c r="E72" s="75"/>
       <c r="I72" s="22"/>
       <c r="J72" s="12"/>
       <c r="K72" s="13"/>
@@ -3491,12 +3473,12 @@
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
     </row>
-    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="18"/>
       <c r="B73" s="18"/>
-      <c r="C73" s="73"/>
-      <c r="D73" s="73"/>
-      <c r="E73" s="73"/>
+      <c r="C73" s="75"/>
+      <c r="D73" s="75"/>
+      <c r="E73" s="75"/>
       <c r="I73" s="22"/>
       <c r="J73" s="12"/>
       <c r="K73" s="13"/>
@@ -3556,26 +3538,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA6AD37-6DFC-4503-945F-15A2E3AF42B9}">
   <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScale="101" workbookViewId="0">
-      <selection activeCell="G98" sqref="G98"/>
+    <sheetView topLeftCell="A32" zoomScale="101" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.85546875" style="42" customWidth="1"/>
-    <col min="4" max="5" width="5.5703125" style="42" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.140625" style="42" customWidth="1"/>
-    <col min="7" max="7" width="73.140625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="25.42578125" style="42" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="42"/>
-    <col min="11" max="11" width="69.140625" style="42" customWidth="1"/>
-    <col min="12" max="16384" width="8.7109375" style="42"/>
+    <col min="2" max="2" width="10.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.83203125" style="42" customWidth="1"/>
+    <col min="4" max="5" width="5.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1640625" style="42" customWidth="1"/>
+    <col min="7" max="7" width="73.1640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="25.5" style="42" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="42"/>
+    <col min="11" max="11" width="69.1640625" style="42" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
         <v>356</v>
       </c>
@@ -3585,13 +3567,13 @@
       <c r="C1" s="40" t="s">
         <v>358</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="81" t="s">
         <v>270</v>
       </c>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+    </row>
+    <row r="2" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>0.3125</v>
       </c>
@@ -3601,15 +3583,15 @@
       <c r="C2" s="44" t="s">
         <v>359</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="80" t="s">
         <v>271</v>
       </c>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="80"/>
       <c r="G2" s="46"/>
       <c r="H2" s="46"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>0.3125</v>
       </c>
@@ -3619,15 +3601,15 @@
       <c r="C3" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="D3" s="78" t="s">
+      <c r="D3" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
       <c r="G3" s="46"/>
       <c r="H3" s="46"/>
     </row>
-    <row r="4" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="90" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43">
         <v>0.5</v>
       </c>
@@ -3637,23 +3619,23 @@
       <c r="C4" s="44" t="s">
         <v>275</v>
       </c>
-      <c r="D4" s="78" t="s">
+      <c r="D4" s="80" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
       <c r="H4" s="46"/>
     </row>
-    <row r="7" spans="1:15" s="47" customFormat="1" ht="46.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81" t="s">
+    <row r="7" spans="1:15" s="47" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="81"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-    </row>
-    <row r="8" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B7" s="83"/>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="83"/>
+    </row>
+    <row r="8" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>5</v>
       </c>
@@ -3692,7 +3674,7 @@
       <c r="N8" s="41"/>
       <c r="O8" s="50"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -3714,7 +3696,7 @@
       <c r="M9" s="41"/>
       <c r="N9" s="52"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -3736,7 +3718,7 @@
       <c r="M10" s="41"/>
       <c r="N10" s="52"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -3758,7 +3740,7 @@
       <c r="M11" s="41"/>
       <c r="N11" s="52"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -3780,7 +3762,7 @@
       <c r="M12" s="41"/>
       <c r="N12" s="52"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -3802,7 +3784,7 @@
       <c r="M13" s="48"/>
       <c r="N13" s="49"/>
     </row>
-    <row r="14" spans="1:15" s="46" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="46" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="51">
         <v>0.54166666666666663</v>
       </c>
@@ -3814,14 +3796,14 @@
       </c>
       <c r="N14" s="49"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="75">
+    <row r="15" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B15" s="75">
+      <c r="B15" s="77">
         <v>0.6875</v>
       </c>
-      <c r="C15" s="76" t="s">
+      <c r="C15" s="78" t="s">
         <v>281</v>
       </c>
       <c r="D15" s="53">
@@ -3839,7 +3821,7 @@
       <c r="H15" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="I15" s="78" t="s">
         <v>34</v>
       </c>
       <c r="J15" s="55">
@@ -3849,10 +3831,10 @@
         <v>284</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
-      <c r="B16" s="75"/>
-      <c r="C16" s="76"/>
+    <row r="16" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A16" s="77"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="53">
         <v>6.25E-2</v>
       </c>
@@ -3868,7 +3850,7 @@
       <c r="H16" s="54" t="s">
         <v>287</v>
       </c>
-      <c r="I16" s="76"/>
+      <c r="I16" s="78"/>
       <c r="J16" s="55">
         <v>1338</v>
       </c>
@@ -3876,10 +3858,10 @@
         <v>287</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="76"/>
+    <row r="17" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A17" s="77"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
       <c r="D17" s="53">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -3895,7 +3877,7 @@
       <c r="H17" s="54" t="s">
         <v>291</v>
       </c>
-      <c r="I17" s="76"/>
+      <c r="I17" s="78"/>
       <c r="J17" s="55">
         <v>2216</v>
       </c>
@@ -3903,10 +3885,10 @@
         <v>290</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
-      <c r="B18" s="75"/>
-      <c r="C18" s="76"/>
+    <row r="18" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A18" s="77"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="78"/>
       <c r="D18" s="53">
         <v>0.11805555555555557</v>
       </c>
@@ -3922,7 +3904,7 @@
       <c r="H18" s="54" t="s">
         <v>295</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="78"/>
       <c r="J18" s="55">
         <v>3273</v>
       </c>
@@ -3930,10 +3912,10 @@
         <v>294</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="76"/>
+    <row r="19" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="77"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="78"/>
       <c r="D19" s="53">
         <v>0.1388888888888889</v>
       </c>
@@ -3949,7 +3931,7 @@
       <c r="H19" s="54" t="s">
         <v>299</v>
       </c>
-      <c r="I19" s="76"/>
+      <c r="I19" s="78"/>
       <c r="J19" s="55">
         <v>3800</v>
       </c>
@@ -3957,10 +3939,10 @@
         <v>298</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="75"/>
-      <c r="C20" s="76"/>
+    <row r="20" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="77"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="78"/>
       <c r="D20" s="53">
         <v>0.15972222222222224</v>
       </c>
@@ -3976,7 +3958,7 @@
       <c r="H20" s="54" t="s">
         <v>303</v>
       </c>
-      <c r="I20" s="76"/>
+      <c r="I20" s="78"/>
       <c r="J20" s="55">
         <v>4019</v>
       </c>
@@ -3984,7 +3966,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="51"/>
       <c r="B21" s="51"/>
       <c r="C21" s="48"/>
@@ -4000,14 +3982,14 @@
       <c r="M21" s="48"/>
       <c r="N21" s="49"/>
     </row>
-    <row r="22" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+    <row r="22" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="A22" s="83" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="81"/>
-      <c r="C22" s="81"/>
-      <c r="D22" s="81"/>
-      <c r="E22" s="81"/>
+      <c r="B22" s="83"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="83"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="48"/>
       <c r="G22" s="48"/>
       <c r="H22" s="48"/>
@@ -4018,7 +4000,7 @@
       <c r="M22" s="48"/>
       <c r="N22" s="49"/>
     </row>
-    <row r="23" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="41" t="s">
         <v>5</v>
       </c>
@@ -4057,14 +4039,14 @@
       <c r="N23" s="41"/>
       <c r="O23" s="50"/>
     </row>
-    <row r="24" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="75">
+    <row r="24" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A24" s="77">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B24" s="75">
+      <c r="B24" s="77">
         <v>0.5</v>
       </c>
-      <c r="C24" s="76" t="s">
+      <c r="C24" s="78" t="s">
         <v>308</v>
       </c>
       <c r="D24" s="53">
@@ -4082,7 +4064,7 @@
       <c r="H24" s="54" t="s">
         <v>312</v>
       </c>
-      <c r="I24" s="76" t="s">
+      <c r="I24" s="78" t="s">
         <v>34</v>
       </c>
       <c r="J24" s="55">
@@ -4095,10 +4077,10 @@
       <c r="M24" s="48"/>
       <c r="N24" s="49"/>
     </row>
-    <row r="25" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="75"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="76"/>
+    <row r="25" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A25" s="77"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="53">
         <v>0.375</v>
       </c>
@@ -4114,7 +4096,7 @@
       <c r="H25" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="I25" s="76"/>
+      <c r="I25" s="78"/>
       <c r="J25" s="55">
         <v>4252</v>
       </c>
@@ -4125,10 +4107,10 @@
       <c r="M25" s="48"/>
       <c r="N25" s="49"/>
     </row>
-    <row r="26" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="75"/>
-      <c r="B26" s="75"/>
-      <c r="C26" s="76"/>
+    <row r="26" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A26" s="77"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="53">
         <v>0.39583333333333331</v>
       </c>
@@ -4144,7 +4126,7 @@
       <c r="H26" s="54" t="s">
         <v>319</v>
       </c>
-      <c r="I26" s="76"/>
+      <c r="I26" s="78"/>
       <c r="J26" s="55">
         <v>5310</v>
       </c>
@@ -4155,10 +4137,10 @@
       <c r="M26" s="48"/>
       <c r="N26" s="49"/>
     </row>
-    <row r="27" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="75"/>
-      <c r="B27" s="75"/>
-      <c r="C27" s="76"/>
+    <row r="27" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A27" s="77"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="53">
         <v>0.43055555555555558</v>
       </c>
@@ -4174,7 +4156,7 @@
       <c r="H27" s="54" t="s">
         <v>322</v>
       </c>
-      <c r="I27" s="76"/>
+      <c r="I27" s="78"/>
       <c r="J27" s="55">
         <v>8033</v>
       </c>
@@ -4185,10 +4167,10 @@
       <c r="M27" s="48"/>
       <c r="N27" s="49"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="75"/>
-      <c r="B28" s="75"/>
-      <c r="C28" s="76"/>
+    <row r="28" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A28" s="77"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="53">
         <v>0.4513888888888889</v>
       </c>
@@ -4204,7 +4186,7 @@
       <c r="H28" s="54" t="s">
         <v>326</v>
       </c>
-      <c r="I28" s="76"/>
+      <c r="I28" s="78"/>
       <c r="J28" s="55">
         <v>9368</v>
       </c>
@@ -4215,10 +4197,10 @@
       <c r="M28" s="48"/>
       <c r="N28" s="49"/>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="75"/>
-      <c r="B29" s="75"/>
-      <c r="C29" s="76"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="77"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="53"/>
       <c r="E29" s="53"/>
       <c r="G29" s="54"/>
@@ -4229,7 +4211,7 @@
       <c r="M29" s="48"/>
       <c r="N29" s="49"/>
     </row>
-    <row r="30" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A30" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -4261,7 +4243,7 @@
       <c r="M30" s="48"/>
       <c r="N30" s="49"/>
     </row>
-    <row r="31" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A31" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -4293,7 +4275,7 @@
       <c r="M31" s="48"/>
       <c r="N31" s="49"/>
     </row>
-    <row r="32" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A32" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -4325,7 +4307,7 @@
       <c r="M32" s="54"/>
       <c r="N32" s="49"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="51">
         <v>0.35416666666666669</v>
       </c>
@@ -4357,7 +4339,7 @@
       <c r="M33" s="54"/>
       <c r="N33" s="49"/>
     </row>
-    <row r="34" spans="1:15" s="58" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" s="58" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="56">
         <v>0.54166666666666663</v>
       </c>
@@ -4382,7 +4364,7 @@
       <c r="L34" s="59"/>
       <c r="M34" s="59"/>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="51">
         <v>0.60416666666666663</v>
       </c>
@@ -4412,7 +4394,7 @@
       <c r="M35" s="54"/>
       <c r="N35" s="49"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="51"/>
       <c r="B36" s="51"/>
       <c r="C36" s="48"/>
@@ -4433,14 +4415,14 @@
       <c r="M36" s="54"/>
       <c r="N36" s="49"/>
     </row>
-    <row r="37" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="75">
+    <row r="37" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A37" s="77">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B37" s="75">
+      <c r="B37" s="77">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="78" t="s">
         <v>40</v>
       </c>
       <c r="D37" s="61">
@@ -4458,7 +4440,7 @@
       <c r="H37" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="I37" s="76" t="s">
+      <c r="I37" s="78" t="s">
         <v>238</v>
       </c>
       <c r="J37" s="55">
@@ -4472,10 +4454,10 @@
       <c r="N37" s="48"/>
       <c r="O37" s="49"/>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="75"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="76"/>
+    <row r="38" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A38" s="77"/>
+      <c r="B38" s="77"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="61">
         <v>0.11458333333333333</v>
       </c>
@@ -4491,7 +4473,7 @@
       <c r="H38" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="76"/>
+      <c r="I38" s="78"/>
       <c r="J38" s="55">
         <v>7053</v>
       </c>
@@ -4503,10 +4485,10 @@
       <c r="N38" s="48"/>
       <c r="O38" s="49"/>
     </row>
-    <row r="39" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="75"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="76"/>
+    <row r="39" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A39" s="77"/>
+      <c r="B39" s="77"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="61">
         <v>0.125</v>
       </c>
@@ -4522,7 +4504,7 @@
       <c r="H39" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="I39" s="76"/>
+      <c r="I39" s="78"/>
       <c r="J39" s="55">
         <v>8271</v>
       </c>
@@ -4534,10 +4516,10 @@
       <c r="N39" s="48"/>
       <c r="O39" s="49"/>
     </row>
-    <row r="40" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="76"/>
+    <row r="40" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A40" s="77"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="61">
         <v>0.13541666666666666</v>
       </c>
@@ -4553,7 +4535,7 @@
       <c r="H40" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="I40" s="76"/>
+      <c r="I40" s="78"/>
       <c r="J40" s="55">
         <v>8547</v>
       </c>
@@ -4565,10 +4547,10 @@
       <c r="N40" s="48"/>
       <c r="O40" s="49"/>
     </row>
-    <row r="41" spans="1:15" s="58" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="75"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
+    <row r="41" spans="1:15" s="58" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+      <c r="A41" s="77"/>
+      <c r="B41" s="77"/>
+      <c r="C41" s="78"/>
       <c r="D41" s="62">
         <v>0.14583333333333334</v>
       </c>
@@ -4584,7 +4566,7 @@
       <c r="H41" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="I41" s="76"/>
+      <c r="I41" s="78"/>
       <c r="J41" s="55">
         <v>9708</v>
       </c>
@@ -4592,7 +4574,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B42" s="54"/>
       <c r="C42" s="54"/>
       <c r="D42" s="63">
@@ -4601,31 +4583,31 @@
       <c r="E42" s="64">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F42" s="76" t="s">
+      <c r="F42" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
+      <c r="G42" s="78"/>
+      <c r="H42" s="78"/>
+      <c r="I42" s="78"/>
       <c r="J42" s="48"/>
       <c r="K42" s="48"/>
       <c r="L42" s="48"/>
       <c r="M42" s="49"/>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B43" s="54"/>
       <c r="C43" s="54"/>
       <c r="D43" s="55"/>
       <c r="E43" s="54"/>
     </row>
-    <row r="44" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="75">
+    <row r="44" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A44" s="77">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B44" s="75">
+      <c r="B44" s="77">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C44" s="76" t="s">
+      <c r="C44" s="78" t="s">
         <v>26</v>
       </c>
       <c r="D44" s="61">
@@ -4643,7 +4625,7 @@
       <c r="H44" s="54" t="s">
         <v>181</v>
       </c>
-      <c r="I44" s="76" t="s">
+      <c r="I44" s="78" t="s">
         <v>240</v>
       </c>
       <c r="J44" s="54">
@@ -4653,10 +4635,10 @@
         <v>342</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="76"/>
+    <row r="45" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A45" s="77"/>
+      <c r="B45" s="77"/>
+      <c r="C45" s="78"/>
       <c r="D45" s="61">
         <v>0.11458333333333333</v>
       </c>
@@ -4672,7 +4654,7 @@
       <c r="H45" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="I45" s="76"/>
+      <c r="I45" s="78"/>
       <c r="J45" s="54">
         <v>1578</v>
       </c>
@@ -4680,10 +4662,10 @@
         <v>343</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="75"/>
-      <c r="B46" s="75"/>
-      <c r="C46" s="76"/>
+    <row r="46" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A46" s="77"/>
+      <c r="B46" s="77"/>
+      <c r="C46" s="78"/>
       <c r="D46" s="61">
         <v>0.125</v>
       </c>
@@ -4699,7 +4681,7 @@
       <c r="H46" s="54" t="s">
         <v>187</v>
       </c>
-      <c r="I46" s="76"/>
+      <c r="I46" s="78"/>
       <c r="J46" s="54">
         <v>2159</v>
       </c>
@@ -4707,10 +4689,10 @@
         <v>344</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="75"/>
-      <c r="B47" s="75"/>
-      <c r="C47" s="76"/>
+    <row r="47" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A47" s="77"/>
+      <c r="B47" s="77"/>
+      <c r="C47" s="78"/>
       <c r="D47" s="61">
         <v>0.13541666666666666</v>
       </c>
@@ -4726,7 +4708,7 @@
       <c r="H47" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="I47" s="76"/>
+      <c r="I47" s="78"/>
       <c r="J47" s="54">
         <v>2375</v>
       </c>
@@ -4734,10 +4716,10 @@
         <v>345</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A48" s="75"/>
-      <c r="B48" s="75"/>
-      <c r="C48" s="76"/>
+    <row r="48" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A48" s="77"/>
+      <c r="B48" s="77"/>
+      <c r="C48" s="78"/>
       <c r="D48" s="62">
         <v>0.14583333333333334</v>
       </c>
@@ -4753,7 +4735,7 @@
       <c r="H48" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="I48" s="76"/>
+      <c r="I48" s="78"/>
       <c r="J48" s="54">
         <v>5209</v>
       </c>
@@ -4761,7 +4743,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B49" s="54"/>
       <c r="C49" s="54"/>
       <c r="D49" s="63">
@@ -4770,29 +4752,29 @@
       <c r="E49" s="64">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F49" s="76" t="s">
+      <c r="F49" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G49" s="76"/>
-      <c r="H49" s="76"/>
-      <c r="I49" s="76"/>
+      <c r="G49" s="78"/>
+      <c r="H49" s="78"/>
+      <c r="I49" s="78"/>
       <c r="J49" s="48"/>
       <c r="K49" s="48"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B50" s="54"/>
       <c r="C50" s="54"/>
       <c r="D50" s="55"/>
       <c r="E50" s="54"/>
     </row>
-    <row r="51" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A51" s="75">
+    <row r="51" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A51" s="77">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B51" s="75">
+      <c r="B51" s="77">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C51" s="76" t="s">
+      <c r="C51" s="78" t="s">
         <v>347</v>
       </c>
       <c r="D51" s="61">
@@ -4810,7 +4792,7 @@
       <c r="H51" s="54" t="s">
         <v>209</v>
       </c>
-      <c r="I51" s="76" t="s">
+      <c r="I51" s="78" t="s">
         <v>240</v>
       </c>
       <c r="J51" s="55">
@@ -4820,10 +4802,10 @@
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A52" s="75"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="76"/>
+    <row r="52" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A52" s="77"/>
+      <c r="B52" s="77"/>
+      <c r="C52" s="78"/>
       <c r="D52" s="61">
         <v>0.11458333333333333</v>
       </c>
@@ -4839,7 +4821,7 @@
       <c r="H52" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="I52" s="76"/>
+      <c r="I52" s="78"/>
       <c r="J52" s="55">
         <v>3490</v>
       </c>
@@ -4847,10 +4829,10 @@
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="76"/>
+    <row r="53" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A53" s="77"/>
+      <c r="B53" s="77"/>
+      <c r="C53" s="78"/>
       <c r="D53" s="61">
         <v>0.125</v>
       </c>
@@ -4866,7 +4848,7 @@
       <c r="H53" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="I53" s="76"/>
+      <c r="I53" s="78"/>
       <c r="J53" s="55">
         <v>8571</v>
       </c>
@@ -4874,10 +4856,10 @@
         <v>350</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="75"/>
-      <c r="B54" s="75"/>
-      <c r="C54" s="76"/>
+    <row r="54" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="77"/>
+      <c r="B54" s="77"/>
+      <c r="C54" s="78"/>
       <c r="D54" s="61">
         <v>0.13541666666666666</v>
       </c>
@@ -4893,7 +4875,7 @@
       <c r="H54" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="I54" s="76"/>
+      <c r="I54" s="78"/>
       <c r="J54" s="55">
         <v>8819</v>
       </c>
@@ -4901,10 +4883,10 @@
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="76"/>
+    <row r="55" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A55" s="77"/>
+      <c r="B55" s="77"/>
+      <c r="C55" s="78"/>
       <c r="D55" s="62">
         <v>0.14583333333333334</v>
       </c>
@@ -4920,7 +4902,7 @@
       <c r="H55" s="54" t="s">
         <v>221</v>
       </c>
-      <c r="I55" s="76"/>
+      <c r="I55" s="78"/>
       <c r="J55" s="55">
         <v>9671</v>
       </c>
@@ -4928,7 +4910,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B56" s="54"/>
       <c r="C56" s="54"/>
       <c r="D56" s="63">
@@ -4937,58 +4919,58 @@
       <c r="E56" s="64">
         <v>0.16666666666666666</v>
       </c>
-      <c r="F56" s="76" t="s">
+      <c r="F56" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G56" s="76"/>
-      <c r="H56" s="76"/>
-      <c r="I56" s="76"/>
+      <c r="G56" s="78"/>
+      <c r="H56" s="78"/>
+      <c r="I56" s="78"/>
       <c r="J56" s="48"/>
       <c r="K56" s="48"/>
     </row>
-    <row r="57" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="56">
         <v>0.66666666666666663</v>
       </c>
       <c r="B57" s="56">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C57" s="77" t="s">
+      <c r="C57" s="79" t="s">
         <v>354</v>
       </c>
-      <c r="D57" s="77"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="77"/>
-      <c r="H57" s="77"/>
+      <c r="D57" s="79"/>
+      <c r="E57" s="79"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="79"/>
+      <c r="H57" s="79"/>
       <c r="I57" s="48" t="s">
         <v>272</v>
       </c>
       <c r="J57" s="48"/>
       <c r="K57" s="48"/>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="43">
         <v>0.75</v>
       </c>
       <c r="B58" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C58" s="78" t="s">
+      <c r="C58" s="80" t="s">
         <v>355</v>
       </c>
-      <c r="D58" s="78"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="78"/>
-      <c r="H58" s="78"/>
+      <c r="D58" s="80"/>
+      <c r="E58" s="80"/>
+      <c r="F58" s="80"/>
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
       <c r="I58" s="45" t="s">
         <v>353</v>
       </c>
       <c r="J58" s="48"/>
       <c r="K58" s="48"/>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="43"/>
       <c r="B59" s="43"/>
       <c r="C59" s="45"/>
@@ -5001,14 +4983,14 @@
       <c r="J59" s="48"/>
       <c r="K59" s="48"/>
     </row>
-    <row r="60" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="81" t="s">
+    <row r="60" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="A60" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
       <c r="F60" s="48"/>
       <c r="G60" s="48"/>
       <c r="H60" s="48"/>
@@ -5019,7 +5001,7 @@
       <c r="M60" s="48"/>
       <c r="N60" s="49"/>
     </row>
-    <row r="61" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="41" t="s">
         <v>5</v>
       </c>
@@ -5058,31 +5040,31 @@
       <c r="N61" s="41"/>
       <c r="O61" s="50"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="56">
         <v>0.375</v>
       </c>
       <c r="B62" s="56">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C62" s="77" t="s">
+      <c r="C62" s="79" t="s">
         <v>360</v>
       </c>
-      <c r="D62" s="77"/>
-      <c r="E62" s="77"/>
+      <c r="D62" s="79"/>
+      <c r="E62" s="79"/>
       <c r="F62" s="45"/>
       <c r="I62" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="75">
+    <row r="63" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A63" s="77">
         <v>0.4375</v>
       </c>
-      <c r="B63" s="75">
+      <c r="B63" s="77">
         <v>0.5</v>
       </c>
-      <c r="C63" s="76" t="s">
+      <c r="C63" s="78" t="s">
         <v>366</v>
       </c>
       <c r="D63" s="61">
@@ -5100,7 +5082,7 @@
       <c r="H63" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="I63" s="76" t="s">
+      <c r="I63" s="78" t="s">
         <v>238</v>
       </c>
       <c r="J63" s="55">
@@ -5110,10 +5092,10 @@
         <v>361</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A64" s="75"/>
-      <c r="B64" s="75"/>
-      <c r="C64" s="76"/>
+    <row r="64" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A64" s="77"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="78"/>
       <c r="D64" s="61">
         <v>0.44791666666666669</v>
       </c>
@@ -5129,7 +5111,7 @@
       <c r="H64" s="54" t="s">
         <v>77</v>
       </c>
-      <c r="I64" s="76"/>
+      <c r="I64" s="78"/>
       <c r="J64" s="55">
         <v>5823</v>
       </c>
@@ -5137,10 +5119,10 @@
         <v>362</v>
       </c>
     </row>
-    <row r="65" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="75"/>
-      <c r="B65" s="75"/>
-      <c r="C65" s="76"/>
+    <row r="65" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A65" s="77"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="78"/>
       <c r="D65" s="61">
         <v>0.45833333333333331</v>
       </c>
@@ -5156,7 +5138,7 @@
       <c r="H65" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="I65" s="76"/>
+      <c r="I65" s="78"/>
       <c r="J65" s="55">
         <v>6701</v>
       </c>
@@ -5164,10 +5146,10 @@
         <v>363</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="75"/>
-      <c r="B66" s="75"/>
-      <c r="C66" s="76"/>
+    <row r="66" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A66" s="77"/>
+      <c r="B66" s="77"/>
+      <c r="C66" s="78"/>
       <c r="D66" s="61">
         <v>0.46875</v>
       </c>
@@ -5183,7 +5165,7 @@
       <c r="H66" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="I66" s="76"/>
+      <c r="I66" s="78"/>
       <c r="J66" s="55">
         <v>645</v>
       </c>
@@ -5191,10 +5173,10 @@
         <v>397</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="75"/>
-      <c r="B67" s="75"/>
-      <c r="C67" s="76"/>
+    <row r="67" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="77"/>
+      <c r="B67" s="77"/>
+      <c r="C67" s="78"/>
       <c r="D67" s="62">
         <v>0.47916666666666669</v>
       </c>
@@ -5210,7 +5192,7 @@
       <c r="H67" s="54" t="s">
         <v>86</v>
       </c>
-      <c r="I67" s="76"/>
+      <c r="I67" s="78"/>
       <c r="J67" s="55">
         <v>9933</v>
       </c>
@@ -5218,7 +5200,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B68" s="54"/>
       <c r="C68" s="54"/>
       <c r="D68" s="63">
@@ -5227,23 +5209,23 @@
       <c r="E68" s="64">
         <v>0.5</v>
       </c>
-      <c r="F68" s="76" t="s">
+      <c r="F68" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G68" s="76"/>
-      <c r="H68" s="76"/>
-      <c r="I68" s="76"/>
+      <c r="G68" s="78"/>
+      <c r="H68" s="78"/>
+      <c r="I68" s="78"/>
       <c r="J68" s="48"/>
       <c r="K68" s="48"/>
     </row>
-    <row r="69" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="75">
+    <row r="69" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A69" s="77">
         <v>0.4375</v>
       </c>
-      <c r="B69" s="75">
+      <c r="B69" s="77">
         <v>0.5</v>
       </c>
-      <c r="C69" s="76" t="s">
+      <c r="C69" s="78" t="s">
         <v>372</v>
       </c>
       <c r="D69" s="61">
@@ -5261,7 +5243,7 @@
       <c r="H69" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="I69" s="76" t="s">
+      <c r="I69" s="78" t="s">
         <v>239</v>
       </c>
       <c r="J69" s="55">
@@ -5271,10 +5253,10 @@
         <v>367</v>
       </c>
     </row>
-    <row r="70" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="75"/>
-      <c r="B70" s="75"/>
-      <c r="C70" s="76"/>
+    <row r="70" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A70" s="77"/>
+      <c r="B70" s="77"/>
+      <c r="C70" s="78"/>
       <c r="D70" s="61">
         <v>0.44791666666666669</v>
       </c>
@@ -5290,7 +5272,7 @@
       <c r="H70" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="I70" s="76"/>
+      <c r="I70" s="78"/>
       <c r="J70" s="55">
         <v>6322</v>
       </c>
@@ -5298,10 +5280,10 @@
         <v>368</v>
       </c>
     </row>
-    <row r="71" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="75"/>
-      <c r="B71" s="75"/>
-      <c r="C71" s="76"/>
+    <row r="71" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A71" s="77"/>
+      <c r="B71" s="77"/>
+      <c r="C71" s="78"/>
       <c r="D71" s="61">
         <v>0.45833333333333331</v>
       </c>
@@ -5317,7 +5299,7 @@
       <c r="H71" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="I71" s="76"/>
+      <c r="I71" s="78"/>
       <c r="J71" s="55">
         <v>8594</v>
       </c>
@@ -5325,10 +5307,10 @@
         <v>369</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="75"/>
-      <c r="B72" s="75"/>
-      <c r="C72" s="76"/>
+    <row r="72" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A72" s="77"/>
+      <c r="B72" s="77"/>
+      <c r="C72" s="78"/>
       <c r="D72" s="61">
         <v>0.46875</v>
       </c>
@@ -5344,7 +5326,7 @@
       <c r="H72" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="I72" s="76"/>
+      <c r="I72" s="78"/>
       <c r="J72" s="55">
         <v>1342</v>
       </c>
@@ -5352,10 +5334,10 @@
         <v>370</v>
       </c>
     </row>
-    <row r="73" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A73" s="75"/>
-      <c r="B73" s="75"/>
-      <c r="C73" s="76"/>
+    <row r="73" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A73" s="77"/>
+      <c r="B73" s="77"/>
+      <c r="C73" s="78"/>
       <c r="D73" s="62">
         <v>0.47916666666666669</v>
       </c>
@@ -5371,7 +5353,7 @@
       <c r="H73" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="I73" s="76"/>
+      <c r="I73" s="78"/>
       <c r="J73" s="55">
         <v>8385</v>
       </c>
@@ -5379,7 +5361,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B74" s="54"/>
       <c r="C74" s="54"/>
       <c r="D74" s="63">
@@ -5388,16 +5370,16 @@
       <c r="E74" s="64">
         <v>0.5</v>
       </c>
-      <c r="F74" s="76" t="s">
+      <c r="F74" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G74" s="76"/>
-      <c r="H74" s="76"/>
-      <c r="I74" s="76"/>
+      <c r="G74" s="78"/>
+      <c r="H74" s="78"/>
+      <c r="I74" s="78"/>
       <c r="J74" s="48"/>
       <c r="K74" s="48"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="43"/>
       <c r="B75" s="43"/>
       <c r="C75" s="45"/>
@@ -5410,14 +5392,14 @@
       <c r="J75" s="48"/>
       <c r="K75" s="48"/>
     </row>
-    <row r="76" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A76" s="75">
+    <row r="76" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A76" s="77">
         <v>0.4375</v>
       </c>
-      <c r="B76" s="75">
+      <c r="B76" s="77">
         <v>0.5</v>
       </c>
-      <c r="C76" s="76" t="s">
+      <c r="C76" s="78" t="s">
         <v>373</v>
       </c>
       <c r="D76" s="61">
@@ -5435,7 +5417,7 @@
       <c r="H76" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="I76" s="76" t="s">
+      <c r="I76" s="78" t="s">
         <v>240</v>
       </c>
       <c r="J76" s="54">
@@ -5445,10 +5427,10 @@
         <v>374</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="75"/>
-      <c r="B77" s="75"/>
-      <c r="C77" s="76"/>
+    <row r="77" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A77" s="77"/>
+      <c r="B77" s="77"/>
+      <c r="C77" s="78"/>
       <c r="D77" s="61">
         <v>0.4513888888888889</v>
       </c>
@@ -5464,7 +5446,7 @@
       <c r="H77" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="I77" s="76"/>
+      <c r="I77" s="78"/>
       <c r="J77" s="54">
         <v>8437</v>
       </c>
@@ -5472,10 +5454,10 @@
         <v>375</v>
       </c>
     </row>
-    <row r="78" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A78" s="75"/>
-      <c r="B78" s="75"/>
-      <c r="C78" s="76"/>
+    <row r="78" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A78" s="77"/>
+      <c r="B78" s="77"/>
+      <c r="C78" s="78"/>
       <c r="D78" s="61">
         <v>0.46527777777777773</v>
       </c>
@@ -5491,7 +5473,7 @@
       <c r="H78" s="54" t="s">
         <v>203</v>
       </c>
-      <c r="I78" s="76"/>
+      <c r="I78" s="78"/>
       <c r="J78" s="54">
         <v>8784</v>
       </c>
@@ -5499,10 +5481,10 @@
         <v>376</v>
       </c>
     </row>
-    <row r="79" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A79" s="75"/>
-      <c r="B79" s="75"/>
-      <c r="C79" s="76"/>
+    <row r="79" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A79" s="77"/>
+      <c r="B79" s="77"/>
+      <c r="C79" s="78"/>
       <c r="D79" s="61">
         <v>0.47916666666666669</v>
       </c>
@@ -5518,7 +5500,7 @@
       <c r="H79" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="I79" s="76"/>
+      <c r="I79" s="78"/>
       <c r="J79" s="54">
         <v>9116</v>
       </c>
@@ -5526,40 +5508,40 @@
         <v>377</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="75"/>
-      <c r="B80" s="75"/>
-      <c r="C80" s="76"/>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="77"/>
+      <c r="B80" s="77"/>
+      <c r="C80" s="78"/>
       <c r="D80" s="63">
         <v>0.49305555555555558</v>
       </c>
       <c r="E80" s="64">
         <v>0.5</v>
       </c>
-      <c r="F80" s="76" t="s">
+      <c r="F80" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G80" s="76"/>
-      <c r="H80" s="76"/>
-      <c r="I80" s="76"/>
+      <c r="G80" s="78"/>
+      <c r="H80" s="78"/>
+      <c r="I80" s="78"/>
       <c r="J80" s="55"/>
       <c r="K80" s="54"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E81" s="54"/>
       <c r="F81" s="54"/>
       <c r="I81" s="45"/>
       <c r="J81" s="48"/>
       <c r="K81" s="48"/>
     </row>
-    <row r="82" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A82" s="75">
+    <row r="82" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A82" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B82" s="75">
+      <c r="B82" s="77">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C82" s="76" t="s">
+      <c r="C82" s="78" t="s">
         <v>378</v>
       </c>
       <c r="D82" s="61">
@@ -5577,7 +5559,7 @@
       <c r="H82" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="I82" s="76" t="s">
+      <c r="I82" s="78" t="s">
         <v>238</v>
       </c>
       <c r="J82" s="55">
@@ -5587,10 +5569,10 @@
         <v>379</v>
       </c>
     </row>
-    <row r="83" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A83" s="75"/>
-      <c r="B83" s="75"/>
-      <c r="C83" s="76"/>
+    <row r="83" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A83" s="77"/>
+      <c r="B83" s="77"/>
+      <c r="C83" s="78"/>
       <c r="D83" s="61">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -5606,7 +5588,7 @@
       <c r="H83" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="I83" s="76"/>
+      <c r="I83" s="78"/>
       <c r="J83" s="55">
         <v>6922</v>
       </c>
@@ -5614,10 +5596,10 @@
         <v>380</v>
       </c>
     </row>
-    <row r="84" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A84" s="75"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="76"/>
+    <row r="84" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A84" s="77"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="78"/>
       <c r="D84" s="61">
         <v>6.25E-2</v>
       </c>
@@ -5633,7 +5615,7 @@
       <c r="H84" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="I84" s="76"/>
+      <c r="I84" s="78"/>
       <c r="J84" s="55">
         <v>8651</v>
       </c>
@@ -5641,10 +5623,10 @@
         <v>381</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="75"/>
-      <c r="B85" s="75"/>
-      <c r="C85" s="76"/>
+    <row r="85" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A85" s="77"/>
+      <c r="B85" s="77"/>
+      <c r="C85" s="78"/>
       <c r="D85" s="61">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -5660,7 +5642,7 @@
       <c r="H85" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="I85" s="76"/>
+      <c r="I85" s="78"/>
       <c r="J85" s="55">
         <v>4140</v>
       </c>
@@ -5668,10 +5650,10 @@
         <v>382</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="75"/>
-      <c r="B86" s="75"/>
-      <c r="C86" s="76"/>
+    <row r="86" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A86" s="77"/>
+      <c r="B86" s="77"/>
+      <c r="C86" s="78"/>
       <c r="D86" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5687,7 +5669,7 @@
       <c r="H86" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="I86" s="76"/>
+      <c r="I86" s="78"/>
       <c r="J86" s="55">
         <v>4444</v>
       </c>
@@ -5695,7 +5677,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B87" s="54"/>
       <c r="C87" s="54"/>
       <c r="D87" s="63">
@@ -5704,16 +5686,16 @@
       <c r="E87" s="64">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F87" s="76" t="s">
+      <c r="F87" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G87" s="76"/>
-      <c r="H87" s="76"/>
-      <c r="I87" s="76"/>
+      <c r="G87" s="78"/>
+      <c r="H87" s="78"/>
+      <c r="I87" s="78"/>
       <c r="J87" s="48"/>
       <c r="K87" s="48"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="43"/>
       <c r="B88" s="43"/>
       <c r="C88" s="45"/>
@@ -5726,14 +5708,14 @@
       <c r="J88" s="48"/>
       <c r="K88" s="48"/>
     </row>
-    <row r="89" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A89" s="75">
+    <row r="89" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A89" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B89" s="75">
+      <c r="B89" s="77">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C89" s="76" t="s">
+      <c r="C89" s="78" t="s">
         <v>384</v>
       </c>
       <c r="D89" s="61">
@@ -5751,7 +5733,7 @@
       <c r="H89" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="I89" s="76" t="s">
+      <c r="I89" s="78" t="s">
         <v>385</v>
       </c>
       <c r="J89" s="55">
@@ -5761,10 +5743,10 @@
         <v>386</v>
       </c>
     </row>
-    <row r="90" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A90" s="75"/>
-      <c r="B90" s="75"/>
-      <c r="C90" s="76"/>
+    <row r="90" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A90" s="77"/>
+      <c r="B90" s="77"/>
+      <c r="C90" s="78"/>
       <c r="D90" s="61">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -5780,7 +5762,7 @@
       <c r="H90" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="I90" s="76"/>
+      <c r="I90" s="78"/>
       <c r="J90" s="55">
         <v>988</v>
       </c>
@@ -5788,10 +5770,10 @@
         <v>387</v>
       </c>
     </row>
-    <row r="91" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A91" s="75"/>
-      <c r="B91" s="75"/>
-      <c r="C91" s="76"/>
+    <row r="91" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A91" s="77"/>
+      <c r="B91" s="77"/>
+      <c r="C91" s="78"/>
       <c r="D91" s="61">
         <v>6.25E-2</v>
       </c>
@@ -5807,7 +5789,7 @@
       <c r="H91" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="I91" s="76"/>
+      <c r="I91" s="78"/>
       <c r="J91" s="55">
         <v>2868</v>
       </c>
@@ -5815,10 +5797,10 @@
         <v>388</v>
       </c>
     </row>
-    <row r="92" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="75"/>
-      <c r="B92" s="75"/>
-      <c r="C92" s="76"/>
+    <row r="92" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A92" s="77"/>
+      <c r="B92" s="77"/>
+      <c r="C92" s="78"/>
       <c r="D92" s="61">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -5834,7 +5816,7 @@
       <c r="H92" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="I92" s="76"/>
+      <c r="I92" s="78"/>
       <c r="J92" s="55">
         <v>4100</v>
       </c>
@@ -5842,10 +5824,10 @@
         <v>389</v>
       </c>
     </row>
-    <row r="93" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="75"/>
-      <c r="B93" s="75"/>
-      <c r="C93" s="76"/>
+    <row r="93" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A93" s="77"/>
+      <c r="B93" s="77"/>
+      <c r="C93" s="78"/>
       <c r="D93" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -5861,7 +5843,7 @@
       <c r="H93" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="I93" s="76"/>
+      <c r="I93" s="78"/>
       <c r="J93" s="55">
         <v>6907</v>
       </c>
@@ -5869,7 +5851,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B94" s="54"/>
       <c r="C94" s="54"/>
       <c r="D94" s="63">
@@ -5878,16 +5860,16 @@
       <c r="E94" s="64">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F94" s="76" t="s">
+      <c r="F94" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G94" s="76"/>
-      <c r="H94" s="76"/>
-      <c r="I94" s="76"/>
+      <c r="G94" s="78"/>
+      <c r="H94" s="78"/>
+      <c r="I94" s="78"/>
       <c r="J94" s="48"/>
       <c r="K94" s="48"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B95" s="54"/>
       <c r="C95" s="54"/>
       <c r="D95" s="63"/>
@@ -5899,14 +5881,14 @@
       <c r="J95" s="48"/>
       <c r="K95" s="48"/>
     </row>
-    <row r="96" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="75">
+    <row r="96" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A96" s="77">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B96" s="75">
+      <c r="B96" s="77">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C96" s="76" t="s">
+      <c r="C96" s="78" t="s">
         <v>135</v>
       </c>
       <c r="D96" s="61">
@@ -5924,7 +5906,7 @@
       <c r="H96" s="42" t="s">
         <v>138</v>
       </c>
-      <c r="I96" s="76" t="s">
+      <c r="I96" s="78" t="s">
         <v>391</v>
       </c>
       <c r="J96" s="55">
@@ -5934,10 +5916,10 @@
         <v>392</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A97" s="75"/>
-      <c r="B97" s="75"/>
-      <c r="C97" s="76"/>
+    <row r="97" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A97" s="77"/>
+      <c r="B97" s="77"/>
+      <c r="C97" s="78"/>
       <c r="D97" s="61">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -5953,7 +5935,7 @@
       <c r="H97" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="I97" s="76"/>
+      <c r="I97" s="78"/>
       <c r="J97" s="55">
         <v>6798</v>
       </c>
@@ -5961,10 +5943,10 @@
         <v>393</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A98" s="75"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="76"/>
+    <row r="98" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A98" s="77"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="78"/>
       <c r="D98" s="61">
         <v>6.25E-2</v>
       </c>
@@ -5980,7 +5962,7 @@
       <c r="H98" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="I98" s="76"/>
+      <c r="I98" s="78"/>
       <c r="J98" s="55">
         <v>6842</v>
       </c>
@@ -5988,10 +5970,10 @@
         <v>394</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="75"/>
-      <c r="B99" s="75"/>
-      <c r="C99" s="76"/>
+    <row r="99" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A99" s="77"/>
+      <c r="B99" s="77"/>
+      <c r="C99" s="78"/>
       <c r="D99" s="61">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -6007,7 +5989,7 @@
       <c r="H99" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="I99" s="76"/>
+      <c r="I99" s="78"/>
       <c r="J99" s="55">
         <v>8182</v>
       </c>
@@ -6015,10 +5997,10 @@
         <v>395</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="75"/>
-      <c r="B100" s="75"/>
-      <c r="C100" s="76"/>
+    <row r="100" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="A100" s="77"/>
+      <c r="B100" s="77"/>
+      <c r="C100" s="78"/>
       <c r="D100" s="62">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -6034,7 +6016,7 @@
       <c r="H100" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="I100" s="76"/>
+      <c r="I100" s="78"/>
       <c r="J100" s="55">
         <v>3356</v>
       </c>
@@ -6042,7 +6024,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B101" s="54"/>
       <c r="C101" s="54"/>
       <c r="D101" s="63">
@@ -6051,16 +6033,16 @@
       <c r="E101" s="64">
         <v>0.10416666666666667</v>
       </c>
-      <c r="F101" s="76" t="s">
+      <c r="F101" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G101" s="76"/>
-      <c r="H101" s="76"/>
-      <c r="I101" s="76"/>
+      <c r="G101" s="78"/>
+      <c r="H101" s="78"/>
+      <c r="I101" s="78"/>
       <c r="J101" s="48"/>
       <c r="K101" s="48"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B102" s="54"/>
       <c r="C102" s="54"/>
       <c r="D102" s="63"/>
@@ -6072,7 +6054,7 @@
       <c r="J102" s="48"/>
       <c r="K102" s="48"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B103" s="54"/>
       <c r="C103" s="54"/>
       <c r="D103" s="63"/>
@@ -6084,14 +6066,14 @@
       <c r="J103" s="48"/>
       <c r="K103" s="48"/>
     </row>
-    <row r="104" spans="1:11" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A104" s="75">
+    <row r="104" spans="1:11" ht="28" x14ac:dyDescent="0.2">
+      <c r="A104" s="77">
         <v>0.625</v>
       </c>
-      <c r="B104" s="75">
+      <c r="B104" s="77">
         <v>0.6875</v>
       </c>
-      <c r="C104" s="76" t="s">
+      <c r="C104" s="78" t="s">
         <v>418</v>
       </c>
       <c r="D104" s="61">
@@ -6109,7 +6091,7 @@
       <c r="H104" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="I104" s="76" t="s">
+      <c r="I104" s="78" t="s">
         <v>396</v>
       </c>
       <c r="J104" s="55">
@@ -6119,10 +6101,10 @@
         <v>364</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A105" s="75"/>
-      <c r="B105" s="75"/>
-      <c r="C105" s="76"/>
+    <row r="105" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A105" s="77"/>
+      <c r="B105" s="77"/>
+      <c r="C105" s="78"/>
       <c r="D105" s="61">
         <v>0.13541666666666666</v>
       </c>
@@ -6138,7 +6120,7 @@
       <c r="H105" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="I105" s="76"/>
+      <c r="I105" s="78"/>
       <c r="J105" s="55">
         <v>3664</v>
       </c>
@@ -6146,10 +6128,10 @@
         <v>398</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A106" s="75"/>
-      <c r="B106" s="75"/>
-      <c r="C106" s="76"/>
+    <row r="106" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A106" s="77"/>
+      <c r="B106" s="77"/>
+      <c r="C106" s="78"/>
       <c r="D106" s="61">
         <v>0.14583333333333334</v>
       </c>
@@ -6165,7 +6147,7 @@
       <c r="H106" s="42" t="s">
         <v>158</v>
       </c>
-      <c r="I106" s="76"/>
+      <c r="I106" s="78"/>
       <c r="J106" s="55">
         <v>841</v>
       </c>
@@ -6173,10 +6155,10 @@
         <v>399</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A107" s="75"/>
-      <c r="B107" s="75"/>
-      <c r="C107" s="76"/>
+    <row r="107" spans="1:11" ht="42" x14ac:dyDescent="0.2">
+      <c r="A107" s="77"/>
+      <c r="B107" s="77"/>
+      <c r="C107" s="78"/>
       <c r="D107" s="61">
         <v>0.15625</v>
       </c>
@@ -6192,7 +6174,7 @@
       <c r="H107" s="42" t="s">
         <v>161</v>
       </c>
-      <c r="I107" s="76"/>
+      <c r="I107" s="78"/>
       <c r="J107" s="55">
         <v>1002</v>
       </c>
@@ -6200,10 +6182,10 @@
         <v>400</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="75"/>
-      <c r="B108" s="75"/>
-      <c r="C108" s="76"/>
+    <row r="108" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A108" s="77"/>
+      <c r="B108" s="77"/>
+      <c r="C108" s="78"/>
       <c r="D108" s="62">
         <v>0.16666666666666666</v>
       </c>
@@ -6219,7 +6201,7 @@
       <c r="H108" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="I108" s="76"/>
+      <c r="I108" s="78"/>
       <c r="J108" s="55">
         <v>8724</v>
       </c>
@@ -6227,7 +6209,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B109" s="54"/>
       <c r="C109" s="54"/>
       <c r="D109" s="63">
@@ -6236,16 +6218,16 @@
       <c r="E109" s="64">
         <v>0.1875</v>
       </c>
-      <c r="F109" s="76" t="s">
+      <c r="F109" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G109" s="76"/>
-      <c r="H109" s="76"/>
-      <c r="I109" s="76"/>
+      <c r="G109" s="78"/>
+      <c r="H109" s="78"/>
+      <c r="I109" s="78"/>
       <c r="J109" s="48"/>
       <c r="K109" s="48"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B110" s="54"/>
       <c r="C110" s="54"/>
       <c r="D110" s="63"/>
@@ -6257,14 +6239,14 @@
       <c r="J110" s="48"/>
       <c r="K110" s="48"/>
     </row>
-    <row r="111" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A111" s="75">
+    <row r="111" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A111" s="77">
         <v>0.625</v>
       </c>
-      <c r="B111" s="75">
+      <c r="B111" s="77">
         <v>0.6875</v>
       </c>
-      <c r="C111" s="76" t="s">
+      <c r="C111" s="78" t="s">
         <v>165</v>
       </c>
       <c r="D111" s="61">
@@ -6282,7 +6264,7 @@
       <c r="H111" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="I111" s="76" t="s">
+      <c r="I111" s="78" t="s">
         <v>385</v>
       </c>
       <c r="J111" s="55">
@@ -6292,10 +6274,10 @@
         <v>402</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="75"/>
-      <c r="B112" s="75"/>
-      <c r="C112" s="76"/>
+    <row r="112" spans="1:11" ht="32" x14ac:dyDescent="0.2">
+      <c r="A112" s="77"/>
+      <c r="B112" s="77"/>
+      <c r="C112" s="78"/>
       <c r="D112" s="61">
         <v>0.13541666666666666</v>
       </c>
@@ -6311,7 +6293,7 @@
       <c r="H112" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="I112" s="76"/>
+      <c r="I112" s="78"/>
       <c r="J112" s="55">
         <v>726</v>
       </c>
@@ -6319,10 +6301,10 @@
         <v>403</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A113" s="75"/>
-      <c r="B113" s="75"/>
-      <c r="C113" s="76"/>
+    <row r="113" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A113" s="77"/>
+      <c r="B113" s="77"/>
+      <c r="C113" s="78"/>
       <c r="D113" s="61">
         <v>0.14583333333333334</v>
       </c>
@@ -6338,7 +6320,7 @@
       <c r="H113" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="I113" s="76"/>
+      <c r="I113" s="78"/>
       <c r="J113" s="55">
         <v>1067</v>
       </c>
@@ -6346,10 +6328,10 @@
         <v>404</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A114" s="75"/>
-      <c r="B114" s="75"/>
-      <c r="C114" s="76"/>
+    <row r="114" spans="1:15" ht="42" x14ac:dyDescent="0.2">
+      <c r="A114" s="77"/>
+      <c r="B114" s="77"/>
+      <c r="C114" s="78"/>
       <c r="D114" s="61">
         <v>0.15625</v>
       </c>
@@ -6365,7 +6347,7 @@
       <c r="H114" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="I114" s="76"/>
+      <c r="I114" s="78"/>
       <c r="J114" s="55">
         <v>2721</v>
       </c>
@@ -6373,37 +6355,37 @@
         <v>405</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A115" s="75"/>
-      <c r="B115" s="75"/>
-      <c r="C115" s="76"/>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" s="77"/>
+      <c r="B115" s="77"/>
+      <c r="C115" s="78"/>
       <c r="D115" s="63">
         <v>0.17361111111111113</v>
       </c>
       <c r="E115" s="64">
         <v>0.1875</v>
       </c>
-      <c r="F115" s="76" t="s">
+      <c r="F115" s="78" t="s">
         <v>341</v>
       </c>
-      <c r="G115" s="76"/>
-      <c r="H115" s="76"/>
-      <c r="I115" s="76"/>
+      <c r="G115" s="78"/>
+      <c r="H115" s="78"/>
+      <c r="I115" s="78"/>
       <c r="J115" s="55"/>
       <c r="K115" s="54"/>
     </row>
-    <row r="116" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="56">
         <v>0.6875</v>
       </c>
       <c r="B116" s="56">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C116" s="77" t="s">
+      <c r="C116" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="D116" s="77"/>
-      <c r="E116" s="77"/>
+      <c r="D116" s="79"/>
+      <c r="E116" s="79"/>
       <c r="F116" s="48"/>
       <c r="G116" s="48"/>
       <c r="H116" s="48"/>
@@ -6413,18 +6395,18 @@
       <c r="J116" s="48"/>
       <c r="K116" s="48"/>
     </row>
-    <row r="117" spans="1:15" s="44" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" s="44" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="43">
         <v>0.75</v>
       </c>
       <c r="B117" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C117" s="78" t="s">
+      <c r="C117" s="80" t="s">
         <v>406</v>
       </c>
-      <c r="D117" s="78"/>
-      <c r="E117" s="78"/>
+      <c r="D117" s="80"/>
+      <c r="E117" s="80"/>
       <c r="F117" s="45"/>
       <c r="G117" s="45"/>
       <c r="H117" s="45"/>
@@ -6434,19 +6416,19 @@
       <c r="J117" s="45"/>
       <c r="K117" s="45"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="51"/>
       <c r="B118" s="51"/>
       <c r="C118" s="48"/>
     </row>
-    <row r="120" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A120" s="81" t="s">
+    <row r="120" spans="1:15" ht="24" x14ac:dyDescent="0.2">
+      <c r="A120" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="B120" s="81"/>
-      <c r="C120" s="81"/>
-      <c r="D120" s="81"/>
-      <c r="E120" s="81"/>
+      <c r="B120" s="83"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
       <c r="F120" s="48"/>
       <c r="G120" s="48"/>
       <c r="H120" s="48"/>
@@ -6457,7 +6439,7 @@
       <c r="M120" s="48"/>
       <c r="N120" s="49"/>
     </row>
-    <row r="121" spans="1:15" s="40" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="41" t="s">
         <v>5</v>
       </c>
@@ -6496,18 +6478,18 @@
       <c r="N121" s="41"/>
       <c r="O121" s="50"/>
     </row>
-    <row r="122" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="56">
         <v>0.36458333333333331</v>
       </c>
       <c r="B122" s="56">
         <v>0.40625</v>
       </c>
-      <c r="C122" s="77" t="s">
+      <c r="C122" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="D122" s="77"/>
-      <c r="E122" s="77"/>
+      <c r="D122" s="79"/>
+      <c r="E122" s="79"/>
       <c r="F122" s="45"/>
       <c r="G122" s="45"/>
       <c r="H122" s="45"/>
@@ -6517,14 +6499,14 @@
       <c r="J122" s="48"/>
       <c r="K122" s="48"/>
     </row>
-    <row r="123" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="75">
+    <row r="123" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A123" s="77">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B123" s="75">
+      <c r="B123" s="77">
         <v>0.5</v>
       </c>
-      <c r="C123" s="76" t="s">
+      <c r="C123" s="78" t="s">
         <v>409</v>
       </c>
       <c r="D123" s="61">
@@ -6542,7 +6524,7 @@
       <c r="H123" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="I123" s="76" t="s">
+      <c r="I123" s="78" t="s">
         <v>34</v>
       </c>
       <c r="J123" s="55">
@@ -6552,10 +6534,10 @@
         <v>410</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A124" s="75"/>
-      <c r="B124" s="75"/>
-      <c r="C124" s="76"/>
+    <row r="124" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A124" s="77"/>
+      <c r="B124" s="77"/>
+      <c r="C124" s="78"/>
       <c r="D124" s="61">
         <v>0.43055555555555558</v>
       </c>
@@ -6571,7 +6553,7 @@
       <c r="H124" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="I124" s="76"/>
+      <c r="I124" s="78"/>
       <c r="J124" s="55">
         <v>4414</v>
       </c>
@@ -6579,10 +6561,10 @@
         <v>411</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A125" s="75"/>
-      <c r="B125" s="75"/>
-      <c r="C125" s="76"/>
+    <row r="125" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A125" s="77"/>
+      <c r="B125" s="77"/>
+      <c r="C125" s="78"/>
       <c r="D125" s="61">
         <v>0.44444444444444442</v>
       </c>
@@ -6598,7 +6580,7 @@
       <c r="H125" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="I125" s="76"/>
+      <c r="I125" s="78"/>
       <c r="J125" s="55">
         <v>6208</v>
       </c>
@@ -6606,10 +6588,10 @@
         <v>412</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A126" s="75"/>
-      <c r="B126" s="75"/>
-      <c r="C126" s="76"/>
+    <row r="126" spans="1:15" ht="28" x14ac:dyDescent="0.2">
+      <c r="A126" s="77"/>
+      <c r="B126" s="77"/>
+      <c r="C126" s="78"/>
       <c r="D126" s="61">
         <v>0.45833333333333331</v>
       </c>
@@ -6625,7 +6607,7 @@
       <c r="H126" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="I126" s="76"/>
+      <c r="I126" s="78"/>
       <c r="J126" s="55">
         <v>8115</v>
       </c>
@@ -6633,10 +6615,10 @@
         <v>413</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A127" s="75"/>
-      <c r="B127" s="75"/>
-      <c r="C127" s="76"/>
+    <row r="127" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A127" s="77"/>
+      <c r="B127" s="77"/>
+      <c r="C127" s="78"/>
       <c r="D127" s="61">
         <v>0.47222222222222227</v>
       </c>
@@ -6652,7 +6634,7 @@
       <c r="H127" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="I127" s="76"/>
+      <c r="I127" s="78"/>
       <c r="J127" s="55">
         <v>9931</v>
       </c>
@@ -6660,10 +6642,10 @@
         <v>236</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A128" s="75"/>
-      <c r="B128" s="75"/>
-      <c r="C128" s="76"/>
+    <row r="128" spans="1:15" ht="16" x14ac:dyDescent="0.2">
+      <c r="A128" s="77"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="78"/>
       <c r="D128" s="63">
         <v>0.4861111111111111</v>
       </c>
@@ -6676,42 +6658,42 @@
       <c r="G128" s="42" t="s">
         <v>415</v>
       </c>
-      <c r="I128" s="76"/>
+      <c r="I128" s="78"/>
       <c r="J128" s="55"/>
       <c r="K128" s="54"/>
     </row>
-    <row r="129" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="56">
         <v>0.5</v>
       </c>
       <c r="B129" s="56">
         <v>0.52083333333333337</v>
       </c>
-      <c r="C129" s="77" t="s">
+      <c r="C129" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="D129" s="77"/>
-      <c r="E129" s="77"/>
+      <c r="D129" s="79"/>
+      <c r="E129" s="79"/>
       <c r="I129" s="58" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130" s="65"/>
       <c r="B130" s="65"/>
-      <c r="C130" s="80"/>
-      <c r="D130" s="80"/>
-      <c r="E130" s="80"/>
-    </row>
-    <row r="134" spans="1:12" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="C130" s="82"/>
+      <c r="D130" s="82"/>
+      <c r="E130" s="82"/>
+    </row>
+    <row r="134" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="J134" s="47"/>
       <c r="K134" s="47"/>
       <c r="L134" s="48"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="L135" s="48"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136" s="40"/>
       <c r="B136" s="40"/>
       <c r="C136" s="40"/>
@@ -6723,102 +6705,104 @@
       <c r="K136" s="41"/>
       <c r="L136" s="41"/>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J137" s="65"/>
       <c r="K137" s="65"/>
       <c r="L137" s="46"/>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J138" s="65"/>
       <c r="K138" s="65"/>
       <c r="L138" s="46"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J139" s="56"/>
       <c r="K139" s="56"/>
       <c r="L139" s="58"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J140" s="56"/>
       <c r="K140" s="56"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J141" s="65"/>
       <c r="K141" s="65"/>
       <c r="L141" s="46"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J142" s="51"/>
       <c r="K142" s="51"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J143" s="56"/>
       <c r="K143" s="56"/>
       <c r="L143" s="58"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="J144" s="65"/>
       <c r="K144" s="65"/>
       <c r="L144" s="46"/>
     </row>
-    <row r="176" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F176" s="54"/>
       <c r="G176" s="54"/>
     </row>
-    <row r="177" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F177" s="54"/>
       <c r="G177" s="54"/>
     </row>
-    <row r="178" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F178" s="54"/>
       <c r="G178" s="54"/>
     </row>
-    <row r="179" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F179" s="54"/>
       <c r="G179" s="54"/>
     </row>
-    <row r="180" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F180" s="54"/>
       <c r="G180" s="54"/>
     </row>
-    <row r="181" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F181" s="54"/>
       <c r="G181" s="54"/>
     </row>
-    <row r="182" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F182" s="54"/>
       <c r="G182" s="54"/>
     </row>
-    <row r="183" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F183" s="54"/>
       <c r="G183" s="54"/>
     </row>
-    <row r="184" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F184" s="54"/>
       <c r="G184" s="54"/>
     </row>
-    <row r="185" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F185" s="54"/>
       <c r="G185" s="54"/>
     </row>
-    <row r="186" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F186" s="54"/>
       <c r="G186" s="54"/>
     </row>
-    <row r="187" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F187" s="54"/>
       <c r="G187" s="54"/>
     </row>
-    <row r="188" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F188" s="54"/>
       <c r="G188" s="54"/>
     </row>
-    <row r="189" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F189" s="54"/>
       <c r="G189" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="83">
+    <mergeCell ref="I76:I80"/>
+    <mergeCell ref="F80:H80"/>
     <mergeCell ref="I123:I128"/>
     <mergeCell ref="A7:E7"/>
     <mergeCell ref="A22:E22"/>
@@ -6833,19 +6817,14 @@
     <mergeCell ref="C96:C100"/>
     <mergeCell ref="I96:I101"/>
     <mergeCell ref="I104:I109"/>
-    <mergeCell ref="F109:H109"/>
-    <mergeCell ref="F101:H101"/>
+    <mergeCell ref="B82:B86"/>
+    <mergeCell ref="C82:C86"/>
+    <mergeCell ref="I82:I87"/>
+    <mergeCell ref="F87:H87"/>
     <mergeCell ref="B89:B93"/>
     <mergeCell ref="C89:C93"/>
     <mergeCell ref="I89:I94"/>
     <mergeCell ref="F94:H94"/>
-    <mergeCell ref="I76:I80"/>
-    <mergeCell ref="F80:H80"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="B82:B86"/>
-    <mergeCell ref="C82:C86"/>
-    <mergeCell ref="I82:I87"/>
-    <mergeCell ref="F87:H87"/>
     <mergeCell ref="I63:I68"/>
     <mergeCell ref="F68:H68"/>
     <mergeCell ref="A69:A73"/>
@@ -6868,21 +6847,21 @@
     <mergeCell ref="A123:A128"/>
     <mergeCell ref="B123:B128"/>
     <mergeCell ref="C123:C128"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="A82:A86"/>
     <mergeCell ref="C129:E129"/>
     <mergeCell ref="D4:F4"/>
     <mergeCell ref="F115:H115"/>
     <mergeCell ref="C116:E116"/>
     <mergeCell ref="C117:E117"/>
     <mergeCell ref="C122:E122"/>
-    <mergeCell ref="A44:A48"/>
-    <mergeCell ref="B44:B48"/>
-    <mergeCell ref="C44:C48"/>
+    <mergeCell ref="F109:H109"/>
+    <mergeCell ref="F101:H101"/>
     <mergeCell ref="C57:H57"/>
     <mergeCell ref="C58:H58"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C37:C41"/>
     <mergeCell ref="I44:I49"/>
     <mergeCell ref="F49:H49"/>
     <mergeCell ref="A51:A55"/>
@@ -6890,6 +6869,9 @@
     <mergeCell ref="C51:C55"/>
     <mergeCell ref="I51:I56"/>
     <mergeCell ref="F56:H56"/>
+    <mergeCell ref="A44:A48"/>
+    <mergeCell ref="B44:B48"/>
+    <mergeCell ref="C44:C48"/>
     <mergeCell ref="B37:B41"/>
     <mergeCell ref="A37:A41"/>
     <mergeCell ref="I37:I42"/>
@@ -6912,19 +6894,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF558669-116A-4879-BC07-3A7986AB1CD1}">
   <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0"/>
+    <sheetView zoomScale="108" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="125.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="125.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="110.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="124.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="110.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="124.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
@@ -6944,7 +6928,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>55</v>
       </c>
@@ -6964,7 +6948,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>55</v>
       </c>
@@ -6984,7 +6968,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>55</v>
       </c>
@@ -7004,7 +6988,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>55</v>
       </c>
@@ -7024,7 +7008,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>55</v>
       </c>
@@ -7044,7 +7028,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="37" t="s">
         <v>71</v>
       </c>
@@ -7064,7 +7048,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>71</v>
       </c>
@@ -7084,7 +7068,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>71</v>
       </c>
@@ -7104,27 +7088,27 @@
         <v>363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="38" t="s">
         <v>71</v>
       </c>
       <c r="B10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C10" s="82" t="s">
+      <c r="C10" s="21" t="s">
         <v>151</v>
       </c>
       <c r="D10" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="83">
+      <c r="E10" s="27">
         <v>645</v>
       </c>
-      <c r="F10" s="82" t="s">
+      <c r="F10" s="21" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
         <v>71</v>
       </c>
@@ -7144,7 +7128,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="37" t="s">
         <v>87</v>
       </c>
@@ -7164,7 +7148,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="38" t="s">
         <v>87</v>
       </c>
@@ -7184,7 +7168,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="38" t="s">
         <v>87</v>
       </c>
@@ -7204,7 +7188,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="38" t="s">
         <v>87</v>
       </c>
@@ -7224,7 +7208,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>87</v>
       </c>
@@ -7244,7 +7228,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="37" t="s">
         <v>103</v>
       </c>
@@ -7264,7 +7248,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="38" t="s">
         <v>103</v>
       </c>
@@ -7284,7 +7268,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="38" t="s">
         <v>103</v>
       </c>
@@ -7304,7 +7288,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="38" t="s">
         <v>103</v>
       </c>
@@ -7324,7 +7308,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>103</v>
       </c>
@@ -7344,7 +7328,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="37" t="s">
         <v>119</v>
       </c>
@@ -7364,7 +7348,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="38" t="s">
         <v>119</v>
       </c>
@@ -7384,7 +7368,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A24" s="38" t="s">
         <v>119</v>
       </c>
@@ -7404,7 +7388,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="38" t="s">
         <v>119</v>
       </c>
@@ -7424,7 +7408,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>119</v>
       </c>
@@ -7444,7 +7428,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="37" t="s">
         <v>135</v>
       </c>
@@ -7464,7 +7448,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="38" t="s">
         <v>135</v>
       </c>
@@ -7484,7 +7468,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="38" t="s">
         <v>135</v>
       </c>
@@ -7504,7 +7488,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="38" t="s">
         <v>135</v>
       </c>
@@ -7524,7 +7508,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>135</v>
       </c>
@@ -7544,14 +7528,14 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="87" t="s">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="20" t="s">
         <v>418</v>
       </c>
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="82" t="s">
+      <c r="C32" s="21" t="s">
         <v>82</v>
       </c>
       <c r="D32" s="32" t="s">
@@ -7564,8 +7548,8 @@
         <v>364</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A33" s="85" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="20" t="s">
         <v>418</v>
       </c>
       <c r="B33" s="20" t="s">
@@ -7584,8 +7568,8 @@
         <v>398</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="85" t="s">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="20" t="s">
         <v>418</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -7604,8 +7588,8 @@
         <v>399</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
+    <row r="35" spans="1:6" ht="28" x14ac:dyDescent="0.2">
+      <c r="A35" s="20" t="s">
         <v>418</v>
       </c>
       <c r="B35" s="20" t="s">
@@ -7624,8 +7608,8 @@
         <v>400</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="86" t="s">
+    <row r="36" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33" t="s">
         <v>418</v>
       </c>
       <c r="B36" s="33" t="s">
@@ -7644,7 +7628,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="s">
         <v>165</v>
       </c>
@@ -7664,7 +7648,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="38" t="s">
         <v>165</v>
       </c>
@@ -7684,7 +7668,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="38" t="s">
         <v>165</v>
       </c>
@@ -7704,7 +7688,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="39" t="s">
         <v>165</v>
       </c>
@@ -7735,20 +7719,20 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="105.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="105.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="91.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="91.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="105.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="66" t="s">
         <v>51</v>
       </c>
@@ -7768,7 +7752,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="37" t="s">
         <v>178</v>
       </c>
@@ -7788,7 +7772,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A3" s="38" t="s">
         <v>178</v>
       </c>
@@ -7808,7 +7792,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="38" t="s">
         <v>178</v>
       </c>
@@ -7828,7 +7812,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A5" s="38" t="s">
         <v>178</v>
       </c>
@@ -7848,7 +7832,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
         <v>178</v>
       </c>
@@ -7868,7 +7852,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="s">
         <v>194</v>
       </c>
@@ -7888,7 +7872,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
         <v>194</v>
       </c>
@@ -7908,7 +7892,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
         <v>194</v>
       </c>
@@ -7928,7 +7912,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
         <v>194</v>
       </c>
@@ -7957,372 +7941,372 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2E59A-72D9-4449-AF72-6B04C5B78FE2}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="72.28515625" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="51.85546875" customWidth="1"/>
+    <col min="2" max="2" width="72.33203125" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="13.5" customWidth="1"/>
+    <col min="5" max="5" width="51.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="89" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="70" t="s">
         <v>464</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="70" t="s">
         <v>419</v>
       </c>
-      <c r="C1" s="89" t="s">
+      <c r="C1" s="70" t="s">
         <v>460</v>
       </c>
-      <c r="D1" s="89" t="s">
+      <c r="D1" s="70" t="s">
         <v>463</v>
       </c>
-      <c r="E1" s="89" t="s">
+      <c r="E1" s="70" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="88">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="69">
         <v>1</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="69" t="s">
         <v>421</v>
       </c>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="69" t="s">
         <v>461</v>
       </c>
-      <c r="D2" s="88">
+      <c r="D2" s="69">
         <v>255</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="69" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="88">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="69">
         <v>2</v>
       </c>
-      <c r="B3" s="88" t="s">
+      <c r="B3" s="69" t="s">
         <v>423</v>
       </c>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="69" t="s">
         <v>462</v>
       </c>
-      <c r="D3" s="88">
+      <c r="D3" s="69">
         <v>335</v>
       </c>
-      <c r="E3" s="88" t="s">
+      <c r="E3" s="69" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="88">
+    <row r="4" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A4" s="69">
         <v>3</v>
       </c>
-      <c r="B4" s="88" t="s">
+      <c r="B4" s="69" t="s">
         <v>425</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="69" t="s">
         <v>465</v>
       </c>
-      <c r="D4" s="88">
+      <c r="D4" s="69">
         <v>852</v>
       </c>
-      <c r="E4" s="88" t="s">
+      <c r="E4" s="69" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="88">
+    <row r="5" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A5" s="69">
         <v>4</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="69" t="s">
         <v>427</v>
       </c>
-      <c r="C5" s="88" t="s">
+      <c r="C5" s="69" t="s">
         <v>466</v>
       </c>
-      <c r="D5" s="88">
+      <c r="D5" s="69">
         <v>1026</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="69" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="88">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="69">
         <v>5</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="69" t="s">
         <v>429</v>
       </c>
-      <c r="C6" s="88" t="s">
+      <c r="C6" s="69" t="s">
         <v>467</v>
       </c>
-      <c r="D6" s="88">
+      <c r="D6" s="69">
         <v>1135</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="69" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="88">
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A7" s="69">
         <v>6</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B7" s="69" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="88" t="s">
+      <c r="C7" s="69" t="s">
         <v>468</v>
       </c>
-      <c r="D7" s="88">
+      <c r="D7" s="69">
         <v>1669</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="69" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="88">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="69">
         <v>7</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="69" t="s">
         <v>433</v>
       </c>
-      <c r="C8" s="88" t="s">
+      <c r="C8" s="69" t="s">
         <v>469</v>
       </c>
-      <c r="D8" s="88">
+      <c r="D8" s="69">
         <v>1700</v>
       </c>
-      <c r="E8" s="88" t="s">
+      <c r="E8" s="69" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="88">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="69">
         <v>8</v>
       </c>
-      <c r="B9" s="88" t="s">
+      <c r="B9" s="69" t="s">
         <v>435</v>
       </c>
-      <c r="C9" s="88" t="s">
+      <c r="C9" s="69" t="s">
         <v>470</v>
       </c>
-      <c r="D9" s="88">
+      <c r="D9" s="69">
         <v>4164</v>
       </c>
-      <c r="E9" s="88" t="s">
+      <c r="E9" s="69" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="88">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="69">
         <v>9</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="69" t="s">
         <v>437</v>
       </c>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="69" t="s">
         <v>471</v>
       </c>
-      <c r="D10" s="88">
+      <c r="D10" s="69">
         <v>4342</v>
       </c>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="69" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="88">
+    <row r="11" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A11" s="69">
         <v>10</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="69" t="s">
         <v>439</v>
       </c>
-      <c r="C11" s="88" t="s">
+      <c r="C11" s="69" t="s">
         <v>472</v>
       </c>
-      <c r="D11" s="88">
+      <c r="D11" s="69">
         <v>4695</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="69" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="88">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="69">
         <v>11</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="69" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="88" t="s">
+      <c r="C12" s="69" t="s">
         <v>473</v>
       </c>
-      <c r="D12" s="88">
+      <c r="D12" s="69">
         <v>5278</v>
       </c>
-      <c r="E12" s="88" t="s">
+      <c r="E12" s="69" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="88">
+    <row r="13" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A13" s="69">
         <v>12</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="69" t="s">
         <v>443</v>
       </c>
-      <c r="C13" s="88" t="s">
+      <c r="C13" s="69" t="s">
         <v>468</v>
       </c>
-      <c r="D13" s="88">
+      <c r="D13" s="69">
         <v>5336</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="69" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="88">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A14" s="69">
         <v>13</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="69" t="s">
         <v>445</v>
       </c>
-      <c r="C14" s="88" t="s">
+      <c r="C14" s="69" t="s">
         <v>474</v>
       </c>
-      <c r="D14" s="88">
+      <c r="D14" s="69">
         <v>5991</v>
       </c>
-      <c r="E14" s="88" t="s">
+      <c r="E14" s="69" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="88">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="69">
         <v>14</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="69" t="s">
         <v>447</v>
       </c>
-      <c r="C15" s="88" t="s">
+      <c r="C15" s="69" t="s">
         <v>475</v>
       </c>
-      <c r="D15" s="88">
+      <c r="D15" s="69">
         <v>6254</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="69" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="88">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="69">
         <v>15</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="69" t="s">
         <v>449</v>
       </c>
-      <c r="C16" s="88" t="s">
+      <c r="C16" s="69" t="s">
         <v>476</v>
       </c>
-      <c r="D16" s="88">
+      <c r="D16" s="69">
         <v>7418</v>
       </c>
-      <c r="E16" s="88" t="s">
+      <c r="E16" s="69" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="88">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A17" s="69">
         <v>16</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="69" t="s">
         <v>451</v>
       </c>
-      <c r="C17" s="88" t="s">
+      <c r="C17" s="69" t="s">
         <v>477</v>
       </c>
-      <c r="D17" s="88">
+      <c r="D17" s="69">
         <v>8051</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="69" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="88">
+    <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A18" s="69">
         <v>17</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="69" t="s">
         <v>453</v>
       </c>
-      <c r="C18" s="88" t="s">
+      <c r="C18" s="69" t="s">
         <v>468</v>
       </c>
-      <c r="D18" s="88">
+      <c r="D18" s="69">
         <v>9213</v>
       </c>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="69" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A19" s="88">
+    <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+      <c r="A19" s="69">
         <v>18</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="69" t="s">
         <v>455</v>
       </c>
-      <c r="C19" s="88" t="s">
+      <c r="C19" s="69" t="s">
         <v>125</v>
       </c>
-      <c r="D19" s="88">
+      <c r="D19" s="69">
         <v>9306</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="69" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="88">
+    <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A20" s="69">
         <v>19</v>
       </c>
-      <c r="B20" s="88" t="s">
+      <c r="B20" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="C20" s="88" t="s">
+      <c r="C20" s="69" t="s">
         <v>478</v>
       </c>
-      <c r="D20" s="88">
+      <c r="D20" s="69">
         <v>9738</v>
       </c>
-      <c r="E20" s="88" t="s">
+      <c r="E20" s="69" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="88">
+    <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.2">
+      <c r="A21" s="69">
         <v>20</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="69" t="s">
         <v>459</v>
       </c>
-      <c r="C21" s="88" t="s">
+      <c r="C21" s="69" t="s">
         <v>458</v>
       </c>
-      <c r="D21" s="88">
+      <c r="D21" s="69">
         <v>9878</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="69" t="s">
         <v>458</v>
       </c>
     </row>

--- a/docs/static/file/ICHI2023_Agenda.xlsx
+++ b/docs/static/file/ICHI2023_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tqy/Downloads/Myfile/tamu/Conference/ICHK2023/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C8FDDE-82FC-1942-BB05-8FBD7417B205}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A327F74E-D5C7-7F4B-A25F-4A457AB33B47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2620" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
+    <workbookView xWindow="38400" yWindow="2620" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule at glance" sheetId="8" r:id="rId1"/>
@@ -3538,8 +3538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA6AD37-6DFC-4503-945F-15A2E3AF42B9}">
   <dimension ref="A1:O189"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="101" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="101" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7941,8 +7941,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2E59A-72D9-4449-AF72-6B04C5B78FE2}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/static/file/ICHI2023_Agenda.xlsx
+++ b/docs/static/file/ICHI2023_Agenda.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tqy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F6519E1-E67A-9141-B6BF-0455BBCAE63D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF9E92-8030-8249-B1AA-D2623410A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="4" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="1" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule at glance" sheetId="8" r:id="rId1"/>
@@ -2435,9 +2435,6 @@
     <t xml:space="preserve">Ahmad P. Tafti. </t>
   </si>
   <si>
-    <t>Jinan Fiaidhi</t>
-  </si>
-  <si>
     <t>Dezhi Wu</t>
   </si>
   <si>
@@ -2479,6 +2476,9 @@
   </si>
   <si>
     <t xml:space="preserve">WS5A: Network and Pathway Analysis I n Health Informatics  &amp; WS5B: The First International Workshop on AI for Pharmaceutical Discovery and Development (AIPHA 2023) </t>
+  </si>
+  <si>
+    <t>Sabah Mohammed</t>
   </si>
 </sst>
 </file>
@@ -3300,12 +3300,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3330,10 +3330,10 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3743,14 +3743,14 @@
       <c r="B4" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C4" s="162" t="s">
+      <c r="C4" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="162"/>
+      <c r="D4" s="161"/>
+      <c r="E4" s="161"/>
+      <c r="F4" s="161"/>
+      <c r="G4" s="161"/>
+      <c r="H4" s="161"/>
       <c r="I4" s="24" t="s">
         <v>233</v>
       </c>
@@ -3763,14 +3763,14 @@
       <c r="B5" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="162" t="s">
+      <c r="C5" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="162"/>
+      <c r="D5" s="161"/>
+      <c r="E5" s="161"/>
+      <c r="F5" s="161"/>
+      <c r="G5" s="161"/>
+      <c r="H5" s="161"/>
       <c r="I5" s="24" t="s">
         <v>235</v>
       </c>
@@ -3785,16 +3785,16 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="10" t="s">
+        <v>790</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>791</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="19" t="s">
         <v>792</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="G6" s="19" t="s">
         <v>793</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>794</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="24" t="s">
@@ -3808,14 +3808,14 @@
       <c r="B7" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C7" s="162" t="s">
+      <c r="C7" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="162"/>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="162"/>
-      <c r="H7" s="162"/>
+      <c r="D7" s="161"/>
+      <c r="E7" s="161"/>
+      <c r="F7" s="161"/>
+      <c r="G7" s="161"/>
+      <c r="H7" s="161"/>
       <c r="I7" s="24" t="s">
         <v>237</v>
       </c>
@@ -3858,14 +3858,14 @@
       <c r="B9" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C9" s="162" t="s">
+      <c r="C9" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="162"/>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-      <c r="G9" s="162"/>
-      <c r="H9" s="162"/>
+      <c r="D9" s="161"/>
+      <c r="E9" s="161"/>
+      <c r="F9" s="161"/>
+      <c r="G9" s="161"/>
+      <c r="H9" s="161"/>
       <c r="I9" s="25"/>
       <c r="J9" s="8"/>
       <c r="K9" s="14"/>
@@ -3893,7 +3893,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H10" s="19"/>
       <c r="J10" s="8"/>
@@ -3905,14 +3905,14 @@
       <c r="B11" s="4">
         <v>0.61805555555555558</v>
       </c>
-      <c r="C11" s="162" t="s">
+      <c r="C11" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
+      <c r="D11" s="161"/>
+      <c r="E11" s="161"/>
+      <c r="F11" s="161"/>
+      <c r="G11" s="161"/>
+      <c r="H11" s="161"/>
       <c r="I11" s="25"/>
       <c r="J11" s="12"/>
       <c r="K11" s="14"/>
@@ -3940,7 +3940,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="26" t="s">
@@ -3995,14 +3995,14 @@
       <c r="B16" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C16" s="162" t="s">
+      <c r="C16" s="161" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="162"/>
-      <c r="E16" s="162"/>
-      <c r="F16" s="162"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="162"/>
+      <c r="D16" s="161"/>
+      <c r="E16" s="161"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="161"/>
+      <c r="H16" s="161"/>
       <c r="I16" s="25" t="s">
         <v>243</v>
       </c>
@@ -4014,14 +4014,14 @@
       <c r="B17" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C17" s="162" t="s">
+      <c r="C17" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="162"/>
-      <c r="E17" s="162"/>
-      <c r="F17" s="162"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="162"/>
+      <c r="D17" s="161"/>
+      <c r="E17" s="161"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="161"/>
+      <c r="H17" s="161"/>
     </row>
     <row r="18" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -4060,14 +4060,14 @@
       <c r="B19" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C19" s="162" t="s">
+      <c r="C19" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="162"/>
-      <c r="F19" s="162"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="162"/>
+      <c r="D19" s="161"/>
+      <c r="E19" s="161"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="161"/>
+      <c r="H19" s="161"/>
       <c r="I19" s="22"/>
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
@@ -4112,14 +4112,14 @@
       <c r="B21" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C21" s="162" t="s">
+      <c r="C21" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="162"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="162"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
+      <c r="D21" s="161"/>
+      <c r="E21" s="161"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
       <c r="I21" s="22"/>
       <c r="J21" s="12"/>
       <c r="K21" s="15"/>
@@ -4134,14 +4134,14 @@
       <c r="B22" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C22" s="161" t="s">
+      <c r="C22" s="162" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
+      <c r="D22" s="162"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="162"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
       <c r="I22" s="22"/>
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
@@ -4156,14 +4156,14 @@
       <c r="B23" s="6">
         <v>0.59375</v>
       </c>
-      <c r="C23" s="161" t="s">
-        <v>785</v>
-      </c>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
+      <c r="C23" s="162" t="s">
+        <v>784</v>
+      </c>
+      <c r="D23" s="162"/>
+      <c r="E23" s="162"/>
+      <c r="F23" s="162"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -4172,14 +4172,14 @@
       <c r="B24" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C24" s="162" t="s">
+      <c r="C24" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="162"/>
-      <c r="E24" s="162"/>
-      <c r="F24" s="162"/>
-      <c r="G24" s="162"/>
-      <c r="H24" s="162"/>
+      <c r="D24" s="161"/>
+      <c r="E24" s="161"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
@@ -4208,14 +4208,14 @@
       <c r="B26" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C26" s="161" t="s">
+      <c r="C26" s="162" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
       <c r="I26" s="22"/>
       <c r="J26" s="12"/>
       <c r="K26" s="15"/>
@@ -4230,14 +4230,14 @@
       <c r="B27" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C27" s="162" t="s">
-        <v>784</v>
-      </c>
-      <c r="D27" s="162"/>
-      <c r="E27" s="162"/>
-      <c r="F27" s="162"/>
-      <c r="G27" s="162"/>
-      <c r="H27" s="162"/>
+      <c r="C27" s="161" t="s">
+        <v>783</v>
+      </c>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
     </row>
     <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4271,11 +4271,11 @@
       <c r="B32" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C32" s="162" t="s">
+      <c r="C32" s="161" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="162"/>
-      <c r="E32" s="162"/>
+      <c r="D32" s="161"/>
+      <c r="E32" s="161"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -4287,11 +4287,11 @@
       <c r="B33" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C33" s="162" t="s">
+      <c r="C33" s="161" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="162"/>
-      <c r="E33" s="162"/>
+      <c r="D33" s="161"/>
+      <c r="E33" s="161"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -4319,11 +4319,11 @@
       <c r="B35" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C35" s="161" t="s">
-        <v>786</v>
-      </c>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
+      <c r="C35" s="162" t="s">
+        <v>785</v>
+      </c>
+      <c r="D35" s="162"/>
+      <c r="E35" s="162"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -4335,11 +4335,11 @@
       <c r="B36" s="4">
         <v>0.4375</v>
       </c>
-      <c r="C36" s="162" t="s">
+      <c r="C36" s="161" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="162"/>
-      <c r="E36" s="162"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -4371,11 +4371,11 @@
       <c r="B38" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C38" s="162" t="s">
+      <c r="C38" s="161" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="162"/>
-      <c r="E38" s="162"/>
+      <c r="D38" s="161"/>
+      <c r="E38" s="161"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -4394,7 +4394,7 @@
         <v>359</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -4407,11 +4407,11 @@
       <c r="B40" s="4">
         <v>0.625</v>
       </c>
-      <c r="C40" s="162" t="s">
+      <c r="C40" s="161" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="162"/>
-      <c r="E40" s="162"/>
+      <c r="D40" s="161"/>
+      <c r="E40" s="161"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
@@ -4424,10 +4424,10 @@
         <v>0.6875</v>
       </c>
       <c r="C41" s="19" t="s">
+        <v>787</v>
+      </c>
+      <c r="D41" s="19" t="s">
         <v>788</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>789</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>34</v>
@@ -4438,11 +4438,11 @@
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="158"/>
       <c r="B42" s="158"/>
-      <c r="C42" s="161" t="s">
-        <v>790</v>
-      </c>
-      <c r="D42" s="161"/>
-      <c r="E42" s="161"/>
+      <c r="C42" s="162" t="s">
+        <v>789</v>
+      </c>
+      <c r="D42" s="162"/>
+      <c r="E42" s="162"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
@@ -4453,11 +4453,11 @@
       <c r="B43" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C43" s="161" t="s">
+      <c r="C43" s="162" t="s">
         <v>562</v>
       </c>
-      <c r="D43" s="161"/>
-      <c r="E43" s="161"/>
+      <c r="D43" s="162"/>
+      <c r="E43" s="162"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -4469,11 +4469,11 @@
       <c r="B44" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C44" s="162" t="s">
+      <c r="C44" s="161" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="162"/>
-      <c r="E44" s="162"/>
+      <c r="D44" s="161"/>
+      <c r="E44" s="161"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -4655,12 +4655,12 @@
     <row r="57" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="162"/>
-      <c r="D57" s="162"/>
-      <c r="E57" s="162"/>
-      <c r="F57" s="162"/>
-      <c r="G57" s="162"/>
-      <c r="H57" s="162"/>
+      <c r="C57" s="161"/>
+      <c r="D57" s="161"/>
+      <c r="E57" s="161"/>
+      <c r="F57" s="161"/>
+      <c r="G57" s="161"/>
+      <c r="H57" s="161"/>
       <c r="I57" s="22"/>
       <c r="J57" s="12"/>
       <c r="K57" s="13"/>
@@ -4687,12 +4687,12 @@
     <row r="59" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="161"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
       <c r="I59" s="22"/>
       <c r="J59" s="12"/>
       <c r="K59" s="13"/>
@@ -4703,12 +4703,12 @@
     <row r="60" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="162"/>
-      <c r="D60" s="162"/>
-      <c r="E60" s="162"/>
-      <c r="F60" s="162"/>
-      <c r="G60" s="162"/>
-      <c r="H60" s="162"/>
+      <c r="C60" s="161"/>
+      <c r="D60" s="161"/>
+      <c r="E60" s="161"/>
+      <c r="F60" s="161"/>
+      <c r="G60" s="161"/>
+      <c r="H60" s="161"/>
       <c r="I60" s="22"/>
       <c r="J60" s="12"/>
       <c r="K60" s="13"/>
@@ -4965,8 +4965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA6AD37-6DFC-4503-945F-15A2E3AF42B9}">
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView zoomScale="143" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="143" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5013,11 +5013,11 @@
       <c r="C2" s="44" t="s">
         <v>335</v>
       </c>
-      <c r="D2" s="171" t="s">
+      <c r="D2" s="172" t="s">
         <v>253</v>
       </c>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
       <c r="G2" s="70"/>
       <c r="H2" s="46"/>
     </row>
@@ -5031,11 +5031,11 @@
       <c r="C3" s="44" t="s">
         <v>255</v>
       </c>
-      <c r="D3" s="171" t="s">
+      <c r="D3" s="172" t="s">
         <v>254</v>
       </c>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
       <c r="G3" s="70"/>
       <c r="H3" s="46"/>
     </row>
@@ -5049,11 +5049,11 @@
       <c r="C4" s="44" t="s">
         <v>257</v>
       </c>
-      <c r="D4" s="171" t="s">
+      <c r="D4" s="172" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
       <c r="H4" s="46"/>
     </row>
     <row r="7" spans="1:15" s="47" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -6172,7 +6172,7 @@
         <v>541</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I50" s="175"/>
       <c r="J50" s="102">
@@ -6204,7 +6204,7 @@
         <v>543</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>782</v>
+        <v>796</v>
       </c>
       <c r="I51" s="175"/>
       <c r="J51" s="102">
@@ -6996,13 +6996,13 @@
       <c r="B81" s="55">
         <v>0.59375</v>
       </c>
-      <c r="C81" s="172" t="s">
+      <c r="C81" s="171" t="s">
         <v>775</v>
       </c>
-      <c r="D81" s="172"/>
-      <c r="E81" s="172"/>
-      <c r="F81" s="172"/>
-      <c r="G81" s="172"/>
+      <c r="D81" s="171"/>
+      <c r="E81" s="171"/>
+      <c r="F81" s="171"/>
+      <c r="G81" s="171"/>
       <c r="H81" s="136" t="s">
         <v>776</v>
       </c>
@@ -7621,14 +7621,14 @@
       <c r="B103" s="55">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C103" s="172" t="s">
+      <c r="C103" s="171" t="s">
         <v>331</v>
       </c>
-      <c r="D103" s="172"/>
-      <c r="E103" s="172"/>
-      <c r="F103" s="172"/>
-      <c r="G103" s="172"/>
-      <c r="H103" s="172"/>
+      <c r="D103" s="171"/>
+      <c r="E103" s="171"/>
+      <c r="F103" s="171"/>
+      <c r="G103" s="171"/>
+      <c r="H103" s="171"/>
       <c r="I103" s="165" t="s">
         <v>254</v>
       </c>
@@ -7642,14 +7642,14 @@
       <c r="B104" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C104" s="171" t="s">
+      <c r="C104" s="172" t="s">
         <v>567</v>
       </c>
-      <c r="D104" s="171"/>
-      <c r="E104" s="171"/>
-      <c r="F104" s="171"/>
-      <c r="G104" s="171"/>
-      <c r="H104" s="171"/>
+      <c r="D104" s="172"/>
+      <c r="E104" s="172"/>
+      <c r="F104" s="172"/>
+      <c r="G104" s="172"/>
+      <c r="H104" s="172"/>
       <c r="I104" s="165"/>
       <c r="J104" s="104"/>
       <c r="K104" s="48"/>
@@ -9336,11 +9336,11 @@
       <c r="B162" s="43">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C162" s="171" t="s">
+      <c r="C162" s="172" t="s">
         <v>381</v>
       </c>
-      <c r="D162" s="171"/>
-      <c r="E162" s="171"/>
+      <c r="D162" s="172"/>
+      <c r="E162" s="172"/>
       <c r="F162" s="45"/>
       <c r="G162" s="45"/>
       <c r="H162" s="45"/>
@@ -9813,13 +9813,13 @@
     <mergeCell ref="C90:C94"/>
     <mergeCell ref="I83:I88"/>
     <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I90:I95"/>
+    <mergeCell ref="F95:H95"/>
     <mergeCell ref="A97:A101"/>
     <mergeCell ref="B97:B101"/>
     <mergeCell ref="C97:C101"/>
     <mergeCell ref="I97:I102"/>
     <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I90:I95"/>
-    <mergeCell ref="F95:H95"/>
     <mergeCell ref="I71:I75"/>
     <mergeCell ref="I9:I20"/>
     <mergeCell ref="C9:C21"/>
@@ -10949,8 +10949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AD2E59A-72D9-4449-AF72-6B04C5B78FE2}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/static/file/ICHI2023_Agenda.xlsx
+++ b/docs/static/file/ICHI2023_Agenda.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tqy/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tqy/Downloads/Myfile/tamu/Conference/ICHK2023/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ECF9E92-8030-8249-B1AA-D2623410A951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA057B-B502-414A-B446-8BAA7FF31323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="1" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1572" uniqueCount="796">
   <si>
     <t xml:space="preserve">Doctoral Consortium </t>
   </si>
@@ -979,9 +979,6 @@
     <t>BRC-284</t>
   </si>
   <si>
-    <t>BRC-285</t>
-  </si>
-  <si>
     <t>BRC-286</t>
   </si>
   <si>
@@ -1147,9 +1144,6 @@
     <t>Yao-Shun Chuang, Chun-Teh Lee, Oluwabunmi Tokede, Ryan Brandon, Trung Duong Tran, Xiaoqian Jiang and Muhammad F. Walji</t>
   </si>
   <si>
-    <t>BRC - 285</t>
-  </si>
-  <si>
     <t>Peikun Guo, Huiyuan Yang and Akane Sano</t>
   </si>
   <si>
@@ -1190,9 +1184,6 @@
   </si>
   <si>
     <t>Arthur Ricardo Sousa Vitoria, Adriel Lennner Vinhal Mori, Diogo Fernandes Costa Silva, Daniel do Prado Pagotto, Clarimar José Coelho and Arlindo Rodrigues Galvão Filho</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ceremony/Banquet </t>
   </si>
   <si>
     <t>Industry</t>
@@ -2479,6 +2470,12 @@
   </si>
   <si>
     <t>Sabah Mohammed</t>
+  </si>
+  <si>
+    <t>BRC - 286</t>
+  </si>
+  <si>
+    <t>Award Ceremony and Banquet Dinner</t>
   </si>
 </sst>
 </file>
@@ -3785,16 +3782,16 @@
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="10" t="s">
+        <v>787</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>788</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>789</v>
+      </c>
+      <c r="G6" s="19" t="s">
         <v>790</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>791</v>
-      </c>
-      <c r="F6" s="19" t="s">
-        <v>792</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>793</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="24" t="s">
@@ -3893,7 +3890,7 @@
         <v>9</v>
       </c>
       <c r="G10" s="19" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="H10" s="19"/>
       <c r="J10" s="8"/>
@@ -3940,7 +3937,7 @@
         <v>9</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="H12" s="19"/>
       <c r="I12" s="26" t="s">
@@ -4157,7 +4154,7 @@
         <v>0.59375</v>
       </c>
       <c r="C23" s="162" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D23" s="162"/>
       <c r="E23" s="162"/>
@@ -4231,7 +4228,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C27" s="161" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="D27" s="161"/>
       <c r="E27" s="161"/>
@@ -4320,7 +4317,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C35" s="162" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="D35" s="162"/>
       <c r="E35" s="162"/>
@@ -4352,10 +4349,10 @@
         <v>0.5</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>29</v>
@@ -4388,13 +4385,13 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C39" s="19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -4424,10 +4421,10 @@
         <v>0.6875</v>
       </c>
       <c r="C41" s="19" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>34</v>
@@ -4439,7 +4436,7 @@
       <c r="A42" s="158"/>
       <c r="B42" s="158"/>
       <c r="C42" s="162" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="D42" s="162"/>
       <c r="E42" s="162"/>
@@ -4454,7 +4451,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C43" s="162" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D43" s="162"/>
       <c r="E43" s="162"/>
@@ -4540,7 +4537,7 @@
         <v>0.40625</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="17"/>
@@ -4578,7 +4575,7 @@
         <v>0.5</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D53" s="18"/>
       <c r="E53" s="18"/>
@@ -4965,7 +4962,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA6AD37-6DFC-4503-945F-15A2E3AF42B9}">
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C42" zoomScale="143" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="143" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
@@ -4989,13 +4986,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="40" t="s">
+        <v>331</v>
+      </c>
+      <c r="B1" s="40" t="s">
         <v>332</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="C1" s="40" t="s">
         <v>333</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>334</v>
       </c>
       <c r="D1" s="173" t="s">
         <v>252</v>
@@ -5011,7 +5008,7 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="C2" s="44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2" s="172" t="s">
         <v>253</v>
@@ -5102,10 +5099,10 @@
         <v>287</v>
       </c>
       <c r="L8" s="41" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="M8" s="41" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="N8" s="41"/>
       <c r="O8" s="50"/>
@@ -5127,13 +5124,13 @@
         <v>0.6875</v>
       </c>
       <c r="F9" s="72" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G9" s="72" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="I9" s="175" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="J9" s="99"/>
       <c r="K9" s="72"/>
@@ -5149,23 +5146,23 @@
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
       <c r="G10" s="77" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="H10" s="127" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="I10" s="175"/>
       <c r="J10" s="100">
         <v>971</v>
       </c>
       <c r="K10" s="53" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L10" s="87" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="M10" s="87" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="O10" s="50"/>
     </row>
@@ -5177,17 +5174,17 @@
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
       <c r="G11" s="149" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="H11" s="149" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="I11" s="175"/>
       <c r="J11" s="116">
         <v>7543</v>
       </c>
       <c r="K11" s="117" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L11" s="42"/>
       <c r="M11" s="42"/>
@@ -5202,17 +5199,17 @@
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
       <c r="G12" s="149" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="H12" s="149" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="I12" s="175"/>
       <c r="J12" s="116">
         <v>2720</v>
       </c>
       <c r="K12" s="117" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L12" s="42"/>
       <c r="M12" s="42"/>
@@ -5227,23 +5224,23 @@
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
       <c r="G13" s="77" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H13" s="127" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="I13" s="175"/>
       <c r="J13" s="100">
         <v>6008</v>
       </c>
       <c r="K13" s="53" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L13" s="87" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="M13" s="87" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="O13" s="50"/>
     </row>
@@ -5255,17 +5252,17 @@
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
       <c r="G14" s="149" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="H14" s="149" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="I14" s="175"/>
       <c r="J14" s="116">
         <v>2258</v>
       </c>
       <c r="K14" s="117" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="L14" s="42"/>
       <c r="M14" s="42"/>
@@ -5280,21 +5277,21 @@
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
       <c r="G15" s="77" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="H15" s="127" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I15" s="175"/>
       <c r="J15" s="100">
         <v>8697</v>
       </c>
       <c r="K15" s="53" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="L15" s="42"/>
       <c r="M15" s="122" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="N15" s="41"/>
       <c r="O15" s="50"/>
@@ -5307,21 +5304,21 @@
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
       <c r="G16" s="77" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="H16" s="127" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I16" s="175"/>
       <c r="J16" s="100">
         <v>235</v>
       </c>
       <c r="K16" s="53" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="L16" s="42"/>
       <c r="M16" s="129" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="N16" s="41"/>
       <c r="O16" s="50"/>
@@ -5334,23 +5331,23 @@
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
       <c r="G17" s="77" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H17" s="127" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="I17" s="175"/>
       <c r="J17" s="100">
         <v>4012</v>
       </c>
       <c r="K17" s="53" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="L17" s="86" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="M17" s="86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="O17" s="50"/>
     </row>
@@ -5362,23 +5359,23 @@
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
       <c r="G18" s="77" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="H18" s="127" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="I18" s="175"/>
       <c r="J18" s="100">
         <v>3520</v>
       </c>
       <c r="K18" s="53" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="L18" s="86" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="M18" s="86" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="O18" s="50"/>
     </row>
@@ -5390,21 +5387,21 @@
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
       <c r="G19" s="77" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="H19" s="127" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I19" s="175"/>
       <c r="J19" s="100">
         <v>9057</v>
       </c>
       <c r="K19" s="53" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="L19" s="42"/>
       <c r="M19" s="121" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N19" s="41"/>
       <c r="O19" s="50"/>
@@ -5417,21 +5414,21 @@
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
       <c r="G20" s="77" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="H20" s="127" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="I20" s="175"/>
       <c r="J20" s="100">
         <v>5185</v>
       </c>
       <c r="K20" s="53" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="L20" s="42"/>
       <c r="M20" s="129" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="N20" s="41"/>
       <c r="O20" s="50"/>
@@ -5470,14 +5467,14 @@
         <v>0.6875</v>
       </c>
       <c r="F22" s="72" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="G22" s="72" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="H22" s="74"/>
       <c r="I22" s="175" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J22" s="98"/>
       <c r="K22" s="41"/>
@@ -5491,7 +5488,7 @@
       <c r="E23" s="73"/>
       <c r="F23" s="72"/>
       <c r="G23" s="80" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H23" s="48" t="str">
         <f>LEFT(K23, SEARCH(",",K23,1)-1)</f>
@@ -5502,7 +5499,7 @@
         <v>4936</v>
       </c>
       <c r="K23" s="78" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="N23" s="52"/>
     </row>
@@ -5514,7 +5511,7 @@
       <c r="E24" s="73"/>
       <c r="F24" s="72"/>
       <c r="G24" s="80" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="H24" s="41" t="str">
         <f t="shared" ref="H24:H33" si="0">LEFT(K24, SEARCH(",",K24,1)-1)</f>
@@ -5525,13 +5522,13 @@
         <v>3196</v>
       </c>
       <c r="K24" s="78" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="L24" s="86" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="M24" s="86" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -5542,7 +5539,7 @@
       <c r="E25" s="73"/>
       <c r="F25" s="72"/>
       <c r="G25" s="80" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H25" s="48" t="str">
         <f t="shared" si="0"/>
@@ -5553,7 +5550,7 @@
         <v>2056</v>
       </c>
       <c r="K25" s="78" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="N25" s="52"/>
     </row>
@@ -5565,7 +5562,7 @@
       <c r="E26" s="73"/>
       <c r="F26" s="72"/>
       <c r="G26" s="80" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="H26" s="48" t="str">
         <f t="shared" si="0"/>
@@ -5576,7 +5573,7 @@
         <v>3866</v>
       </c>
       <c r="K26" s="78" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="N26" s="52"/>
     </row>
@@ -5588,7 +5585,7 @@
       <c r="E27" s="73"/>
       <c r="F27" s="72"/>
       <c r="G27" s="80" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="H27" s="48" t="str">
         <f t="shared" si="0"/>
@@ -5599,7 +5596,7 @@
         <v>4836</v>
       </c>
       <c r="K27" s="78" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="N27" s="52"/>
     </row>
@@ -5611,7 +5608,7 @@
       <c r="E28" s="73"/>
       <c r="F28" s="72"/>
       <c r="G28" s="80" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="H28" s="48" t="str">
         <f t="shared" si="0"/>
@@ -5622,7 +5619,7 @@
         <v>7958</v>
       </c>
       <c r="K28" s="78" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="N28" s="52"/>
     </row>
@@ -5634,7 +5631,7 @@
       <c r="E29" s="73"/>
       <c r="F29" s="72"/>
       <c r="G29" s="80" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="H29" s="48" t="str">
         <f t="shared" si="0"/>
@@ -5645,7 +5642,7 @@
         <v>779</v>
       </c>
       <c r="K29" s="78" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="N29" s="52"/>
     </row>
@@ -5657,7 +5654,7 @@
       <c r="E30" s="73"/>
       <c r="F30" s="72"/>
       <c r="G30" s="150" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="H30" s="126" t="str">
         <f t="shared" si="0"/>
@@ -5668,7 +5665,7 @@
         <v>1813</v>
       </c>
       <c r="K30" s="152" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="N30" s="52"/>
     </row>
@@ -5680,7 +5677,7 @@
       <c r="E31" s="73"/>
       <c r="F31" s="72"/>
       <c r="G31" s="80" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H31" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5691,13 +5688,13 @@
         <v>8916</v>
       </c>
       <c r="K31" s="78" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L31" s="86" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="M31" s="86" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
@@ -5708,7 +5705,7 @@
       <c r="E32" s="73"/>
       <c r="F32" s="72"/>
       <c r="G32" s="80" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="H32" s="41" t="str">
         <f t="shared" si="0"/>
@@ -5719,11 +5716,11 @@
         <v>1737</v>
       </c>
       <c r="K32" s="78" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="L32" s="101"/>
       <c r="M32" s="86" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="33" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
@@ -5734,7 +5731,7 @@
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
       <c r="G33" s="150" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="H33" s="126" t="str">
         <f t="shared" si="0"/>
@@ -5745,7 +5742,7 @@
         <v>8661</v>
       </c>
       <c r="K33" s="152" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L33" s="42"/>
       <c r="M33" s="42"/>
@@ -5786,14 +5783,14 @@
         <v>0.6875</v>
       </c>
       <c r="F35" s="72" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="G35" s="72" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H35" s="74"/>
       <c r="I35" s="175" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J35" s="98"/>
       <c r="K35" s="41"/>
@@ -5807,7 +5804,7 @@
       <c r="E36" s="73"/>
       <c r="F36" s="72"/>
       <c r="G36" s="81" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="H36" s="41" t="str">
         <f>LEFT(K36, SEARCH(",",K36,1)-1)</f>
@@ -5818,10 +5815,10 @@
         <v>1440</v>
       </c>
       <c r="K36" s="76" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="M36" s="153" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="N36" s="52"/>
     </row>
@@ -5833,7 +5830,7 @@
       <c r="E37" s="73"/>
       <c r="F37" s="72"/>
       <c r="G37" s="154" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="H37" s="126" t="str">
         <f t="shared" ref="H37:H42" si="1">LEFT(K37, SEARCH(",",K37,1)-1)</f>
@@ -5844,7 +5841,7 @@
         <v>2754</v>
       </c>
       <c r="K37" s="156" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="N37" s="52"/>
     </row>
@@ -5856,20 +5853,20 @@
       <c r="E38" s="73"/>
       <c r="F38" s="72"/>
       <c r="G38" s="81" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I38" s="175"/>
       <c r="J38" s="102">
         <v>3023</v>
       </c>
       <c r="K38" s="76" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="M38" s="153" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="N38" s="52"/>
     </row>
@@ -5881,7 +5878,7 @@
       <c r="E39" s="73"/>
       <c r="F39" s="72"/>
       <c r="G39" s="81" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="H39" s="41" t="str">
         <f>LEFT(K39, SEARCH(",",K39,1)-1)</f>
@@ -5892,10 +5889,10 @@
         <v>8853</v>
       </c>
       <c r="K39" s="76" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="M39" s="129" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="N39" s="52"/>
     </row>
@@ -5907,23 +5904,23 @@
       <c r="E40" s="73"/>
       <c r="F40" s="72"/>
       <c r="G40" s="81" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I40" s="175"/>
       <c r="J40" s="102">
         <v>7064</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="L40" s="86" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="M40" s="119" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
@@ -5934,20 +5931,20 @@
       <c r="E41" s="73"/>
       <c r="F41" s="72"/>
       <c r="G41" s="81" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I41" s="175"/>
       <c r="J41" s="102">
         <v>2374</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="M41" s="129" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="N41" s="52"/>
     </row>
@@ -5959,7 +5956,7 @@
       <c r="E42" s="73"/>
       <c r="F42" s="72"/>
       <c r="G42" s="81" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="H42" s="41" t="str">
         <f t="shared" si="1"/>
@@ -5970,13 +5967,13 @@
         <v>3102</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="L42" s="86" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="M42" s="86" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.2">
@@ -5987,20 +5984,20 @@
       <c r="E43" s="73"/>
       <c r="F43" s="72"/>
       <c r="G43" s="157" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I43" s="175"/>
       <c r="J43" s="102">
         <v>4628</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="M43" s="153" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N43" s="52"/>
     </row>
@@ -6012,23 +6009,23 @@
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
       <c r="G44" s="81" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="I44" s="175"/>
       <c r="J44" s="102">
         <v>128</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="L44" s="87" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="M44" s="87" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="O44" s="50"/>
     </row>
@@ -6040,21 +6037,21 @@
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
       <c r="G45" s="81" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I45" s="175"/>
       <c r="J45" s="102">
         <v>7942</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="L45" s="42"/>
       <c r="M45" s="153" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="N45" s="41"/>
       <c r="O45" s="50"/>
@@ -6067,21 +6064,21 @@
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
       <c r="G46" s="81" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="I46" s="175"/>
       <c r="J46" s="102">
         <v>5027</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L46" s="42"/>
       <c r="M46" s="122" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="N46" s="41"/>
       <c r="O46" s="50"/>
@@ -6120,14 +6117,14 @@
         <v>0.5</v>
       </c>
       <c r="F48" s="72" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="G48" s="72" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H48" s="72"/>
       <c r="I48" s="175" t="s">
-        <v>366</v>
+        <v>794</v>
       </c>
       <c r="J48" s="98"/>
       <c r="K48" s="41"/>
@@ -6150,10 +6147,10 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="F49" s="72" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="G49" s="72" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="H49" s="72"/>
       <c r="I49" s="175"/>
@@ -6169,20 +6166,20 @@
       <c r="E50" s="73"/>
       <c r="F50" s="72"/>
       <c r="G50" s="81" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I50" s="175"/>
       <c r="J50" s="102">
         <v>4071</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="M50" s="129" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="N50" s="71"/>
       <c r="O50" s="71"/>
@@ -6201,20 +6198,20 @@
       <c r="E51" s="73"/>
       <c r="F51" s="72"/>
       <c r="G51" s="81" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="H51" s="41" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="I51" s="175"/>
       <c r="J51" s="102">
         <v>9159</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="M51" s="123" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="N51" s="71"/>
       <c r="O51" s="71"/>
@@ -6250,10 +6247,10 @@
         <v>0.6875</v>
       </c>
       <c r="F53" s="72" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="G53" s="72" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="H53" s="72"/>
       <c r="I53" s="175"/>
@@ -6269,7 +6266,7 @@
       <c r="E54" s="73"/>
       <c r="F54" s="72"/>
       <c r="G54" s="154" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="H54" s="126" t="str">
         <f>LEFT(K54, SEARCH(",",K54,1)-1)</f>
@@ -6280,7 +6277,7 @@
         <v>463</v>
       </c>
       <c r="K54" s="156" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="N54" s="52"/>
     </row>
@@ -6292,7 +6289,7 @@
       <c r="E55" s="73"/>
       <c r="F55" s="72"/>
       <c r="G55" s="154" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="H55" s="126" t="str">
         <f t="shared" ref="H55:H59" si="2">LEFT(K55, SEARCH(",",K55,1)-1)</f>
@@ -6303,7 +6300,7 @@
         <v>881</v>
       </c>
       <c r="K55" s="156" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="N55" s="52"/>
     </row>
@@ -6315,7 +6312,7 @@
       <c r="E56" s="73"/>
       <c r="F56" s="72"/>
       <c r="G56" s="81" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="H56" s="48" t="str">
         <f t="shared" si="2"/>
@@ -6326,10 +6323,10 @@
         <v>1931</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="M56" s="124" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="N56" s="52"/>
     </row>
@@ -6341,7 +6338,7 @@
       <c r="E57" s="73"/>
       <c r="F57" s="72"/>
       <c r="G57" s="154" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="H57" s="126" t="str">
         <f t="shared" si="2"/>
@@ -6352,7 +6349,7 @@
         <v>3807</v>
       </c>
       <c r="K57" s="156" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="N57" s="52"/>
     </row>
@@ -6364,7 +6361,7 @@
       <c r="E58" s="73"/>
       <c r="F58" s="72"/>
       <c r="G58" s="154" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="H58" s="126" t="str">
         <f t="shared" si="2"/>
@@ -6375,7 +6372,7 @@
         <v>5665</v>
       </c>
       <c r="K58" s="156" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="N58" s="52"/>
     </row>
@@ -6387,7 +6384,7 @@
       <c r="E59" s="73"/>
       <c r="F59" s="72"/>
       <c r="G59" s="154" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="H59" s="126" t="str">
         <f t="shared" si="2"/>
@@ -6398,7 +6395,7 @@
         <v>5934</v>
       </c>
       <c r="K59" s="156" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="N59" s="52"/>
     </row>
@@ -6605,21 +6602,21 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="F67" s="85" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="G67" s="84" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="H67" s="84" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="I67" s="175"/>
       <c r="J67" s="104"/>
       <c r="K67" s="84" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="M67" s="42" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="N67" s="49"/>
     </row>
@@ -6634,13 +6631,13 @@
         <v>0.12152777777777778</v>
       </c>
       <c r="F68" s="85" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="G68" s="84" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="H68" s="84" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I68" s="175"/>
       <c r="J68" s="104"/>
@@ -6861,7 +6858,7 @@
       </c>
       <c r="F76" s="146"/>
       <c r="G76" s="147" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="H76" s="84"/>
       <c r="I76" s="67"/>
@@ -6949,7 +6946,7 @@
         <v>249</v>
       </c>
       <c r="I79" s="42" t="s">
-        <v>310</v>
+        <v>562</v>
       </c>
       <c r="J79" s="104">
         <v>3737</v>
@@ -6979,7 +6976,7 @@
         <v>251</v>
       </c>
       <c r="I80" s="42" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J80" s="104">
         <v>9419</v>
@@ -6997,14 +6994,14 @@
         <v>0.59375</v>
       </c>
       <c r="C81" s="171" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D81" s="171"/>
       <c r="E81" s="171"/>
       <c r="F81" s="171"/>
       <c r="G81" s="171"/>
       <c r="H81" s="136" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I81" s="136" t="s">
         <v>22</v>
@@ -7046,7 +7043,7 @@
         <v>1922</v>
       </c>
       <c r="K83" s="117" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="N83" s="48"/>
       <c r="O83" s="49"/>
@@ -7075,7 +7072,7 @@
         <v>7053</v>
       </c>
       <c r="K84" s="53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L84" s="42">
         <f>VLOOKUP(J84,Sheet2!$A$3:$B$57,1,)</f>
@@ -7105,14 +7102,14 @@
         <v>47</v>
       </c>
       <c r="H85" s="128" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I85" s="165"/>
       <c r="J85" s="103">
         <v>8271</v>
       </c>
       <c r="K85" s="53" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="L85" s="42">
         <f>VLOOKUP(J85,Sheet2!$A$3:$B$57,1,)</f>
@@ -7149,7 +7146,7 @@
         <v>8547</v>
       </c>
       <c r="K86" s="117" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="N86" s="48"/>
       <c r="O86" s="49"/>
@@ -7178,7 +7175,7 @@
         <v>9708</v>
       </c>
       <c r="K87" s="53" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L87" s="42">
         <f>VLOOKUP(J87,Sheet2!$A$3:$B$57,1,)</f>
@@ -7199,7 +7196,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F88" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G88" s="165"/>
       <c r="H88" s="165"/>
@@ -7239,16 +7236,16 @@
         <v>165</v>
       </c>
       <c r="I90" s="165" t="s">
-        <v>222</v>
+        <v>461</v>
       </c>
       <c r="J90" s="100">
         <v>643</v>
       </c>
       <c r="K90" s="53" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M90" s="129" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="91" spans="1:15" ht="28" x14ac:dyDescent="0.2">
@@ -7268,14 +7265,14 @@
         <v>167</v>
       </c>
       <c r="H91" s="128" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="I91" s="165"/>
       <c r="J91" s="100">
         <v>1578</v>
       </c>
       <c r="K91" s="53" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L91" s="42">
         <f>VLOOKUP(J91,Sheet2!$A$3:$B$57,1,)</f>
@@ -7310,7 +7307,7 @@
         <v>2159</v>
       </c>
       <c r="K92" s="53" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="L92" s="42">
         <f>VLOOKUP(J92,Sheet2!$A$3:$B$57,1,)</f>
@@ -7345,7 +7342,7 @@
         <v>2375</v>
       </c>
       <c r="K93" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L93" s="42">
         <f>VLOOKUP(J93,Sheet2!$A$3:$B$57,1,)</f>
@@ -7380,7 +7377,7 @@
         <v>5209</v>
       </c>
       <c r="K94" s="53" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L94" s="42">
         <f>VLOOKUP(J94,Sheet2!$A$3:$B$57,1,)</f>
@@ -7401,7 +7398,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F95" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G95" s="165"/>
       <c r="H95" s="165"/>
@@ -7423,7 +7420,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="C97" s="165" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D97" s="57">
         <v>0.10416666666666667</v>
@@ -7441,19 +7438,19 @@
         <v>193</v>
       </c>
       <c r="I97" s="165" t="s">
-        <v>222</v>
+        <v>359</v>
       </c>
       <c r="J97" s="132">
         <v>192</v>
       </c>
       <c r="K97" s="133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="L97" s="134">
         <v>192</v>
       </c>
       <c r="M97" s="135" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="28" x14ac:dyDescent="0.2">
@@ -7480,7 +7477,7 @@
         <v>3490</v>
       </c>
       <c r="K98" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="L98" s="42">
         <f>VLOOKUP(J98,Sheet2!$A$3:$B$57,1,)</f>
@@ -7515,7 +7512,7 @@
         <v>8571</v>
       </c>
       <c r="K99" s="53" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="L99" s="42">
         <f>VLOOKUP(J99,Sheet2!$A$3:$B$57,1,)</f>
@@ -7543,14 +7540,14 @@
         <v>201</v>
       </c>
       <c r="H100" s="128" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="I100" s="165"/>
       <c r="J100" s="103">
         <v>8819</v>
       </c>
       <c r="K100" s="53" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="L100" s="42">
         <f>VLOOKUP(J100,Sheet2!$A$3:$B$57,1,)</f>
@@ -7585,7 +7582,7 @@
         <v>9671</v>
       </c>
       <c r="K101" s="53" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="L101" s="42">
         <f>VLOOKUP(J101,Sheet2!$A$3:$B$57,1,)</f>
@@ -7606,7 +7603,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F102" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G102" s="165"/>
       <c r="H102" s="165"/>
@@ -7622,7 +7619,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C103" s="171" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D103" s="171"/>
       <c r="E103" s="171"/>
@@ -7643,7 +7640,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C104" s="172" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="D104" s="172"/>
       <c r="E104" s="172"/>
@@ -7719,10 +7716,10 @@
         <v>287</v>
       </c>
       <c r="L107" s="41" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="M107" s="41" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="N107" s="41"/>
       <c r="O107" s="50"/>
@@ -7735,14 +7732,14 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="C108" s="170" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="D108" s="170"/>
       <c r="E108" s="170"/>
       <c r="F108" s="170"/>
       <c r="G108" s="170"/>
       <c r="H108" s="136" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="I108" s="136" t="s">
         <v>22</v>
@@ -7756,7 +7753,7 @@
         <v>0.5</v>
       </c>
       <c r="C109" s="165" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D109" s="57">
         <v>0.4375</v>
@@ -7771,7 +7768,7 @@
         <v>57</v>
       </c>
       <c r="H109" s="128" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="I109" s="165" t="s">
         <v>220</v>
@@ -7780,10 +7777,10 @@
         <v>3894</v>
       </c>
       <c r="K109" s="114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M109" s="42" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
     </row>
     <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -7810,7 +7807,7 @@
         <v>5823</v>
       </c>
       <c r="K110" s="53" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="L110" s="42">
         <f>VLOOKUP(J110,Sheet2!A3:B57,1)</f>
@@ -7845,7 +7842,7 @@
         <v>6701</v>
       </c>
       <c r="K111" s="53" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="L111" s="42">
         <f>VLOOKUP(J111,Sheet2!A4:B58,1)</f>
@@ -7880,7 +7877,7 @@
         <v>645</v>
       </c>
       <c r="K112" s="53" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="L112" s="42">
         <f>VLOOKUP(J112,Sheet2!A5:B59,1)</f>
@@ -7908,14 +7905,14 @@
         <v>69</v>
       </c>
       <c r="H113" s="128" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="I113" s="165"/>
       <c r="J113" s="103">
         <v>9933</v>
       </c>
       <c r="K113" s="53" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="L113" s="42">
         <f>VLOOKUP(J113,Sheet2!A6:B60,1)</f>
@@ -7936,7 +7933,7 @@
         <v>0.5</v>
       </c>
       <c r="F114" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G114" s="165"/>
       <c r="H114" s="165"/>
@@ -7952,7 +7949,7 @@
         <v>0.5</v>
       </c>
       <c r="C115" s="165" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D115" s="57">
         <v>0.4375</v>
@@ -7967,7 +7964,7 @@
         <v>73</v>
       </c>
       <c r="H115" s="128" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="I115" s="165" t="s">
         <v>221</v>
@@ -7976,7 +7973,7 @@
         <v>1918</v>
       </c>
       <c r="K115" s="53" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="L115" s="42">
         <f>VLOOKUP(J115,Sheet2!A8:B62,1)</f>
@@ -8011,7 +8008,7 @@
         <v>6322</v>
       </c>
       <c r="K116" s="53" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="L116" s="42">
         <f>VLOOKUP(J116,Sheet2!A9:B63,1)</f>
@@ -8046,7 +8043,7 @@
         <v>8594</v>
       </c>
       <c r="K117" s="53" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="L117" s="42">
         <f>VLOOKUP(J117,Sheet2!A10:B64,1)</f>
@@ -8081,7 +8078,7 @@
         <v>1342</v>
       </c>
       <c r="K118" s="53" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L118" s="42">
         <f>VLOOKUP(J118,Sheet2!A11:B65,1)</f>
@@ -8116,7 +8113,7 @@
         <v>8385</v>
       </c>
       <c r="K119" s="53" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="L119" s="42">
         <f>VLOOKUP(J119,Sheet2!A12:B66,1)</f>
@@ -8137,7 +8134,7 @@
         <v>0.5</v>
       </c>
       <c r="F120" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G120" s="165"/>
       <c r="H120" s="165"/>
@@ -8166,7 +8163,7 @@
         <v>0.5</v>
       </c>
       <c r="C122" s="165" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D122" s="57">
         <v>0.4375</v>
@@ -8184,13 +8181,13 @@
         <v>181</v>
       </c>
       <c r="I122" s="165" t="s">
-        <v>222</v>
+        <v>794</v>
       </c>
       <c r="J122" s="100">
         <v>7186</v>
       </c>
       <c r="K122" s="53" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="L122" s="42">
         <f>VLOOKUP(J122,Sheet2!A15:B69,1)</f>
@@ -8225,7 +8222,7 @@
         <v>8437</v>
       </c>
       <c r="K123" s="53" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L123" s="42">
         <f>VLOOKUP(J123,Sheet2!A16:B70,1)</f>
@@ -8260,7 +8257,7 @@
         <v>8784</v>
       </c>
       <c r="K124" s="53" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L124" s="42">
         <f>VLOOKUP(J124,Sheet2!A17:B71,1)</f>
@@ -8288,14 +8285,14 @@
         <v>189</v>
       </c>
       <c r="H125" s="128" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="I125" s="165"/>
       <c r="J125" s="100">
         <v>9116</v>
       </c>
       <c r="K125" s="53" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L125" s="42">
         <f>VLOOKUP(J125,Sheet2!A18:B72,1)</f>
@@ -8317,7 +8314,7 @@
         <v>0.5</v>
       </c>
       <c r="F126" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G126" s="165"/>
       <c r="H126" s="165"/>
@@ -8340,7 +8337,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C128" s="168" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D128" s="57">
         <v>4.1666666666666664E-2</v>
@@ -8364,7 +8361,7 @@
         <v>6366</v>
       </c>
       <c r="K128" s="53" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="L128" s="42">
         <f>VLOOKUP(J128,Sheet2!A21:B75,1)</f>
@@ -8399,7 +8396,7 @@
         <v>6922</v>
       </c>
       <c r="K129" s="117" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -8419,14 +8416,14 @@
         <v>95</v>
       </c>
       <c r="H130" s="40" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="I130" s="165"/>
       <c r="J130" s="103">
         <v>8651</v>
       </c>
       <c r="K130" s="53" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L130" s="42">
         <f>VLOOKUP(J130,Sheet2!A23:B77,1)</f>
@@ -8461,7 +8458,7 @@
         <v>4140</v>
       </c>
       <c r="K131" s="117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -8488,13 +8485,13 @@
         <v>4444</v>
       </c>
       <c r="K132" s="53" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="L132" s="93">
         <v>4444</v>
       </c>
       <c r="M132" s="86" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.2">
@@ -8507,7 +8504,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F133" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G133" s="165"/>
       <c r="H133" s="165"/>
@@ -8538,7 +8535,7 @@
         <v>0.60416666666666663</v>
       </c>
       <c r="C135" s="165" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D135" s="57">
         <v>4.1666666666666664E-2</v>
@@ -8553,22 +8550,22 @@
         <v>105</v>
       </c>
       <c r="H135" s="40" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="I135" s="165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J135" s="103">
         <v>319</v>
       </c>
       <c r="K135" s="53" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L135" s="110">
         <v>319</v>
       </c>
       <c r="M135" s="111" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="28" x14ac:dyDescent="0.2">
@@ -8595,13 +8592,13 @@
         <v>988</v>
       </c>
       <c r="K136" s="53" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L136" s="93">
         <v>988</v>
       </c>
       <c r="M136" s="119" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="42" x14ac:dyDescent="0.2">
@@ -8628,10 +8625,10 @@
         <v>2868</v>
       </c>
       <c r="K137" s="53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="M137" s="42" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -8658,13 +8655,13 @@
         <v>4100</v>
       </c>
       <c r="K138" s="53" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="L138" s="93">
         <v>4100</v>
       </c>
       <c r="M138" s="119" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="28" x14ac:dyDescent="0.2">
@@ -8691,7 +8688,7 @@
         <v>6907</v>
       </c>
       <c r="K139" s="53" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="L139" s="42">
         <f>VLOOKUP(J139,Sheet2!A32:B86,1)</f>
@@ -8712,7 +8709,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F140" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G140" s="165"/>
       <c r="H140" s="165"/>
@@ -8757,19 +8754,19 @@
         <v>122</v>
       </c>
       <c r="I142" s="165" t="s">
-        <v>366</v>
+        <v>794</v>
       </c>
       <c r="J142" s="103">
         <v>5551</v>
       </c>
       <c r="K142" s="53" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="L142" s="93">
         <v>5551</v>
       </c>
       <c r="M142" s="86" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="28" x14ac:dyDescent="0.2">
@@ -8796,13 +8793,13 @@
         <v>6798</v>
       </c>
       <c r="K143" s="53" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="L143" s="93">
         <v>6798</v>
       </c>
       <c r="M143" s="86" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -8829,13 +8826,13 @@
         <v>6842</v>
       </c>
       <c r="K144" s="53" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L144" s="93">
         <v>6842</v>
       </c>
       <c r="M144" s="86" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="28" x14ac:dyDescent="0.2">
@@ -8855,14 +8852,14 @@
         <v>130</v>
       </c>
       <c r="H145" s="128" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I145" s="165"/>
       <c r="J145" s="103">
         <v>8182</v>
       </c>
       <c r="K145" s="53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="L145" s="42">
         <f>VLOOKUP(J145,Sheet2!A38:B92,1)</f>
@@ -8890,17 +8887,17 @@
         <v>133</v>
       </c>
       <c r="H146" s="128" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="I146" s="165"/>
       <c r="J146" s="103">
         <v>3356</v>
       </c>
       <c r="K146" s="53" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="M146" s="40" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.2">
@@ -8913,7 +8910,7 @@
         <v>0.10416666666666667</v>
       </c>
       <c r="F147" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G147" s="165"/>
       <c r="H147" s="165"/>
@@ -8940,7 +8937,7 @@
         <v>0.6875</v>
       </c>
       <c r="C149" s="165" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D149" s="57">
         <v>0.125</v>
@@ -8955,16 +8952,16 @@
         <v>66</v>
       </c>
       <c r="H149" s="128" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="I149" s="165" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="J149" s="103">
         <v>8560</v>
       </c>
       <c r="K149" s="53" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="L149" s="42">
         <f>VLOOKUP(J149,Sheet2!A43:B97,1)</f>
@@ -8999,10 +8996,10 @@
         <v>3664</v>
       </c>
       <c r="K150" s="53" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M150" s="42" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -9029,7 +9026,7 @@
         <v>841</v>
       </c>
       <c r="K151" s="114" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="42" x14ac:dyDescent="0.2">
@@ -9056,13 +9053,13 @@
         <v>1002</v>
       </c>
       <c r="K152" s="53" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="L152" s="93">
         <v>1002</v>
       </c>
       <c r="M152" s="86" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -9089,7 +9086,7 @@
         <v>8724</v>
       </c>
       <c r="K153" s="53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="L153" s="42">
         <f>VLOOKUP(J153,Sheet2!A47:B101,1)</f>
@@ -9110,7 +9107,7 @@
         <v>0.1875</v>
       </c>
       <c r="F154" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G154" s="165"/>
       <c r="H154" s="165"/>
@@ -9126,7 +9123,7 @@
         <v>0.6875</v>
       </c>
       <c r="C155" s="140" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="D155" s="138">
         <v>0.625</v>
@@ -9135,14 +9132,14 @@
         <v>0.6875</v>
       </c>
       <c r="F155" s="141" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="G155" s="142" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="H155" s="141"/>
       <c r="I155" s="140" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J155" s="104"/>
       <c r="K155" s="48"/>
@@ -9173,19 +9170,19 @@
         <v>152</v>
       </c>
       <c r="I156" s="165" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="J156" s="103">
         <v>456</v>
       </c>
       <c r="K156" s="53" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="L156" s="93">
         <v>456</v>
       </c>
       <c r="M156" s="86" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -9212,13 +9209,13 @@
         <v>726</v>
       </c>
       <c r="K157" s="53" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="L157" s="93">
         <v>726</v>
       </c>
       <c r="M157" s="86" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -9245,13 +9242,13 @@
         <v>1067</v>
       </c>
       <c r="K158" s="53" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="L158" s="112">
         <v>1076</v>
       </c>
       <c r="M158" s="86" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="32" x14ac:dyDescent="0.2">
@@ -9278,7 +9275,7 @@
         <v>2721</v>
       </c>
       <c r="K159" s="117" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
@@ -9292,7 +9289,7 @@
         <v>0.1875</v>
       </c>
       <c r="F160" s="165" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G160" s="165"/>
       <c r="H160" s="165"/>
@@ -9308,7 +9305,7 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="C161" s="140" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D161" s="144">
         <v>0.10416666666666667</v>
@@ -9317,10 +9314,10 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="F161" s="140" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G161" s="140" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H161" s="140"/>
       <c r="I161" s="141" t="s">
@@ -9337,7 +9334,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="C162" s="172" t="s">
-        <v>381</v>
+        <v>795</v>
       </c>
       <c r="D162" s="172"/>
       <c r="E162" s="172"/>
@@ -9345,7 +9342,7 @@
       <c r="G162" s="45"/>
       <c r="H162" s="45"/>
       <c r="I162" s="45" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J162" s="107"/>
       <c r="K162" s="45"/>
@@ -9419,14 +9416,14 @@
         <v>0.40625</v>
       </c>
       <c r="C167" s="170" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="D167" s="170"/>
       <c r="E167" s="170"/>
       <c r="F167" s="170"/>
       <c r="G167" s="170"/>
       <c r="H167" s="136" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I167" s="136" t="s">
         <v>22</v>
@@ -9442,7 +9439,7 @@
         <v>0.5</v>
       </c>
       <c r="C168" s="165" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D168" s="57">
         <v>0.41666666666666669</v>
@@ -9466,10 +9463,10 @@
         <v>4188</v>
       </c>
       <c r="K168" s="53" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="M168" s="129" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="169" spans="1:15" ht="28" x14ac:dyDescent="0.2">
@@ -9496,13 +9493,13 @@
         <v>4414</v>
       </c>
       <c r="K169" s="53" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L169" s="93">
         <v>4414</v>
       </c>
       <c r="M169" s="86" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="N169"/>
     </row>
@@ -9523,20 +9520,20 @@
         <v>212</v>
       </c>
       <c r="H170" s="128" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="I170" s="165"/>
       <c r="J170" s="103">
         <v>6208</v>
       </c>
       <c r="K170" s="53" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="L170" s="93">
         <v>6208</v>
       </c>
       <c r="M170" s="86" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="N170"/>
     </row>
@@ -9564,13 +9561,13 @@
         <v>8115</v>
       </c>
       <c r="K171" s="53" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="L171" s="93">
         <v>8115</v>
       </c>
       <c r="M171" s="86" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="172" spans="1:15" ht="16" x14ac:dyDescent="0.2">
@@ -9611,10 +9608,10 @@
         <v>0.5</v>
       </c>
       <c r="F173" s="42" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="G173" s="48" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="I173" s="165"/>
       <c r="J173" s="103"/>
@@ -9628,7 +9625,7 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="C174" s="48" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="D174" s="68">
         <v>0.41666666666666669</v>
@@ -9637,13 +9634,13 @@
         <v>0.47916666666666669</v>
       </c>
       <c r="F174" s="42" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="G174" s="52" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="I174" s="48" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="J174" s="103"/>
       <c r="K174" s="53"/>
@@ -9924,13 +9921,13 @@
         <v>38</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F1" s="63" t="s">
         <v>287</v>
       </c>
       <c r="G1" s="63" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -9950,7 +9947,7 @@
         <v>1922</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -9970,7 +9967,7 @@
         <v>7053</v>
       </c>
       <c r="F3" s="21" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -9990,7 +9987,7 @@
         <v>8271</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -10010,7 +10007,7 @@
         <v>8547</v>
       </c>
       <c r="F5" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10030,7 +10027,7 @@
         <v>9708</v>
       </c>
       <c r="F6" s="34" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -10050,7 +10047,7 @@
         <v>3894</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -10070,7 +10067,7 @@
         <v>5823</v>
       </c>
       <c r="F8" s="21" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -10090,7 +10087,7 @@
         <v>6701</v>
       </c>
       <c r="F9" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -10110,7 +10107,7 @@
         <v>645</v>
       </c>
       <c r="F10" s="21" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10130,7 +10127,7 @@
         <v>9933</v>
       </c>
       <c r="F11" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -10150,7 +10147,7 @@
         <v>1918</v>
       </c>
       <c r="F12" s="29" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -10170,7 +10167,7 @@
         <v>6322</v>
       </c>
       <c r="F13" s="21" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -10190,7 +10187,7 @@
         <v>8594</v>
       </c>
       <c r="F14" s="21" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -10210,7 +10207,7 @@
         <v>1342</v>
       </c>
       <c r="F15" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10230,7 +10227,7 @@
         <v>8385</v>
       </c>
       <c r="F16" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -10250,7 +10247,7 @@
         <v>6366</v>
       </c>
       <c r="F17" s="29" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -10270,7 +10267,7 @@
         <v>6922</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
@@ -10290,7 +10287,7 @@
         <v>8651</v>
       </c>
       <c r="F19" s="21" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -10310,7 +10307,7 @@
         <v>4140</v>
       </c>
       <c r="F20" s="21" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10330,7 +10327,7 @@
         <v>4444</v>
       </c>
       <c r="F21" s="34" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -10350,7 +10347,7 @@
         <v>319</v>
       </c>
       <c r="F22" s="29" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -10370,7 +10367,7 @@
         <v>988</v>
       </c>
       <c r="F23" s="21" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -10390,7 +10387,7 @@
         <v>2868</v>
       </c>
       <c r="F24" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -10410,7 +10407,7 @@
         <v>4100</v>
       </c>
       <c r="F25" s="21" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10430,7 +10427,7 @@
         <v>6907</v>
       </c>
       <c r="F26" s="34" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -10450,7 +10447,7 @@
         <v>5551</v>
       </c>
       <c r="F27" s="29" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -10470,7 +10467,7 @@
         <v>6798</v>
       </c>
       <c r="F28" s="21" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -10490,7 +10487,7 @@
         <v>6842</v>
       </c>
       <c r="F29" s="21" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -10510,7 +10507,7 @@
         <v>8182</v>
       </c>
       <c r="F30" s="21" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10530,12 +10527,12 @@
         <v>3356</v>
       </c>
       <c r="F31" s="34" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B32" s="28" t="s">
         <v>134</v>
@@ -10550,12 +10547,12 @@
         <v>8560</v>
       </c>
       <c r="F32" s="21" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B33" s="20" t="s">
         <v>137</v>
@@ -10570,12 +10567,12 @@
         <v>3664</v>
       </c>
       <c r="F33" s="21" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B34" s="20" t="s">
         <v>140</v>
@@ -10590,12 +10587,12 @@
         <v>841</v>
       </c>
       <c r="F34" s="21" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="28" x14ac:dyDescent="0.2">
       <c r="A35" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B35" s="20" t="s">
         <v>143</v>
@@ -10610,12 +10607,12 @@
         <v>1002</v>
       </c>
       <c r="F35" s="21" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B36" s="33" t="s">
         <v>146</v>
@@ -10630,7 +10627,7 @@
         <v>8724</v>
       </c>
       <c r="F36" s="34" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="28" x14ac:dyDescent="0.2">
@@ -10650,7 +10647,7 @@
         <v>456</v>
       </c>
       <c r="F37" s="29" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -10670,10 +10667,10 @@
         <v>726</v>
       </c>
       <c r="F38" s="21" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
@@ -10693,7 +10690,7 @@
         <v>1067</v>
       </c>
       <c r="F39" s="21" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="29" thickBot="1" x14ac:dyDescent="0.25">
@@ -10713,7 +10710,7 @@
         <v>2721</v>
       </c>
       <c r="F40" s="34" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -10754,7 +10751,7 @@
         <v>38</v>
       </c>
       <c r="E1" s="63" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F1" s="63" t="s">
         <v>287</v>
@@ -10777,7 +10774,7 @@
         <v>643</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -10797,7 +10794,7 @@
         <v>1578</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -10817,7 +10814,7 @@
         <v>2159</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -10837,7 +10834,7 @@
         <v>2375</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -10857,7 +10854,7 @@
         <v>5209</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -10877,7 +10874,7 @@
         <v>7186</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -10897,7 +10894,7 @@
         <v>8437</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -10917,7 +10914,7 @@
         <v>8784</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -10937,7 +10934,7 @@
         <v>9116</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -10964,22 +10961,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="66" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B1" s="66" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C1" s="66" t="s">
+        <v>430</v>
+      </c>
+      <c r="D1" s="66" t="s">
         <v>433</v>
-      </c>
-      <c r="D1" s="66" t="s">
-        <v>436</v>
       </c>
       <c r="E1" s="66" t="s">
         <v>287</v>
       </c>
       <c r="F1" s="66" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -10987,19 +10984,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="65" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="C2" s="65" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="D2" s="65">
         <v>255</v>
       </c>
       <c r="E2" s="65" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F2" s="86" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -11007,16 +11004,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="65" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D3" s="65">
         <v>335</v>
       </c>
       <c r="E3" s="65" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -11024,16 +11021,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="65" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C4" s="65" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D4" s="65">
         <v>852</v>
       </c>
       <c r="E4" s="65" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -11041,16 +11038,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="65" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C5" s="65" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D5" s="65">
         <v>1026</v>
       </c>
       <c r="E5" s="65" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -11058,16 +11055,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D6" s="65">
         <v>1135</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -11075,16 +11072,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="65" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D7" s="65">
         <v>1669</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -11092,16 +11089,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="65" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C8" s="65" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D8" s="65">
         <v>1700</v>
       </c>
       <c r="E8" s="65" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -11109,16 +11106,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="65" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="D9" s="65">
         <v>4164</v>
       </c>
       <c r="E9" s="65" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="90" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -11126,19 +11123,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="91" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C10" s="91" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D10" s="91">
         <v>4342</v>
       </c>
       <c r="E10" s="91" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F10" s="89" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="42" x14ac:dyDescent="0.2">
@@ -11146,19 +11143,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="65" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D11" s="65">
         <v>4695</v>
       </c>
       <c r="E11" s="65" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F11" s="87" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
@@ -11166,19 +11163,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="65" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D12" s="65">
         <v>5278</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F12" s="86" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -11186,16 +11183,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D13" s="65">
         <v>5336</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.2">
@@ -11203,16 +11200,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="65" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D14" s="65">
         <v>5991</v>
       </c>
       <c r="E14" s="65" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -11220,19 +11217,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="65" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D15" s="65">
         <v>6254</v>
       </c>
       <c r="E15" s="65" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -11240,16 +11237,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="65" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D16" s="65">
         <v>7418</v>
       </c>
       <c r="E16" s="65" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -11257,16 +11254,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="65" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="D17" s="65">
         <v>8051</v>
       </c>
       <c r="E17" s="65" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -11274,16 +11271,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="65" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="D18" s="65">
         <v>9213</v>
       </c>
       <c r="E18" s="65" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="42" x14ac:dyDescent="0.2">
@@ -11291,7 +11288,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C19" s="65" t="s">
         <v>109</v>
@@ -11300,7 +11297,7 @@
         <v>9306</v>
       </c>
       <c r="E19" s="65" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -11308,16 +11305,16 @@
         <v>19</v>
       </c>
       <c r="B20" s="65" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C20" s="65" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D20" s="65">
         <v>9738</v>
       </c>
       <c r="E20" s="65" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="28" x14ac:dyDescent="0.2">
@@ -11325,16 +11322,16 @@
         <v>20</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D21" s="65">
         <v>9878</v>
       </c>
       <c r="E21" s="65" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -11360,1010 +11357,1010 @@
   <sheetData>
     <row r="1" spans="1:4" ht="19.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
+        <v>567</v>
+      </c>
+      <c r="B1" s="88" t="s">
+        <v>568</v>
+      </c>
+      <c r="C1" s="88" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1" s="88" t="s">
         <v>570</v>
-      </c>
-      <c r="B1" s="88" t="s">
-        <v>571</v>
-      </c>
-      <c r="C1" s="88" t="s">
-        <v>572</v>
-      </c>
-      <c r="D1" s="88" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="86" t="s">
+        <v>571</v>
+      </c>
+      <c r="B2" s="86" t="s">
+        <v>572</v>
+      </c>
+      <c r="C2" s="86" t="s">
+        <v>573</v>
+      </c>
+      <c r="D2" s="86" t="s">
         <v>574</v>
-      </c>
-      <c r="B2" s="86" t="s">
-        <v>575</v>
-      </c>
-      <c r="C2" s="86" t="s">
-        <v>576</v>
-      </c>
-      <c r="D2" s="86" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B3" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C3" s="87" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="D3" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="90" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="89" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B4" s="89" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C4" s="89" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C5" s="87" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D5" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B6" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C6" s="86" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D6" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B7" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C7" s="87" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="86" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B8" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C8" s="86" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D8" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B9" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C9" s="87" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D10" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C11" s="87" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D11" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C12" s="86" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="87" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C13" s="87" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D13" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="86" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D14" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="87" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C15" s="87" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="86" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C16" s="86" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D16" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="87" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B17" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C17" s="87" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D17" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="86" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B18" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D18" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D19" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="86" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B20" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D20" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D21" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B22" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C22" s="86" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D22" s="86" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="87" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B23" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C23" s="87" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D23" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="86" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B24" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C24" s="86" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="D24" s="86" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D25" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="90" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="89" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B26" s="89" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C26" s="89" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D26" s="89" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="87" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C27" s="87" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="86" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C28" s="86" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D28" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="87" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B29" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C29" s="87" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D30" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="87" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="D31" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="86" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B32" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C32" s="86" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="D32" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="87" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B33" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C33" s="87" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D33" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="86" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B34" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C34" s="86" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D34" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="87" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C35" s="87" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="86" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B36" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C36" s="86" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D36" s="86" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="87" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="D37" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="86" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B38" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C38" s="86" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D38" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="87" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B39" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="B40" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C40" s="86" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="D40" s="86" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="87" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C41" s="87" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="D41" s="87" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="86" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B42" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C42" s="86" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D42" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="87" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B43" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C43" s="87" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="B44" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C44" s="86" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D44" s="86" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="87" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B45" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C45" s="87" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="D45" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C46" s="86" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="D46" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="87" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B47" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C47" s="87" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="D47" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="86" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B48" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C48" s="86" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="D48" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="87" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C49" s="87" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="86" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B50" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C50" s="86" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="D50" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="87" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C51" s="87" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="D51" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="86" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B52" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C52" s="86" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D52" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="53" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="87" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B53" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="D53" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.2">
       <c r="A54" s="86" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C54" s="86" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="D54" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="87" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C55" s="87" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D55" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="56" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="86" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C56" s="86" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="D56" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="57" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B57" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C57" s="87" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
       <c r="D57" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="86" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B58" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C58" s="86" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D58" s="86" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="87" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B59" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C59" s="87" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="D59" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="60" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="86" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B60" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C60" s="86" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="D60" s="86" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="87" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B61" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C61" s="87" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D61" s="87" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="62" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="86" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B62" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C62" s="86" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="D62" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="87" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B63" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C63" s="87" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D63" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="64" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="86" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B64" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C64" s="86" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="D64" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="90" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="89" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="B65" s="89" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C65" s="89" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D65" s="89" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="86" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="B66" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C66" s="86" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="D66" s="86" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A67" s="87" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B67" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C67" s="87" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="D67" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="68" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A68" s="86" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B68" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C68" s="86" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
       <c r="D68" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="69" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A69" s="87" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B69" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C69" s="87" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
       <c r="D69" s="87" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="86" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B70" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C70" s="86" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="D70" s="86" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A71" s="87" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="B71" s="87" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C71" s="87" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D71" s="87" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="86" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="B72" s="86" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="C72" s="86" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="D72" s="86" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
   </sheetData>
@@ -12389,10 +12386,10 @@
   <sheetData>
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="92" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B1" s="88" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
@@ -12400,7 +12397,7 @@
         <v>192</v>
       </c>
       <c r="B2" s="86" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C2">
         <f>A2*1</f>
@@ -12412,7 +12409,7 @@
         <v>319</v>
       </c>
       <c r="B3" s="86" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C3">
         <f t="shared" ref="C3:C56" si="0">A3*1</f>
@@ -12424,7 +12421,7 @@
         <v>319</v>
       </c>
       <c r="B4" s="87" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
@@ -12436,7 +12433,7 @@
         <v>456</v>
       </c>
       <c r="B5" s="87" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
@@ -12448,7 +12445,7 @@
         <v>645</v>
       </c>
       <c r="B6" s="87" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
@@ -12460,7 +12457,7 @@
         <v>726</v>
       </c>
       <c r="B7" s="86" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
@@ -12472,7 +12469,7 @@
         <v>988</v>
       </c>
       <c r="B8" s="87" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
@@ -12484,7 +12481,7 @@
         <v>1002</v>
       </c>
       <c r="B9" s="86" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
@@ -12496,7 +12493,7 @@
         <v>1076</v>
       </c>
       <c r="B10" s="86" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
@@ -12508,7 +12505,7 @@
         <v>1342</v>
       </c>
       <c r="B11" s="87" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
@@ -12520,7 +12517,7 @@
         <v>1578</v>
       </c>
       <c r="B12" s="86" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
@@ -12532,7 +12529,7 @@
         <v>1918</v>
       </c>
       <c r="B13" s="87" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
@@ -12544,7 +12541,7 @@
         <v>2159</v>
       </c>
       <c r="B14" s="86" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
@@ -12556,7 +12553,7 @@
         <v>2375</v>
       </c>
       <c r="B15" s="87" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
@@ -12568,7 +12565,7 @@
         <v>2375</v>
       </c>
       <c r="B16" s="86" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
@@ -12580,7 +12577,7 @@
         <v>2868</v>
       </c>
       <c r="B17" s="86" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
@@ -12592,7 +12589,7 @@
         <v>3273</v>
       </c>
       <c r="B18" s="87" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
@@ -12604,7 +12601,7 @@
         <v>3356</v>
       </c>
       <c r="B19" s="87" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
@@ -12616,7 +12613,7 @@
         <v>3490</v>
       </c>
       <c r="B20" s="87" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
@@ -12628,7 +12625,7 @@
         <v>4100</v>
       </c>
       <c r="B21" s="87" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
@@ -12640,7 +12637,7 @@
         <v>4414</v>
       </c>
       <c r="B22" s="87" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
@@ -12652,7 +12649,7 @@
         <v>4444</v>
       </c>
       <c r="B23" s="86" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
@@ -12664,7 +12661,7 @@
         <v>5209</v>
       </c>
       <c r="B24" s="87" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
@@ -12676,7 +12673,7 @@
         <v>5551</v>
       </c>
       <c r="B25" s="87" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
@@ -12688,7 +12685,7 @@
         <v>5823</v>
       </c>
       <c r="B26" s="86" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
@@ -12700,7 +12697,7 @@
         <v>6208</v>
       </c>
       <c r="B27" s="87" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
@@ -12712,7 +12709,7 @@
         <v>6208</v>
       </c>
       <c r="B28" s="87" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
@@ -12724,7 +12721,7 @@
         <v>6322</v>
       </c>
       <c r="B29" s="86" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
@@ -12736,7 +12733,7 @@
         <v>6366</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
@@ -12748,7 +12745,7 @@
         <v>6701</v>
       </c>
       <c r="B31" s="87" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
@@ -12760,7 +12757,7 @@
         <v>6798</v>
       </c>
       <c r="B32" s="87" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
@@ -12772,7 +12769,7 @@
         <v>6842</v>
       </c>
       <c r="B33" s="86" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
@@ -12784,7 +12781,7 @@
         <v>6907</v>
       </c>
       <c r="B34" s="87" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
@@ -12796,7 +12793,7 @@
         <v>7053</v>
       </c>
       <c r="B35" s="87" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
@@ -12808,7 +12805,7 @@
         <v>7186</v>
       </c>
       <c r="B36" s="86" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
@@ -12820,7 +12817,7 @@
         <v>8115</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
@@ -12832,7 +12829,7 @@
         <v>8182</v>
       </c>
       <c r="B38" s="86" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
@@ -12844,7 +12841,7 @@
         <v>8271</v>
       </c>
       <c r="B39" s="86" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
@@ -12856,7 +12853,7 @@
         <v>8271</v>
       </c>
       <c r="B40" s="87" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
@@ -12868,7 +12865,7 @@
         <v>8385</v>
       </c>
       <c r="B41" s="87" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
@@ -12880,7 +12877,7 @@
         <v>8437</v>
       </c>
       <c r="B42" s="86" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
@@ -12892,7 +12889,7 @@
         <v>8560</v>
       </c>
       <c r="B43" s="87" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
@@ -12904,7 +12901,7 @@
         <v>8571</v>
       </c>
       <c r="B44" s="87" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
@@ -12916,7 +12913,7 @@
         <v>8594</v>
       </c>
       <c r="B45" s="86" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
@@ -12928,7 +12925,7 @@
         <v>8651</v>
       </c>
       <c r="B46" s="86" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
@@ -12940,7 +12937,7 @@
         <v>8724</v>
       </c>
       <c r="B47" s="87" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
@@ -12952,7 +12949,7 @@
         <v>8784</v>
       </c>
       <c r="B48" s="86" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
@@ -12964,7 +12961,7 @@
         <v>8819</v>
       </c>
       <c r="B49" s="87" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
@@ -12976,7 +12973,7 @@
         <v>9116</v>
       </c>
       <c r="B50" s="87" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
@@ -12988,7 +12985,7 @@
         <v>9671</v>
       </c>
       <c r="B51" s="87" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
@@ -13000,7 +12997,7 @@
         <v>9708</v>
       </c>
       <c r="B52" s="86" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
@@ -13012,7 +13009,7 @@
         <v>9933</v>
       </c>
       <c r="B53" s="86" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
@@ -13024,7 +13021,7 @@
         <v>2023089174</v>
       </c>
       <c r="B54" s="86" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
@@ -13036,7 +13033,7 @@
         <v>1680526730728</v>
       </c>
       <c r="B55" s="87" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
@@ -13048,7 +13045,7 @@
         <v>1680761732555</v>
       </c>
       <c r="B56" s="86" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
@@ -13083,13 +13080,13 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18" x14ac:dyDescent="0.2">
       <c r="A1" s="88" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B1" s="125" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="C1" s="125" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="D1" s="125" t="s">
         <v>21</v>
@@ -13097,10 +13094,10 @@
     </row>
     <row r="2" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="86" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B2" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="C2">
         <v>726</v>
@@ -13108,10 +13105,10 @@
     </row>
     <row r="3" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="87" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="B3" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="C3">
         <v>8115</v>
@@ -13119,17 +13116,17 @@
     </row>
     <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="86" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="87" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="86" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="C6" s="120">
         <v>4628</v>
@@ -13137,10 +13134,10 @@
     </row>
     <row r="7" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="87" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B7" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C7">
         <v>6208</v>
@@ -13148,7 +13145,7 @@
     </row>
     <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="86" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="C8" s="115">
         <v>9057</v>
@@ -13156,10 +13153,10 @@
     </row>
     <row r="9" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="87" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B9" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="C9">
         <v>9933</v>
@@ -13167,10 +13164,10 @@
     </row>
     <row r="10" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="86" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="C10">
         <v>2375</v>
@@ -13178,15 +13175,15 @@
     </row>
     <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="87" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="86" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B12" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="C12">
         <v>319</v>
@@ -13194,10 +13191,10 @@
     </row>
     <row r="13" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="87" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B13" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="C13">
         <v>319</v>
@@ -13205,10 +13202,10 @@
     </row>
     <row r="14" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="86" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="C14">
         <v>8784</v>
@@ -13216,10 +13213,10 @@
     </row>
     <row r="15" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="87" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B15" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C15">
         <v>6907</v>
@@ -13227,10 +13224,10 @@
     </row>
     <row r="16" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="86" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B16" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="C16">
         <v>8271</v>
@@ -13238,10 +13235,10 @@
     </row>
     <row r="17" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="87" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B17" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="C17">
         <v>1342</v>
@@ -13249,10 +13246,10 @@
     </row>
     <row r="18" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="86" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B18" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="C18">
         <v>1578</v>
@@ -13260,10 +13257,10 @@
     </row>
     <row r="19" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B19" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="C19">
         <v>3356</v>
@@ -13271,15 +13268,15 @@
     </row>
     <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="86" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B21" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="C21">
         <v>1002</v>
@@ -13287,10 +13284,10 @@
     </row>
     <row r="22" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="86" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B22" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="C22">
         <v>9671</v>
@@ -13298,10 +13295,10 @@
     </row>
     <row r="23" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="87" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B23" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="C23">
         <v>8594</v>
@@ -13309,10 +13306,10 @@
     </row>
     <row r="24" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="86" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B24" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="C24">
         <v>1918</v>
@@ -13320,7 +13317,7 @@
     </row>
     <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="87" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="C25" s="120">
         <v>9159</v>
@@ -13328,10 +13325,10 @@
     </row>
     <row r="26" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="86" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B26" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="C26">
         <v>6842</v>
@@ -13339,10 +13336,10 @@
     </row>
     <row r="27" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="87" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B27" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C27">
         <v>3273</v>
@@ -13350,21 +13347,21 @@
     </row>
     <row r="28" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B28" s="86" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C28" s="86" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="87" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B29" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="C29">
         <v>6798</v>
@@ -13372,21 +13369,21 @@
     </row>
     <row r="30" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B30" s="86" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="C30" s="86" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="87" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B31" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="C31">
         <v>5551</v>
@@ -13394,24 +13391,24 @@
     </row>
     <row r="32" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="86" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B32" s="89" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="C32" s="89" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D32" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="87" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="C33">
         <v>9116</v>
@@ -13419,15 +13416,15 @@
     </row>
     <row r="34" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="86" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="87" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B35" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="C35">
         <v>4444</v>
@@ -13435,7 +13432,7 @@
     </row>
     <row r="36" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="86" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="C36" s="115">
         <v>8697</v>
@@ -13443,26 +13440,26 @@
     </row>
     <row r="37" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="87" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B37" s="87" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C37" s="87" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="86" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="87" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B39" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="C39">
         <v>8651</v>
@@ -13470,15 +13467,15 @@
     </row>
     <row r="40" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="87" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B41" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="C41">
         <v>4100</v>
@@ -13486,15 +13483,15 @@
     </row>
     <row r="42" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="86" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="87" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B43" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="C43">
         <v>1076</v>
@@ -13502,15 +13499,15 @@
     </row>
     <row r="44" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="87" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B45" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="C45">
         <v>645</v>
@@ -13518,10 +13515,10 @@
     </row>
     <row r="46" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="86" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B46" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="C46">
         <v>2023089174</v>
@@ -13529,10 +13526,10 @@
     </row>
     <row r="47" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="87" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B47" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C47">
         <v>3490</v>
@@ -13540,25 +13537,25 @@
     </row>
     <row r="48" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="86" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="87" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="86" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="87" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B51" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="C51">
         <v>8571</v>
@@ -13566,10 +13563,10 @@
     </row>
     <row r="52" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="86" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="B52" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="C52">
         <v>192</v>
@@ -13577,15 +13574,15 @@
     </row>
     <row r="53" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="87" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="86" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B54" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="C54">
         <v>8385</v>
@@ -13593,25 +13590,25 @@
     </row>
     <row r="55" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="87" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="86" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="86" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="B58" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="C58">
         <v>7186</v>
@@ -13619,10 +13616,10 @@
     </row>
     <row r="59" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="87" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B59" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="C59">
         <v>8271</v>
@@ -13630,20 +13627,20 @@
     </row>
     <row r="60" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="86" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="87" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="86" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="B62" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="C62">
         <v>7053</v>
@@ -13651,15 +13648,15 @@
     </row>
     <row r="63" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="87" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="86" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="B64" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="C64">
         <v>2868</v>
@@ -13667,10 +13664,10 @@
     </row>
     <row r="65" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="87" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="B65" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="C65">
         <v>6208</v>
@@ -13678,15 +13675,15 @@
     </row>
     <row r="66" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A66" s="86" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="67" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="87" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B67" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="C67">
         <v>9708</v>
@@ -13694,10 +13691,10 @@
     </row>
     <row r="68" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="86" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="B68" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="C68">
         <v>8724</v>
@@ -13705,10 +13702,10 @@
     </row>
     <row r="69" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="87" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B69" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="C69">
         <v>6366</v>
@@ -13716,15 +13713,15 @@
     </row>
     <row r="70" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A70" s="86" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="71" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="87" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="B71" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="C71">
         <v>8560</v>
@@ -13732,15 +13729,15 @@
     </row>
     <row r="72" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A72" s="86" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="87" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="B73" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="C73">
         <v>2159</v>
@@ -13748,10 +13745,10 @@
     </row>
     <row r="74" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="86" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="B74" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="C74">
         <v>8819</v>
@@ -13759,10 +13756,10 @@
     </row>
     <row r="75" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="87" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B75" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="C75">
         <v>8182</v>
@@ -13770,10 +13767,10 @@
     </row>
     <row r="76" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="86" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B76" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="C76">
         <v>1680526730728</v>
@@ -13781,10 +13778,10 @@
     </row>
     <row r="77" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="87" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="B77" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="C77">
         <v>8437</v>
@@ -13792,10 +13789,10 @@
     </row>
     <row r="78" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="86" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="B78" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
       <c r="C78">
         <v>6701</v>
@@ -13803,19 +13800,19 @@
     </row>
     <row r="79" spans="1:4" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="87" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="C79" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="D79" s="101"/>
     </row>
     <row r="80" spans="1:4" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="86" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="B80" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="C80">
         <v>5209</v>
@@ -13826,18 +13823,18 @@
     </row>
     <row r="81" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A81" s="87" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="B81" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C81" s="86" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="82" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A82" s="86" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="C82" s="120">
         <v>5027</v>
@@ -13845,50 +13842,50 @@
     </row>
     <row r="83" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A83" s="87" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="84" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="86" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="85" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A85" s="87" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="86" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="86" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="87" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="87" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A88" s="86" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="87" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="86" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="87" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B91" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="C91">
         <v>2375</v>
@@ -13896,15 +13893,15 @@
     </row>
     <row r="92" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="86" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="87" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B93" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="C93">
         <v>4414</v>
@@ -13912,10 +13909,10 @@
     </row>
     <row r="94" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="86" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="B94" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="C94">
         <v>1680761732555</v>
@@ -13923,25 +13920,25 @@
     </row>
     <row r="95" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A95" s="87" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A96" s="86" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A97" s="87" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="86" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="B98" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="C98">
         <v>456</v>
@@ -13949,10 +13946,10 @@
     </row>
     <row r="99" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="87" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B99" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="C99">
         <v>6322</v>
@@ -13960,10 +13957,10 @@
     </row>
     <row r="100" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="86" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="B100" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="C100">
         <v>988</v>
@@ -13971,15 +13968,15 @@
     </row>
     <row r="101" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A101" s="87" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="17" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="86" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="B102" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="C102">
         <v>5823</v>
@@ -13987,17 +13984,17 @@
     </row>
     <row r="103" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A103" s="87" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A104" s="86" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A105" s="87" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="C105" s="120">
         <v>1931</v>
@@ -14005,17 +14002,17 @@
     </row>
     <row r="106" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A106" s="86" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A107" s="87" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="17" x14ac:dyDescent="0.2">
       <c r="A108" s="86" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
   </sheetData>

--- a/docs/static/file/ICHI2023_Agenda.xlsx
+++ b/docs/static/file/ICHI2023_Agenda.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tqy/Downloads/Myfile/tamu/Conference/ICHK2023/static/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DCA057B-B502-414A-B446-8BAA7FF31323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F0D2C3-37C4-FF44-BF2E-518A20FD8813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19460" activeTab="1" xr2:uid="{9453136C-4E04-42AD-A8C8-785C6DA6A7FC}"/>
   </bookViews>
@@ -3288,6 +3288,21 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -3295,55 +3310,40 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -3690,10 +3690,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24" x14ac:dyDescent="0.2">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="161" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="163"/>
+      <c r="B1" s="161"/>
       <c r="I1" s="22" t="s">
         <v>21</v>
       </c>
@@ -3740,14 +3740,14 @@
       <c r="B4" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C4" s="161" t="s">
+      <c r="C4" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="D4" s="161"/>
-      <c r="E4" s="161"/>
-      <c r="F4" s="161"/>
-      <c r="G4" s="161"/>
-      <c r="H4" s="161"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
       <c r="I4" s="24" t="s">
         <v>233</v>
       </c>
@@ -3760,14 +3760,14 @@
       <c r="B5" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C5" s="161" t="s">
+      <c r="C5" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="D5" s="161"/>
-      <c r="E5" s="161"/>
-      <c r="F5" s="161"/>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
+      <c r="D5" s="159"/>
+      <c r="E5" s="159"/>
+      <c r="F5" s="159"/>
+      <c r="G5" s="159"/>
+      <c r="H5" s="159"/>
       <c r="I5" s="24" t="s">
         <v>235</v>
       </c>
@@ -3805,14 +3805,14 @@
       <c r="B7" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C7" s="161" t="s">
+      <c r="C7" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="D7" s="161"/>
-      <c r="E7" s="161"/>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
+      <c r="D7" s="159"/>
+      <c r="E7" s="159"/>
+      <c r="F7" s="159"/>
+      <c r="G7" s="159"/>
+      <c r="H7" s="159"/>
       <c r="I7" s="24" t="s">
         <v>237</v>
       </c>
@@ -3855,14 +3855,14 @@
       <c r="B9" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C9" s="161" t="s">
+      <c r="C9" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="D9" s="161"/>
-      <c r="E9" s="161"/>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
+      <c r="D9" s="159"/>
+      <c r="E9" s="159"/>
+      <c r="F9" s="159"/>
+      <c r="G9" s="159"/>
+      <c r="H9" s="159"/>
       <c r="I9" s="25"/>
       <c r="J9" s="8"/>
       <c r="K9" s="14"/>
@@ -3902,14 +3902,14 @@
       <c r="B11" s="4">
         <v>0.61805555555555558</v>
       </c>
-      <c r="C11" s="161" t="s">
+      <c r="C11" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="161"/>
-      <c r="E11" s="161"/>
-      <c r="F11" s="161"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
+      <c r="D11" s="159"/>
+      <c r="E11" s="159"/>
+      <c r="F11" s="159"/>
+      <c r="G11" s="159"/>
+      <c r="H11" s="159"/>
       <c r="I11" s="25"/>
       <c r="J11" s="12"/>
       <c r="K11" s="14"/>
@@ -3992,14 +3992,14 @@
       <c r="B16" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C16" s="161" t="s">
+      <c r="C16" s="159" t="s">
         <v>229</v>
       </c>
-      <c r="D16" s="161"/>
-      <c r="E16" s="161"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="161"/>
-      <c r="H16" s="161"/>
+      <c r="D16" s="159"/>
+      <c r="E16" s="159"/>
+      <c r="F16" s="159"/>
+      <c r="G16" s="159"/>
+      <c r="H16" s="159"/>
       <c r="I16" s="25" t="s">
         <v>243</v>
       </c>
@@ -4011,14 +4011,14 @@
       <c r="B17" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C17" s="161" t="s">
+      <c r="C17" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
+      <c r="D17" s="159"/>
+      <c r="E17" s="159"/>
+      <c r="F17" s="159"/>
+      <c r="G17" s="159"/>
+      <c r="H17" s="159"/>
     </row>
     <row r="18" spans="1:14" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
@@ -4057,14 +4057,14 @@
       <c r="B19" s="4">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C19" s="161" t="s">
+      <c r="C19" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
+      <c r="D19" s="159"/>
+      <c r="E19" s="159"/>
+      <c r="F19" s="159"/>
+      <c r="G19" s="159"/>
+      <c r="H19" s="159"/>
       <c r="I19" s="22"/>
       <c r="J19" s="12"/>
       <c r="K19" s="15"/>
@@ -4109,14 +4109,14 @@
       <c r="B21" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C21" s="161" t="s">
+      <c r="C21" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
+      <c r="D21" s="159"/>
+      <c r="E21" s="159"/>
+      <c r="F21" s="159"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
       <c r="I21" s="22"/>
       <c r="J21" s="12"/>
       <c r="K21" s="15"/>
@@ -4131,14 +4131,14 @@
       <c r="B22" s="6">
         <v>0.55555555555555558</v>
       </c>
-      <c r="C22" s="162" t="s">
+      <c r="C22" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="162"/>
-      <c r="E22" s="162"/>
-      <c r="F22" s="162"/>
-      <c r="G22" s="162"/>
-      <c r="H22" s="162"/>
+      <c r="D22" s="160"/>
+      <c r="E22" s="160"/>
+      <c r="F22" s="160"/>
+      <c r="G22" s="160"/>
+      <c r="H22" s="160"/>
       <c r="I22" s="22"/>
       <c r="J22" s="12"/>
       <c r="K22" s="15"/>
@@ -4153,14 +4153,14 @@
       <c r="B23" s="6">
         <v>0.59375</v>
       </c>
-      <c r="C23" s="162" t="s">
+      <c r="C23" s="160" t="s">
         <v>781</v>
       </c>
-      <c r="D23" s="162"/>
-      <c r="E23" s="162"/>
-      <c r="F23" s="162"/>
-      <c r="G23" s="162"/>
-      <c r="H23" s="162"/>
+      <c r="D23" s="160"/>
+      <c r="E23" s="160"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
     </row>
     <row r="24" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
@@ -4169,14 +4169,14 @@
       <c r="B24" s="4">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C24" s="161" t="s">
+      <c r="C24" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
+      <c r="D24" s="159"/>
+      <c r="E24" s="159"/>
+      <c r="F24" s="159"/>
+      <c r="G24" s="159"/>
+      <c r="H24" s="159"/>
     </row>
     <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="11">
@@ -4205,14 +4205,14 @@
       <c r="B26" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C26" s="162" t="s">
+      <c r="C26" s="160" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
       <c r="I26" s="22"/>
       <c r="J26" s="12"/>
       <c r="K26" s="15"/>
@@ -4227,14 +4227,14 @@
       <c r="B27" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C27" s="161" t="s">
+      <c r="C27" s="159" t="s">
         <v>780</v>
       </c>
-      <c r="D27" s="161"/>
-      <c r="E27" s="161"/>
-      <c r="F27" s="161"/>
-      <c r="G27" s="161"/>
-      <c r="H27" s="161"/>
+      <c r="D27" s="159"/>
+      <c r="E27" s="159"/>
+      <c r="F27" s="159"/>
+      <c r="G27" s="159"/>
+      <c r="H27" s="159"/>
     </row>
     <row r="29" spans="1:14" ht="24" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
@@ -4268,11 +4268,11 @@
       <c r="B32" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C32" s="161" t="s">
+      <c r="C32" s="159" t="s">
         <v>230</v>
       </c>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
       <c r="F32" s="16"/>
       <c r="G32" s="16"/>
       <c r="H32" s="16"/>
@@ -4284,11 +4284,11 @@
       <c r="B33" s="4">
         <v>0.35416666666666669</v>
       </c>
-      <c r="C33" s="161" t="s">
+      <c r="C33" s="159" t="s">
         <v>223</v>
       </c>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
+      <c r="D33" s="159"/>
+      <c r="E33" s="159"/>
       <c r="F33" s="16"/>
       <c r="G33" s="16"/>
       <c r="H33" s="16"/>
@@ -4300,11 +4300,11 @@
       <c r="B34" s="6">
         <v>0.36458333333333331</v>
       </c>
-      <c r="C34" s="164" t="s">
+      <c r="C34" s="158" t="s">
         <v>7</v>
       </c>
-      <c r="D34" s="164"/>
-      <c r="E34" s="164"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="158"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17"/>
@@ -4316,11 +4316,11 @@
       <c r="B35" s="6">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C35" s="162" t="s">
+      <c r="C35" s="160" t="s">
         <v>782</v>
       </c>
-      <c r="D35" s="162"/>
-      <c r="E35" s="162"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
       <c r="H35" s="17"/>
@@ -4332,11 +4332,11 @@
       <c r="B36" s="4">
         <v>0.4375</v>
       </c>
-      <c r="C36" s="161" t="s">
+      <c r="C36" s="159" t="s">
         <v>224</v>
       </c>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
+      <c r="D36" s="159"/>
+      <c r="E36" s="159"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
@@ -4368,11 +4368,11 @@
       <c r="B38" s="4">
         <v>0.54166666666666663</v>
       </c>
-      <c r="C38" s="161" t="s">
+      <c r="C38" s="159" t="s">
         <v>225</v>
       </c>
-      <c r="D38" s="161"/>
-      <c r="E38" s="161"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
       <c r="F38" s="16"/>
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
@@ -4404,20 +4404,20 @@
       <c r="B40" s="4">
         <v>0.625</v>
       </c>
-      <c r="C40" s="161" t="s">
+      <c r="C40" s="159" t="s">
         <v>226</v>
       </c>
-      <c r="D40" s="161"/>
-      <c r="E40" s="161"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
     </row>
     <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
-      <c r="A41" s="158">
+      <c r="A41" s="163">
         <v>0.625</v>
       </c>
-      <c r="B41" s="158">
+      <c r="B41" s="163">
         <v>0.6875</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -4433,13 +4433,13 @@
       <c r="H41" s="19"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="158"/>
-      <c r="B42" s="158"/>
-      <c r="C42" s="162" t="s">
+      <c r="A42" s="163"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="160" t="s">
         <v>786</v>
       </c>
-      <c r="D42" s="162"/>
-      <c r="E42" s="162"/>
+      <c r="D42" s="160"/>
+      <c r="E42" s="160"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
     </row>
@@ -4450,11 +4450,11 @@
       <c r="B43" s="6">
         <v>0.72916666666666663</v>
       </c>
-      <c r="C43" s="162" t="s">
+      <c r="C43" s="160" t="s">
         <v>559</v>
       </c>
-      <c r="D43" s="162"/>
-      <c r="E43" s="162"/>
+      <c r="D43" s="160"/>
+      <c r="E43" s="160"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
@@ -4466,11 +4466,11 @@
       <c r="B44" s="4">
         <v>0.83333333333333337</v>
       </c>
-      <c r="C44" s="161" t="s">
+      <c r="C44" s="159" t="s">
         <v>227</v>
       </c>
-      <c r="D44" s="161"/>
-      <c r="E44" s="161"/>
+      <c r="D44" s="159"/>
+      <c r="E44" s="159"/>
       <c r="F44" s="16"/>
       <c r="G44" s="16"/>
       <c r="H44" s="16"/>
@@ -4652,12 +4652,12 @@
     <row r="57" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="161"/>
-      <c r="D57" s="161"/>
-      <c r="E57" s="161"/>
-      <c r="F57" s="161"/>
-      <c r="G57" s="161"/>
-      <c r="H57" s="161"/>
+      <c r="C57" s="159"/>
+      <c r="D57" s="159"/>
+      <c r="E57" s="159"/>
+      <c r="F57" s="159"/>
+      <c r="G57" s="159"/>
+      <c r="H57" s="159"/>
       <c r="I57" s="22"/>
       <c r="J57" s="12"/>
       <c r="K57" s="13"/>
@@ -4684,12 +4684,12 @@
     <row r="59" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="C59" s="162"/>
-      <c r="D59" s="162"/>
-      <c r="E59" s="162"/>
-      <c r="F59" s="162"/>
-      <c r="G59" s="162"/>
-      <c r="H59" s="162"/>
+      <c r="C59" s="160"/>
+      <c r="D59" s="160"/>
+      <c r="E59" s="160"/>
+      <c r="F59" s="160"/>
+      <c r="G59" s="160"/>
+      <c r="H59" s="160"/>
       <c r="I59" s="22"/>
       <c r="J59" s="12"/>
       <c r="K59" s="13"/>
@@ -4700,12 +4700,12 @@
     <row r="60" spans="1:14" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
+      <c r="C60" s="159"/>
+      <c r="D60" s="159"/>
+      <c r="E60" s="159"/>
+      <c r="F60" s="159"/>
+      <c r="G60" s="159"/>
+      <c r="H60" s="159"/>
       <c r="I60" s="22"/>
       <c r="J60" s="12"/>
       <c r="K60" s="13"/>
@@ -4732,9 +4732,9 @@
     <row r="62" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
-      <c r="C62" s="160"/>
-      <c r="D62" s="160"/>
-      <c r="E62" s="160"/>
+      <c r="C62" s="162"/>
+      <c r="D62" s="162"/>
+      <c r="E62" s="162"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
@@ -4748,9 +4748,9 @@
     <row r="63" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
-      <c r="C63" s="160"/>
-      <c r="D63" s="160"/>
-      <c r="E63" s="160"/>
+      <c r="C63" s="162"/>
+      <c r="D63" s="162"/>
+      <c r="E63" s="162"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
@@ -4764,9 +4764,9 @@
     <row r="64" spans="1:14" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="18"/>
       <c r="B64" s="18"/>
-      <c r="C64" s="160"/>
-      <c r="D64" s="160"/>
-      <c r="E64" s="160"/>
+      <c r="C64" s="162"/>
+      <c r="D64" s="162"/>
+      <c r="E64" s="162"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
@@ -4780,9 +4780,9 @@
     <row r="65" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
-      <c r="C65" s="160"/>
-      <c r="D65" s="160"/>
-      <c r="E65" s="160"/>
+      <c r="C65" s="162"/>
+      <c r="D65" s="162"/>
+      <c r="E65" s="162"/>
       <c r="I65" s="22"/>
       <c r="J65" s="12"/>
       <c r="K65" s="13"/>
@@ -4793,9 +4793,9 @@
     <row r="66" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="18"/>
       <c r="B66" s="18"/>
-      <c r="C66" s="160"/>
-      <c r="D66" s="160"/>
-      <c r="E66" s="160"/>
+      <c r="C66" s="162"/>
+      <c r="D66" s="162"/>
+      <c r="E66" s="162"/>
       <c r="I66" s="22"/>
       <c r="J66" s="12"/>
       <c r="K66" s="13"/>
@@ -4806,9 +4806,9 @@
     <row r="67" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="18"/>
       <c r="B67" s="18"/>
-      <c r="C67" s="160"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="160"/>
+      <c r="C67" s="162"/>
+      <c r="D67" s="162"/>
+      <c r="E67" s="162"/>
       <c r="I67" s="22"/>
       <c r="J67" s="12"/>
       <c r="K67" s="13"/>
@@ -4819,9 +4819,9 @@
     <row r="68" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
-      <c r="C68" s="160"/>
-      <c r="D68" s="160"/>
-      <c r="E68" s="160"/>
+      <c r="C68" s="162"/>
+      <c r="D68" s="162"/>
+      <c r="E68" s="162"/>
       <c r="I68" s="22"/>
       <c r="J68" s="12"/>
       <c r="K68" s="13"/>
@@ -4832,9 +4832,9 @@
     <row r="69" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="18"/>
       <c r="B69" s="18"/>
-      <c r="C69" s="160"/>
-      <c r="D69" s="160"/>
-      <c r="E69" s="160"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="162"/>
       <c r="I69" s="22"/>
       <c r="J69" s="12"/>
       <c r="K69" s="13"/>
@@ -4845,9 +4845,9 @@
     <row r="70" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
-      <c r="C70" s="160"/>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
+      <c r="C70" s="162"/>
+      <c r="D70" s="162"/>
+      <c r="E70" s="162"/>
       <c r="I70" s="22"/>
       <c r="J70" s="12"/>
       <c r="K70" s="13"/>
@@ -4856,11 +4856,11 @@
       <c r="N70" s="13"/>
     </row>
     <row r="71" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="159"/>
-      <c r="B71" s="159"/>
-      <c r="C71" s="159"/>
-      <c r="D71" s="159"/>
-      <c r="E71" s="159"/>
+      <c r="A71" s="164"/>
+      <c r="B71" s="164"/>
+      <c r="C71" s="164"/>
+      <c r="D71" s="164"/>
+      <c r="E71" s="164"/>
       <c r="I71" s="22"/>
       <c r="J71" s="12"/>
       <c r="K71" s="13"/>
@@ -4871,9 +4871,9 @@
     <row r="72" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="18"/>
       <c r="B72" s="18"/>
-      <c r="C72" s="160"/>
-      <c r="D72" s="160"/>
-      <c r="E72" s="160"/>
+      <c r="C72" s="162"/>
+      <c r="D72" s="162"/>
+      <c r="E72" s="162"/>
       <c r="I72" s="22"/>
       <c r="J72" s="12"/>
       <c r="K72" s="13"/>
@@ -4884,9 +4884,9 @@
     <row r="73" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
-      <c r="C73" s="160"/>
-      <c r="D73" s="160"/>
-      <c r="E73" s="160"/>
+      <c r="C73" s="162"/>
+      <c r="D73" s="162"/>
+      <c r="E73" s="162"/>
       <c r="I73" s="22"/>
       <c r="J73" s="12"/>
       <c r="K73" s="13"/>
@@ -4897,9 +4897,9 @@
     <row r="74" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="18"/>
       <c r="B74" s="18"/>
-      <c r="C74" s="160"/>
-      <c r="D74" s="160"/>
-      <c r="E74" s="160"/>
+      <c r="C74" s="162"/>
+      <c r="D74" s="162"/>
+      <c r="E74" s="162"/>
       <c r="I74" s="22"/>
       <c r="J74" s="12"/>
       <c r="K74" s="13"/>
@@ -4909,6 +4909,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A71:E71"/>
+    <mergeCell ref="C72:E72"/>
+    <mergeCell ref="C73:E73"/>
+    <mergeCell ref="C64:E64"/>
+    <mergeCell ref="C44:E44"/>
+    <mergeCell ref="C57:H57"/>
+    <mergeCell ref="C59:H59"/>
+    <mergeCell ref="C60:H60"/>
+    <mergeCell ref="C62:E62"/>
+    <mergeCell ref="C63:E63"/>
+    <mergeCell ref="C74:E74"/>
+    <mergeCell ref="C65:E65"/>
+    <mergeCell ref="C66:E66"/>
+    <mergeCell ref="C67:E67"/>
+    <mergeCell ref="C68:E68"/>
+    <mergeCell ref="C69:E69"/>
+    <mergeCell ref="C70:E70"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="C43:E43"/>
+    <mergeCell ref="C42:E42"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C9:H9"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="C16:H16"/>
     <mergeCell ref="C17:H17"/>
@@ -4921,37 +4952,6 @@
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="C43:E43"/>
-    <mergeCell ref="C42:E42"/>
-    <mergeCell ref="C74:E74"/>
-    <mergeCell ref="C65:E65"/>
-    <mergeCell ref="C66:E66"/>
-    <mergeCell ref="C67:E67"/>
-    <mergeCell ref="C68:E68"/>
-    <mergeCell ref="C69:E69"/>
-    <mergeCell ref="C70:E70"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A71:E71"/>
-    <mergeCell ref="C72:E72"/>
-    <mergeCell ref="C73:E73"/>
-    <mergeCell ref="C64:E64"/>
-    <mergeCell ref="C44:E44"/>
-    <mergeCell ref="C57:H57"/>
-    <mergeCell ref="C59:H59"/>
-    <mergeCell ref="C60:H60"/>
-    <mergeCell ref="C62:E62"/>
-    <mergeCell ref="C63:E63"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4962,8 +4962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAA6AD37-6DFC-4503-945F-15A2E3AF42B9}">
   <dimension ref="A1:U235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="143" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="143" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5054,13 +5054,13 @@
       <c r="H4" s="46"/>
     </row>
     <row r="7" spans="1:15" s="47" customFormat="1" ht="46.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="166" t="s">
+      <c r="A7" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
       <c r="G7" s="79"/>
       <c r="J7" s="97"/>
     </row>
@@ -5108,13 +5108,13 @@
       <c r="O8" s="50"/>
     </row>
     <row r="9" spans="1:15" s="74" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="176">
+      <c r="A9" s="166">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B9" s="176">
+      <c r="B9" s="166">
         <v>0.6875</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="167" t="s">
         <v>256</v>
       </c>
       <c r="D9" s="73">
@@ -5129,7 +5129,7 @@
       <c r="G9" s="72" t="s">
         <v>450</v>
       </c>
-      <c r="I9" s="175" t="s">
+      <c r="I9" s="167" t="s">
         <v>461</v>
       </c>
       <c r="J9" s="99"/>
@@ -5139,9 +5139,9 @@
       <c r="N9" s="72"/>
     </row>
     <row r="10" spans="1:15" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A10" s="176"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="175"/>
+      <c r="A10" s="166"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="41"/>
       <c r="E10" s="41"/>
       <c r="F10" s="41"/>
@@ -5151,7 +5151,7 @@
       <c r="H10" s="127" t="s">
         <v>484</v>
       </c>
-      <c r="I10" s="175"/>
+      <c r="I10" s="167"/>
       <c r="J10" s="100">
         <v>971</v>
       </c>
@@ -5167,9 +5167,9 @@
       <c r="O10" s="50"/>
     </row>
     <row r="11" spans="1:15" s="40" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="176"/>
-      <c r="B11" s="176"/>
-      <c r="C11" s="175"/>
+      <c r="A11" s="166"/>
+      <c r="B11" s="166"/>
+      <c r="C11" s="167"/>
       <c r="D11" s="41"/>
       <c r="E11" s="41"/>
       <c r="F11" s="41"/>
@@ -5179,7 +5179,7 @@
       <c r="H11" s="149" t="s">
         <v>485</v>
       </c>
-      <c r="I11" s="175"/>
+      <c r="I11" s="167"/>
       <c r="J11" s="116">
         <v>7543</v>
       </c>
@@ -5192,9 +5192,9 @@
       <c r="O11" s="50"/>
     </row>
     <row r="12" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="176"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="175"/>
+      <c r="A12" s="166"/>
+      <c r="B12" s="166"/>
+      <c r="C12" s="167"/>
       <c r="D12" s="41"/>
       <c r="E12" s="41"/>
       <c r="F12" s="41"/>
@@ -5204,7 +5204,7 @@
       <c r="H12" s="149" t="s">
         <v>466</v>
       </c>
-      <c r="I12" s="175"/>
+      <c r="I12" s="167"/>
       <c r="J12" s="116">
         <v>2720</v>
       </c>
@@ -5217,9 +5217,9 @@
       <c r="O12" s="50"/>
     </row>
     <row r="13" spans="1:15" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A13" s="176"/>
-      <c r="B13" s="176"/>
-      <c r="C13" s="175"/>
+      <c r="A13" s="166"/>
+      <c r="B13" s="166"/>
+      <c r="C13" s="167"/>
       <c r="D13" s="41"/>
       <c r="E13" s="41"/>
       <c r="F13" s="41"/>
@@ -5229,7 +5229,7 @@
       <c r="H13" s="127" t="s">
         <v>486</v>
       </c>
-      <c r="I13" s="175"/>
+      <c r="I13" s="167"/>
       <c r="J13" s="100">
         <v>6008</v>
       </c>
@@ -5245,9 +5245,9 @@
       <c r="O13" s="50"/>
     </row>
     <row r="14" spans="1:15" s="40" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A14" s="176"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="175"/>
+      <c r="A14" s="166"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167"/>
       <c r="D14" s="41"/>
       <c r="E14" s="41"/>
       <c r="F14" s="41"/>
@@ -5257,7 +5257,7 @@
       <c r="H14" s="149" t="s">
         <v>487</v>
       </c>
-      <c r="I14" s="175"/>
+      <c r="I14" s="167"/>
       <c r="J14" s="116">
         <v>2258</v>
       </c>
@@ -5270,9 +5270,9 @@
       <c r="O14" s="50"/>
     </row>
     <row r="15" spans="1:15" s="40" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A15" s="176"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="175"/>
+      <c r="A15" s="166"/>
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
       <c r="D15" s="41"/>
       <c r="E15" s="41"/>
       <c r="F15" s="41"/>
@@ -5282,7 +5282,7 @@
       <c r="H15" s="127" t="s">
         <v>775</v>
       </c>
-      <c r="I15" s="175"/>
+      <c r="I15" s="167"/>
       <c r="J15" s="100">
         <v>8697</v>
       </c>
@@ -5297,9 +5297,9 @@
       <c r="O15" s="50"/>
     </row>
     <row r="16" spans="1:15" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16" s="176"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="175"/>
+      <c r="A16" s="166"/>
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
       <c r="D16" s="41"/>
       <c r="E16" s="41"/>
       <c r="F16" s="41"/>
@@ -5309,7 +5309,7 @@
       <c r="H16" s="127" t="s">
         <v>488</v>
       </c>
-      <c r="I16" s="175"/>
+      <c r="I16" s="167"/>
       <c r="J16" s="100">
         <v>235</v>
       </c>
@@ -5324,9 +5324,9 @@
       <c r="O16" s="50"/>
     </row>
     <row r="17" spans="1:15" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A17" s="176"/>
-      <c r="B17" s="176"/>
-      <c r="C17" s="175"/>
+      <c r="A17" s="166"/>
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
       <c r="D17" s="41"/>
       <c r="E17" s="41"/>
       <c r="F17" s="41"/>
@@ -5336,7 +5336,7 @@
       <c r="H17" s="127" t="s">
         <v>489</v>
       </c>
-      <c r="I17" s="175"/>
+      <c r="I17" s="167"/>
       <c r="J17" s="100">
         <v>4012</v>
       </c>
@@ -5352,9 +5352,9 @@
       <c r="O17" s="50"/>
     </row>
     <row r="18" spans="1:15" s="40" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="176"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="175"/>
+      <c r="A18" s="166"/>
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
       <c r="D18" s="41"/>
       <c r="E18" s="41"/>
       <c r="F18" s="41"/>
@@ -5364,7 +5364,7 @@
       <c r="H18" s="127" t="s">
         <v>490</v>
       </c>
-      <c r="I18" s="175"/>
+      <c r="I18" s="167"/>
       <c r="J18" s="100">
         <v>3520</v>
       </c>
@@ -5380,9 +5380,9 @@
       <c r="O18" s="50"/>
     </row>
     <row r="19" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A19" s="176"/>
-      <c r="B19" s="176"/>
-      <c r="C19" s="175"/>
+      <c r="A19" s="166"/>
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
       <c r="D19" s="41"/>
       <c r="E19" s="41"/>
       <c r="F19" s="41"/>
@@ -5392,7 +5392,7 @@
       <c r="H19" s="127" t="s">
         <v>491</v>
       </c>
-      <c r="I19" s="175"/>
+      <c r="I19" s="167"/>
       <c r="J19" s="100">
         <v>9057</v>
       </c>
@@ -5407,9 +5407,9 @@
       <c r="O19" s="50"/>
     </row>
     <row r="20" spans="1:15" s="40" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="175"/>
+      <c r="A20" s="166"/>
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
       <c r="D20" s="41"/>
       <c r="E20" s="41"/>
       <c r="F20" s="41"/>
@@ -5419,7 +5419,7 @@
       <c r="H20" s="127" t="s">
         <v>492</v>
       </c>
-      <c r="I20" s="175"/>
+      <c r="I20" s="167"/>
       <c r="J20" s="100">
         <v>5185</v>
       </c>
@@ -5434,9 +5434,9 @@
       <c r="O20" s="50"/>
     </row>
     <row r="21" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="176"/>
-      <c r="B21" s="176"/>
-      <c r="C21" s="175"/>
+      <c r="A21" s="166"/>
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
       <c r="D21" s="41"/>
       <c r="E21" s="41"/>
       <c r="F21" s="41"/>
@@ -5451,13 +5451,13 @@
       <c r="O21" s="50"/>
     </row>
     <row r="22" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="176">
+      <c r="A22" s="166">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B22" s="176">
+      <c r="B22" s="166">
         <v>0.6875</v>
       </c>
-      <c r="C22" s="175" t="s">
+      <c r="C22" s="167" t="s">
         <v>258</v>
       </c>
       <c r="D22" s="73">
@@ -5473,7 +5473,7 @@
         <v>460</v>
       </c>
       <c r="H22" s="74"/>
-      <c r="I22" s="175" t="s">
+      <c r="I22" s="167" t="s">
         <v>369</v>
       </c>
       <c r="J22" s="98"/>
@@ -5481,9 +5481,9 @@
       <c r="N22" s="52"/>
     </row>
     <row r="23" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="176"/>
-      <c r="B23" s="176"/>
-      <c r="C23" s="175"/>
+      <c r="A23" s="166"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
       <c r="D23" s="73"/>
       <c r="E23" s="73"/>
       <c r="F23" s="72"/>
@@ -5494,7 +5494,7 @@
         <f>LEFT(K23, SEARCH(",",K23,1)-1)</f>
         <v>Vincent Major</v>
       </c>
-      <c r="I23" s="175"/>
+      <c r="I23" s="167"/>
       <c r="J23" s="101">
         <v>4936</v>
       </c>
@@ -5504,9 +5504,9 @@
       <c r="N23" s="52"/>
     </row>
     <row r="24" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A24" s="176"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="175"/>
+      <c r="A24" s="166"/>
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
       <c r="D24" s="73"/>
       <c r="E24" s="73"/>
       <c r="F24" s="72"/>
@@ -5517,7 +5517,7 @@
         <f t="shared" ref="H24:H33" si="0">LEFT(K24, SEARCH(",",K24,1)-1)</f>
         <v>Sahaja Ratna</v>
       </c>
-      <c r="I24" s="175"/>
+      <c r="I24" s="167"/>
       <c r="J24" s="101">
         <v>3196</v>
       </c>
@@ -5532,9 +5532,9 @@
       </c>
     </row>
     <row r="25" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="176"/>
-      <c r="B25" s="176"/>
-      <c r="C25" s="175"/>
+      <c r="A25" s="166"/>
+      <c r="B25" s="166"/>
+      <c r="C25" s="167"/>
       <c r="D25" s="73"/>
       <c r="E25" s="73"/>
       <c r="F25" s="72"/>
@@ -5545,7 +5545,7 @@
         <f t="shared" si="0"/>
         <v>Jay Patel</v>
       </c>
-      <c r="I25" s="175"/>
+      <c r="I25" s="167"/>
       <c r="J25" s="101">
         <v>2056</v>
       </c>
@@ -5555,9 +5555,9 @@
       <c r="N25" s="52"/>
     </row>
     <row r="26" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A26" s="176"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="175"/>
+      <c r="A26" s="166"/>
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
       <c r="D26" s="73"/>
       <c r="E26" s="73"/>
       <c r="F26" s="72"/>
@@ -5568,7 +5568,7 @@
         <f t="shared" si="0"/>
         <v>Toufeeq Ahmed</v>
       </c>
-      <c r="I26" s="175"/>
+      <c r="I26" s="167"/>
       <c r="J26" s="101">
         <v>3866</v>
       </c>
@@ -5578,9 +5578,9 @@
       <c r="N26" s="52"/>
     </row>
     <row r="27" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="176"/>
-      <c r="B27" s="176"/>
-      <c r="C27" s="175"/>
+      <c r="A27" s="166"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
       <c r="D27" s="73"/>
       <c r="E27" s="73"/>
       <c r="F27" s="72"/>
@@ -5591,7 +5591,7 @@
         <f t="shared" si="0"/>
         <v>Rob Quick</v>
       </c>
-      <c r="I27" s="175"/>
+      <c r="I27" s="167"/>
       <c r="J27" s="101">
         <v>4836</v>
       </c>
@@ -5601,9 +5601,9 @@
       <c r="N27" s="52"/>
     </row>
     <row r="28" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="176"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="175"/>
+      <c r="A28" s="166"/>
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
       <c r="D28" s="73"/>
       <c r="E28" s="73"/>
       <c r="F28" s="72"/>
@@ -5614,7 +5614,7 @@
         <f t="shared" si="0"/>
         <v>Duo Helen Wei</v>
       </c>
-      <c r="I28" s="175"/>
+      <c r="I28" s="167"/>
       <c r="J28" s="101">
         <v>7958</v>
       </c>
@@ -5624,9 +5624,9 @@
       <c r="N28" s="52"/>
     </row>
     <row r="29" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A29" s="176"/>
-      <c r="B29" s="176"/>
-      <c r="C29" s="175"/>
+      <c r="A29" s="166"/>
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
       <c r="D29" s="73"/>
       <c r="E29" s="73"/>
       <c r="F29" s="72"/>
@@ -5637,7 +5637,7 @@
         <f t="shared" si="0"/>
         <v>Bari Dzomba</v>
       </c>
-      <c r="I29" s="175"/>
+      <c r="I29" s="167"/>
       <c r="J29" s="101">
         <v>779</v>
       </c>
@@ -5647,9 +5647,9 @@
       <c r="N29" s="52"/>
     </row>
     <row r="30" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A30" s="176"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="175"/>
+      <c r="A30" s="166"/>
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
       <c r="D30" s="73"/>
       <c r="E30" s="73"/>
       <c r="F30" s="72"/>
@@ -5660,7 +5660,7 @@
         <f t="shared" si="0"/>
         <v>Hua Min</v>
       </c>
-      <c r="I30" s="175"/>
+      <c r="I30" s="167"/>
       <c r="J30" s="151">
         <v>1813</v>
       </c>
@@ -5670,9 +5670,9 @@
       <c r="N30" s="52"/>
     </row>
     <row r="31" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A31" s="176"/>
-      <c r="B31" s="176"/>
-      <c r="C31" s="175"/>
+      <c r="A31" s="166"/>
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
       <c r="D31" s="73"/>
       <c r="E31" s="73"/>
       <c r="F31" s="72"/>
@@ -5683,7 +5683,7 @@
         <f t="shared" si="0"/>
         <v>Sripriya Rajamani</v>
       </c>
-      <c r="I31" s="175"/>
+      <c r="I31" s="167"/>
       <c r="J31" s="101">
         <v>8916</v>
       </c>
@@ -5698,9 +5698,9 @@
       </c>
     </row>
     <row r="32" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A32" s="176"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="175"/>
+      <c r="A32" s="166"/>
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
       <c r="D32" s="73"/>
       <c r="E32" s="73"/>
       <c r="F32" s="72"/>
@@ -5711,7 +5711,7 @@
         <f t="shared" si="0"/>
         <v>Sripriya Rajamani</v>
       </c>
-      <c r="I32" s="175"/>
+      <c r="I32" s="167"/>
       <c r="J32" s="101">
         <v>1737</v>
       </c>
@@ -5724,9 +5724,9 @@
       </c>
     </row>
     <row r="33" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A33" s="176"/>
-      <c r="B33" s="176"/>
-      <c r="C33" s="175"/>
+      <c r="A33" s="166"/>
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
       <c r="D33" s="41"/>
       <c r="E33" s="41"/>
       <c r="F33" s="41"/>
@@ -5737,7 +5737,7 @@
         <f t="shared" si="0"/>
         <v>Caroline Spice</v>
       </c>
-      <c r="I33" s="175"/>
+      <c r="I33" s="167"/>
       <c r="J33" s="151">
         <v>8661</v>
       </c>
@@ -5750,9 +5750,9 @@
       <c r="O33" s="50"/>
     </row>
     <row r="34" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="176"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="175"/>
+      <c r="A34" s="166"/>
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
       <c r="D34" s="41"/>
       <c r="E34" s="41"/>
       <c r="F34" s="41"/>
@@ -5767,13 +5767,13 @@
       <c r="O34" s="50"/>
     </row>
     <row r="35" spans="1:15" ht="32" x14ac:dyDescent="0.2">
-      <c r="A35" s="176">
+      <c r="A35" s="166">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B35" s="176">
+      <c r="B35" s="166">
         <v>0.6875</v>
       </c>
-      <c r="C35" s="175" t="s">
+      <c r="C35" s="167" t="s">
         <v>259</v>
       </c>
       <c r="D35" s="73">
@@ -5789,7 +5789,7 @@
         <v>449</v>
       </c>
       <c r="H35" s="74"/>
-      <c r="I35" s="175" t="s">
+      <c r="I35" s="167" t="s">
         <v>359</v>
       </c>
       <c r="J35" s="98"/>
@@ -5797,9 +5797,9 @@
       <c r="N35" s="52"/>
     </row>
     <row r="36" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="176"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="175"/>
+      <c r="A36" s="166"/>
+      <c r="B36" s="166"/>
+      <c r="C36" s="167"/>
       <c r="D36" s="73"/>
       <c r="E36" s="73"/>
       <c r="F36" s="72"/>
@@ -5810,7 +5810,7 @@
         <f>LEFT(K36, SEARCH(",",K36,1)-1)</f>
         <v>Leilei Su</v>
       </c>
-      <c r="I36" s="175"/>
+      <c r="I36" s="167"/>
       <c r="J36" s="102">
         <v>1440</v>
       </c>
@@ -5823,9 +5823,9 @@
       <c r="N36" s="52"/>
     </row>
     <row r="37" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A37" s="176"/>
-      <c r="B37" s="176"/>
-      <c r="C37" s="175"/>
+      <c r="A37" s="166"/>
+      <c r="B37" s="166"/>
+      <c r="C37" s="167"/>
       <c r="D37" s="73"/>
       <c r="E37" s="73"/>
       <c r="F37" s="72"/>
@@ -5836,7 +5836,7 @@
         <f t="shared" ref="H37:H42" si="1">LEFT(K37, SEARCH(",",K37,1)-1)</f>
         <v>Seha Ay</v>
       </c>
-      <c r="I37" s="175"/>
+      <c r="I37" s="167"/>
       <c r="J37" s="155">
         <v>2754</v>
       </c>
@@ -5846,9 +5846,9 @@
       <c r="N37" s="52"/>
     </row>
     <row r="38" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="176"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="175"/>
+      <c r="A38" s="166"/>
+      <c r="B38" s="166"/>
+      <c r="C38" s="167"/>
       <c r="D38" s="73"/>
       <c r="E38" s="73"/>
       <c r="F38" s="72"/>
@@ -5858,7 +5858,7 @@
       <c r="H38" s="41" t="s">
         <v>777</v>
       </c>
-      <c r="I38" s="175"/>
+      <c r="I38" s="167"/>
       <c r="J38" s="102">
         <v>3023</v>
       </c>
@@ -5871,9 +5871,9 @@
       <c r="N38" s="52"/>
     </row>
     <row r="39" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="175"/>
+      <c r="A39" s="166"/>
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
       <c r="D39" s="73"/>
       <c r="E39" s="73"/>
       <c r="F39" s="72"/>
@@ -5884,7 +5884,7 @@
         <f>LEFT(K39, SEARCH(",",K39,1)-1)</f>
         <v>Yash Travadi</v>
       </c>
-      <c r="I39" s="175"/>
+      <c r="I39" s="167"/>
       <c r="J39" s="102">
         <v>8853</v>
       </c>
@@ -5897,9 +5897,9 @@
       <c r="N39" s="52"/>
     </row>
     <row r="40" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="176"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="175"/>
+      <c r="A40" s="166"/>
+      <c r="B40" s="166"/>
+      <c r="C40" s="167"/>
       <c r="D40" s="73"/>
       <c r="E40" s="73"/>
       <c r="F40" s="72"/>
@@ -5909,7 +5909,7 @@
       <c r="H40" s="41" t="s">
         <v>776</v>
       </c>
-      <c r="I40" s="175"/>
+      <c r="I40" s="167"/>
       <c r="J40" s="102">
         <v>7064</v>
       </c>
@@ -5924,9 +5924,9 @@
       </c>
     </row>
     <row r="41" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="176"/>
-      <c r="B41" s="176"/>
-      <c r="C41" s="175"/>
+      <c r="A41" s="166"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="167"/>
       <c r="D41" s="73"/>
       <c r="E41" s="73"/>
       <c r="F41" s="72"/>
@@ -5936,7 +5936,7 @@
       <c r="H41" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="I41" s="175"/>
+      <c r="I41" s="167"/>
       <c r="J41" s="102">
         <v>2374</v>
       </c>
@@ -5949,9 +5949,9 @@
       <c r="N41" s="52"/>
     </row>
     <row r="42" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A42" s="176"/>
-      <c r="B42" s="176"/>
-      <c r="C42" s="175"/>
+      <c r="A42" s="166"/>
+      <c r="B42" s="166"/>
+      <c r="C42" s="167"/>
       <c r="D42" s="73"/>
       <c r="E42" s="73"/>
       <c r="F42" s="72"/>
@@ -5962,7 +5962,7 @@
         <f t="shared" si="1"/>
         <v>Mary Lucas</v>
       </c>
-      <c r="I42" s="175"/>
+      <c r="I42" s="167"/>
       <c r="J42" s="102">
         <v>3102</v>
       </c>
@@ -5977,9 +5977,9 @@
       </c>
     </row>
     <row r="43" spans="1:15" ht="51" x14ac:dyDescent="0.2">
-      <c r="A43" s="176"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="175"/>
+      <c r="A43" s="166"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="167"/>
       <c r="D43" s="73"/>
       <c r="E43" s="73"/>
       <c r="F43" s="72"/>
@@ -5989,7 +5989,7 @@
       <c r="H43" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="I43" s="175"/>
+      <c r="I43" s="167"/>
       <c r="J43" s="102">
         <v>4628</v>
       </c>
@@ -6002,9 +6002,9 @@
       <c r="N43" s="52"/>
     </row>
     <row r="44" spans="1:15" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A44" s="176"/>
-      <c r="B44" s="176"/>
-      <c r="C44" s="175"/>
+      <c r="A44" s="166"/>
+      <c r="B44" s="166"/>
+      <c r="C44" s="167"/>
       <c r="D44" s="41"/>
       <c r="E44" s="41"/>
       <c r="F44" s="41"/>
@@ -6014,7 +6014,7 @@
       <c r="H44" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="I44" s="175"/>
+      <c r="I44" s="167"/>
       <c r="J44" s="102">
         <v>128</v>
       </c>
@@ -6030,9 +6030,9 @@
       <c r="O44" s="50"/>
     </row>
     <row r="45" spans="1:15" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A45" s="176"/>
-      <c r="B45" s="176"/>
-      <c r="C45" s="175"/>
+      <c r="A45" s="166"/>
+      <c r="B45" s="166"/>
+      <c r="C45" s="167"/>
       <c r="D45" s="41"/>
       <c r="E45" s="41"/>
       <c r="F45" s="41"/>
@@ -6042,7 +6042,7 @@
       <c r="H45" s="41" t="s">
         <v>778</v>
       </c>
-      <c r="I45" s="175"/>
+      <c r="I45" s="167"/>
       <c r="J45" s="102">
         <v>7942</v>
       </c>
@@ -6057,9 +6057,9 @@
       <c r="O45" s="50"/>
     </row>
     <row r="46" spans="1:15" s="40" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A46" s="176"/>
-      <c r="B46" s="176"/>
-      <c r="C46" s="175"/>
+      <c r="A46" s="166"/>
+      <c r="B46" s="166"/>
+      <c r="C46" s="167"/>
       <c r="D46" s="41"/>
       <c r="E46" s="41"/>
       <c r="F46" s="41"/>
@@ -6069,7 +6069,7 @@
       <c r="H46" s="41" t="s">
         <v>488</v>
       </c>
-      <c r="I46" s="175"/>
+      <c r="I46" s="167"/>
       <c r="J46" s="102">
         <v>5027</v>
       </c>
@@ -6084,9 +6084,9 @@
       <c r="O46" s="50"/>
     </row>
     <row r="47" spans="1:15" s="40" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="176"/>
-      <c r="B47" s="176"/>
-      <c r="C47" s="175"/>
+      <c r="A47" s="166"/>
+      <c r="B47" s="166"/>
+      <c r="C47" s="167"/>
       <c r="D47" s="41"/>
       <c r="E47" s="41"/>
       <c r="F47" s="41"/>
@@ -6123,7 +6123,7 @@
         <v>451</v>
       </c>
       <c r="H48" s="72"/>
-      <c r="I48" s="175" t="s">
+      <c r="I48" s="167" t="s">
         <v>794</v>
       </c>
       <c r="J48" s="98"/>
@@ -6131,13 +6131,13 @@
       <c r="N48" s="52"/>
     </row>
     <row r="49" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A49" s="176">
+      <c r="A49" s="166">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B49" s="176">
+      <c r="B49" s="166">
         <v>0.6875</v>
       </c>
-      <c r="C49" s="175" t="s">
+      <c r="C49" s="167" t="s">
         <v>261</v>
       </c>
       <c r="D49" s="73">
@@ -6153,15 +6153,15 @@
         <v>452</v>
       </c>
       <c r="H49" s="72"/>
-      <c r="I49" s="175"/>
+      <c r="I49" s="167"/>
       <c r="J49" s="98"/>
       <c r="K49" s="41"/>
       <c r="N49" s="52"/>
     </row>
     <row r="50" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A50" s="176"/>
-      <c r="B50" s="176"/>
-      <c r="C50" s="175"/>
+      <c r="A50" s="166"/>
+      <c r="B50" s="166"/>
+      <c r="C50" s="167"/>
       <c r="D50" s="73"/>
       <c r="E50" s="73"/>
       <c r="F50" s="72"/>
@@ -6171,7 +6171,7 @@
       <c r="H50" s="41" t="s">
         <v>779</v>
       </c>
-      <c r="I50" s="175"/>
+      <c r="I50" s="167"/>
       <c r="J50" s="102">
         <v>4071</v>
       </c>
@@ -6191,9 +6191,9 @@
       <c r="U50" s="71"/>
     </row>
     <row r="51" spans="1:21" ht="34" x14ac:dyDescent="0.2">
-      <c r="A51" s="176"/>
-      <c r="B51" s="176"/>
-      <c r="C51" s="175"/>
+      <c r="A51" s="166"/>
+      <c r="B51" s="166"/>
+      <c r="C51" s="167"/>
       <c r="D51" s="73"/>
       <c r="E51" s="73"/>
       <c r="F51" s="72"/>
@@ -6203,7 +6203,7 @@
       <c r="H51" s="41" t="s">
         <v>793</v>
       </c>
-      <c r="I51" s="175"/>
+      <c r="I51" s="167"/>
       <c r="J51" s="102">
         <v>9159</v>
       </c>
@@ -6223,23 +6223,23 @@
       <c r="U51" s="71"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A52" s="176"/>
-      <c r="B52" s="176"/>
-      <c r="C52" s="175"/>
+      <c r="A52" s="166"/>
+      <c r="B52" s="166"/>
+      <c r="C52" s="167"/>
       <c r="D52" s="73"/>
       <c r="E52" s="73"/>
       <c r="F52" s="72"/>
       <c r="G52" s="72"/>
       <c r="H52" s="72"/>
-      <c r="I52" s="175"/>
+      <c r="I52" s="167"/>
       <c r="J52" s="98"/>
       <c r="K52" s="41"/>
       <c r="N52" s="52"/>
     </row>
     <row r="53" spans="1:21" ht="32" x14ac:dyDescent="0.2">
-      <c r="A53" s="176"/>
-      <c r="B53" s="176"/>
-      <c r="C53" s="175"/>
+      <c r="A53" s="166"/>
+      <c r="B53" s="166"/>
+      <c r="C53" s="167"/>
       <c r="D53" s="73">
         <v>0.59375</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>453</v>
       </c>
       <c r="H53" s="72"/>
-      <c r="I53" s="175"/>
+      <c r="I53" s="167"/>
       <c r="J53" s="98"/>
       <c r="K53" s="41"/>
       <c r="N53" s="52"/>
@@ -6272,7 +6272,7 @@
         <f>LEFT(K54, SEARCH(",",K54,1)-1)</f>
         <v>Eugene Jeong</v>
       </c>
-      <c r="I54" s="175"/>
+      <c r="I54" s="167"/>
       <c r="J54" s="155">
         <v>463</v>
       </c>
@@ -6295,7 +6295,7 @@
         <f t="shared" ref="H55:H59" si="2">LEFT(K55, SEARCH(",",K55,1)-1)</f>
         <v>Ko-Hong Lin</v>
       </c>
-      <c r="I55" s="175"/>
+      <c r="I55" s="167"/>
       <c r="J55" s="155">
         <v>881</v>
       </c>
@@ -6318,7 +6318,7 @@
         <f t="shared" si="2"/>
         <v>Raseen Tariq</v>
       </c>
-      <c r="I56" s="175"/>
+      <c r="I56" s="167"/>
       <c r="J56" s="102">
         <v>1931</v>
       </c>
@@ -6344,7 +6344,7 @@
         <f t="shared" si="2"/>
         <v>Yongkang Xiao</v>
       </c>
-      <c r="I57" s="175"/>
+      <c r="I57" s="167"/>
       <c r="J57" s="155">
         <v>3807</v>
       </c>
@@ -6367,7 +6367,7 @@
         <f t="shared" si="2"/>
         <v>S M Shamimul Hasan</v>
       </c>
-      <c r="I58" s="175"/>
+      <c r="I58" s="167"/>
       <c r="J58" s="155">
         <v>5665</v>
       </c>
@@ -6390,7 +6390,7 @@
         <f t="shared" si="2"/>
         <v>Aokun Chen</v>
       </c>
-      <c r="I59" s="175"/>
+      <c r="I59" s="167"/>
       <c r="J59" s="155">
         <v>5934</v>
       </c>
@@ -6414,13 +6414,13 @@
       <c r="N60" s="52"/>
     </row>
     <row r="61" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A61" s="176">
+      <c r="A61" s="166">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B61" s="176">
+      <c r="B61" s="166">
         <v>0.6875</v>
       </c>
-      <c r="C61" s="175" t="s">
+      <c r="C61" s="167" t="s">
         <v>262</v>
       </c>
       <c r="D61" s="83">
@@ -6438,7 +6438,7 @@
       <c r="H61" s="84" t="s">
         <v>265</v>
       </c>
-      <c r="I61" s="175" t="s">
+      <c r="I61" s="167" t="s">
         <v>22</v>
       </c>
       <c r="J61" s="103">
@@ -6449,9 +6449,9 @@
       </c>
     </row>
     <row r="62" spans="1:21" ht="28" x14ac:dyDescent="0.2">
-      <c r="A62" s="176"/>
-      <c r="B62" s="176"/>
-      <c r="C62" s="175"/>
+      <c r="A62" s="166"/>
+      <c r="B62" s="166"/>
+      <c r="C62" s="167"/>
       <c r="D62" s="83">
         <v>5.9027777777777783E-2</v>
       </c>
@@ -6467,7 +6467,7 @@
       <c r="H62" s="84" t="s">
         <v>268</v>
       </c>
-      <c r="I62" s="175"/>
+      <c r="I62" s="167"/>
       <c r="J62" s="103">
         <v>1338</v>
       </c>
@@ -6476,9 +6476,9 @@
       </c>
     </row>
     <row r="63" spans="1:21" ht="28" x14ac:dyDescent="0.2">
-      <c r="A63" s="176"/>
-      <c r="B63" s="176"/>
-      <c r="C63" s="175"/>
+      <c r="A63" s="166"/>
+      <c r="B63" s="166"/>
+      <c r="C63" s="167"/>
       <c r="D63" s="83">
         <v>6.9444444444444434E-2</v>
       </c>
@@ -6494,7 +6494,7 @@
       <c r="H63" s="84" t="s">
         <v>272</v>
       </c>
-      <c r="I63" s="175"/>
+      <c r="I63" s="167"/>
       <c r="J63" s="103">
         <v>2216</v>
       </c>
@@ -6503,9 +6503,9 @@
       </c>
     </row>
     <row r="64" spans="1:21" ht="16" x14ac:dyDescent="0.2">
-      <c r="A64" s="176"/>
-      <c r="B64" s="176"/>
-      <c r="C64" s="175"/>
+      <c r="A64" s="166"/>
+      <c r="B64" s="166"/>
+      <c r="C64" s="167"/>
       <c r="D64" s="83">
         <v>7.9861111111111105E-2</v>
       </c>
@@ -6521,7 +6521,7 @@
       <c r="H64" s="148" t="s">
         <v>276</v>
       </c>
-      <c r="I64" s="175"/>
+      <c r="I64" s="167"/>
       <c r="J64" s="103">
         <v>3273</v>
       </c>
@@ -6538,9 +6538,9 @@
       </c>
     </row>
     <row r="65" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A65" s="176"/>
-      <c r="B65" s="176"/>
-      <c r="C65" s="175"/>
+      <c r="A65" s="166"/>
+      <c r="B65" s="166"/>
+      <c r="C65" s="167"/>
       <c r="D65" s="83">
         <v>9.0277777777777776E-2</v>
       </c>
@@ -6556,7 +6556,7 @@
       <c r="H65" s="84" t="s">
         <v>280</v>
       </c>
-      <c r="I65" s="175"/>
+      <c r="I65" s="167"/>
       <c r="J65" s="103">
         <v>3800</v>
       </c>
@@ -6565,9 +6565,9 @@
       </c>
     </row>
     <row r="66" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A66" s="176"/>
-      <c r="B66" s="176"/>
-      <c r="C66" s="175"/>
+      <c r="A66" s="166"/>
+      <c r="B66" s="166"/>
+      <c r="C66" s="167"/>
       <c r="D66" s="83">
         <v>0.10069444444444443</v>
       </c>
@@ -6583,7 +6583,7 @@
       <c r="H66" s="84" t="s">
         <v>293</v>
       </c>
-      <c r="I66" s="175"/>
+      <c r="I66" s="167"/>
       <c r="J66" s="103">
         <v>4228</v>
       </c>
@@ -6592,9 +6592,9 @@
       </c>
     </row>
     <row r="67" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A67" s="176"/>
-      <c r="B67" s="176"/>
-      <c r="C67" s="175"/>
+      <c r="A67" s="166"/>
+      <c r="B67" s="166"/>
+      <c r="C67" s="167"/>
       <c r="D67" s="83">
         <v>0.1111111111111111</v>
       </c>
@@ -6610,7 +6610,7 @@
       <c r="H67" s="84" t="s">
         <v>491</v>
       </c>
-      <c r="I67" s="175"/>
+      <c r="I67" s="167"/>
       <c r="J67" s="104"/>
       <c r="K67" s="84" t="s">
         <v>491</v>
@@ -6621,9 +6621,9 @@
       <c r="N67" s="49"/>
     </row>
     <row r="68" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A68" s="176"/>
-      <c r="B68" s="176"/>
-      <c r="C68" s="175"/>
+      <c r="A68" s="166"/>
+      <c r="B68" s="166"/>
+      <c r="C68" s="167"/>
       <c r="D68" s="83">
         <v>0.1111111111111111</v>
       </c>
@@ -6639,19 +6639,19 @@
       <c r="H68" s="84" t="s">
         <v>311</v>
       </c>
-      <c r="I68" s="175"/>
+      <c r="I68" s="167"/>
       <c r="J68" s="104"/>
       <c r="K68" s="84"/>
       <c r="N68" s="49"/>
     </row>
     <row r="69" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A69" s="166" t="s">
+      <c r="A69" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="B69" s="166"/>
-      <c r="C69" s="166"/>
-      <c r="D69" s="166"/>
-      <c r="E69" s="166"/>
+      <c r="B69" s="176"/>
+      <c r="C69" s="176"/>
+      <c r="D69" s="176"/>
+      <c r="E69" s="176"/>
       <c r="F69" s="48"/>
       <c r="H69" s="48"/>
       <c r="I69" s="48"/>
@@ -6699,13 +6699,13 @@
       <c r="O70" s="50"/>
     </row>
     <row r="71" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A71" s="167">
+      <c r="A71" s="168">
         <v>0.35416666666666669</v>
       </c>
-      <c r="B71" s="167">
+      <c r="B71" s="168">
         <v>0.5</v>
       </c>
-      <c r="C71" s="174" t="s">
+      <c r="C71" s="169" t="s">
         <v>289</v>
       </c>
       <c r="D71" s="83">
@@ -6723,7 +6723,7 @@
       <c r="H71" s="84" t="s">
         <v>284</v>
       </c>
-      <c r="I71" s="174" t="s">
+      <c r="I71" s="169" t="s">
         <v>22</v>
       </c>
       <c r="J71" s="105">
@@ -6735,9 +6735,9 @@
       <c r="N71" s="49"/>
     </row>
     <row r="72" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A72" s="167"/>
-      <c r="B72" s="167"/>
-      <c r="C72" s="174"/>
+      <c r="A72" s="168"/>
+      <c r="B72" s="168"/>
+      <c r="C72" s="169"/>
       <c r="D72" s="83">
         <v>0.36458333333333331</v>
       </c>
@@ -6753,7 +6753,7 @@
       <c r="H72" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="I72" s="174"/>
+      <c r="I72" s="169"/>
       <c r="J72" s="105">
         <v>4252</v>
       </c>
@@ -6763,9 +6763,9 @@
       <c r="N72" s="49"/>
     </row>
     <row r="73" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A73" s="167"/>
-      <c r="B73" s="167"/>
-      <c r="C73" s="174"/>
+      <c r="A73" s="168"/>
+      <c r="B73" s="168"/>
+      <c r="C73" s="169"/>
       <c r="D73" s="83">
         <v>0.375</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="H73" s="84" t="s">
         <v>300</v>
       </c>
-      <c r="I73" s="174"/>
+      <c r="I73" s="169"/>
       <c r="J73" s="105">
         <v>5310</v>
       </c>
@@ -6791,9 +6791,9 @@
       <c r="N73" s="49"/>
     </row>
     <row r="74" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A74" s="167"/>
-      <c r="B74" s="167"/>
-      <c r="C74" s="174"/>
+      <c r="A74" s="168"/>
+      <c r="B74" s="168"/>
+      <c r="C74" s="169"/>
       <c r="D74" s="83">
         <v>0.38541666666666669</v>
       </c>
@@ -6809,7 +6809,7 @@
       <c r="H74" s="84" t="s">
         <v>303</v>
       </c>
-      <c r="I74" s="174"/>
+      <c r="I74" s="169"/>
       <c r="J74" s="105">
         <v>8033</v>
       </c>
@@ -6819,9 +6819,9 @@
       <c r="N74" s="49"/>
     </row>
     <row r="75" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A75" s="167"/>
-      <c r="B75" s="167"/>
-      <c r="C75" s="174"/>
+      <c r="A75" s="168"/>
+      <c r="B75" s="168"/>
+      <c r="C75" s="169"/>
       <c r="D75" s="83">
         <v>0.39583333333333331</v>
       </c>
@@ -6837,7 +6837,7 @@
       <c r="H75" s="84" t="s">
         <v>307</v>
       </c>
-      <c r="I75" s="174"/>
+      <c r="I75" s="169"/>
       <c r="J75" s="105">
         <v>9368</v>
       </c>
@@ -6847,9 +6847,9 @@
       <c r="N75" s="49"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A76" s="167"/>
-      <c r="B76" s="167"/>
-      <c r="C76" s="174"/>
+      <c r="A76" s="168"/>
+      <c r="B76" s="168"/>
+      <c r="C76" s="169"/>
       <c r="D76" s="145">
         <v>0.41666666666666669</v>
       </c>
@@ -7012,13 +7012,13 @@
       <c r="M81" s="42"/>
     </row>
     <row r="83" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A83" s="167">
+      <c r="A83" s="168">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B83" s="167">
+      <c r="B83" s="168">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C83" s="168" t="s">
+      <c r="C83" s="174" t="s">
         <v>28</v>
       </c>
       <c r="D83" s="57">
@@ -7049,9 +7049,9 @@
       <c r="O83" s="49"/>
     </row>
     <row r="84" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A84" s="167"/>
-      <c r="B84" s="167"/>
-      <c r="C84" s="168"/>
+      <c r="A84" s="168"/>
+      <c r="B84" s="168"/>
+      <c r="C84" s="174"/>
       <c r="D84" s="57">
         <v>0.11458333333333333</v>
       </c>
@@ -7086,9 +7086,9 @@
       <c r="O84" s="49"/>
     </row>
     <row r="85" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A85" s="167"/>
-      <c r="B85" s="167"/>
-      <c r="C85" s="168"/>
+      <c r="A85" s="168"/>
+      <c r="B85" s="168"/>
+      <c r="C85" s="174"/>
       <c r="D85" s="57">
         <v>0.125</v>
       </c>
@@ -7123,9 +7123,9 @@
       <c r="O85" s="49"/>
     </row>
     <row r="86" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A86" s="167"/>
-      <c r="B86" s="167"/>
-      <c r="C86" s="168"/>
+      <c r="A86" s="168"/>
+      <c r="B86" s="168"/>
+      <c r="C86" s="174"/>
       <c r="D86" s="57">
         <v>0.13541666666666666</v>
       </c>
@@ -7152,9 +7152,9 @@
       <c r="O86" s="49"/>
     </row>
     <row r="87" spans="1:15" s="56" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A87" s="167"/>
-      <c r="B87" s="167"/>
-      <c r="C87" s="168"/>
+      <c r="A87" s="168"/>
+      <c r="B87" s="168"/>
+      <c r="C87" s="174"/>
       <c r="D87" s="58">
         <v>0.14583333333333334</v>
       </c>
@@ -7211,10 +7211,10 @@
       <c r="E89" s="53"/>
     </row>
     <row r="90" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A90" s="167">
+      <c r="A90" s="168">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B90" s="167">
+      <c r="B90" s="168">
         <v>0.66666666666666663</v>
       </c>
       <c r="C90" s="165" t="s">
@@ -7236,7 +7236,7 @@
         <v>165</v>
       </c>
       <c r="I90" s="165" t="s">
-        <v>461</v>
+        <v>794</v>
       </c>
       <c r="J90" s="100">
         <v>643</v>
@@ -7249,8 +7249,8 @@
       </c>
     </row>
     <row r="91" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A91" s="167"/>
-      <c r="B91" s="167"/>
+      <c r="A91" s="168"/>
+      <c r="B91" s="168"/>
       <c r="C91" s="165"/>
       <c r="D91" s="57">
         <v>0.11458333333333333</v>
@@ -7284,8 +7284,8 @@
       </c>
     </row>
     <row r="92" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A92" s="167"/>
-      <c r="B92" s="167"/>
+      <c r="A92" s="168"/>
+      <c r="B92" s="168"/>
       <c r="C92" s="165"/>
       <c r="D92" s="57">
         <v>0.125</v>
@@ -7319,8 +7319,8 @@
       </c>
     </row>
     <row r="93" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A93" s="167"/>
-      <c r="B93" s="167"/>
+      <c r="A93" s="168"/>
+      <c r="B93" s="168"/>
       <c r="C93" s="165"/>
       <c r="D93" s="57">
         <v>0.13541666666666666</v>
@@ -7354,8 +7354,8 @@
       </c>
     </row>
     <row r="94" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A94" s="167"/>
-      <c r="B94" s="167"/>
+      <c r="A94" s="168"/>
+      <c r="B94" s="168"/>
       <c r="C94" s="165"/>
       <c r="D94" s="58">
         <v>0.14583333333333334</v>
@@ -7413,10 +7413,10 @@
       <c r="E96" s="53"/>
     </row>
     <row r="97" spans="1:15" s="49" customFormat="1" ht="28" x14ac:dyDescent="0.2">
-      <c r="A97" s="167">
+      <c r="A97" s="168">
         <v>0.60416666666666663</v>
       </c>
-      <c r="B97" s="167">
+      <c r="B97" s="168">
         <v>0.66666666666666663</v>
       </c>
       <c r="C97" s="165" t="s">
@@ -7454,8 +7454,8 @@
       </c>
     </row>
     <row r="98" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A98" s="167"/>
-      <c r="B98" s="167"/>
+      <c r="A98" s="168"/>
+      <c r="B98" s="168"/>
       <c r="C98" s="165"/>
       <c r="D98" s="57">
         <v>0.11458333333333333</v>
@@ -7489,8 +7489,8 @@
       </c>
     </row>
     <row r="99" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A99" s="167"/>
-      <c r="B99" s="167"/>
+      <c r="A99" s="168"/>
+      <c r="B99" s="168"/>
       <c r="C99" s="165"/>
       <c r="D99" s="57">
         <v>0.125</v>
@@ -7524,8 +7524,8 @@
       </c>
     </row>
     <row r="100" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A100" s="167"/>
-      <c r="B100" s="167"/>
+      <c r="A100" s="168"/>
+      <c r="B100" s="168"/>
       <c r="C100" s="165"/>
       <c r="D100" s="57">
         <v>0.13541666666666666</v>
@@ -7559,8 +7559,8 @@
       </c>
     </row>
     <row r="101" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A101" s="167"/>
-      <c r="B101" s="167"/>
+      <c r="A101" s="168"/>
+      <c r="B101" s="168"/>
       <c r="C101" s="165"/>
       <c r="D101" s="58">
         <v>0.14583333333333334</v>
@@ -7665,13 +7665,13 @@
       <c r="K105" s="48"/>
     </row>
     <row r="106" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A106" s="166" t="s">
+      <c r="A106" s="176" t="s">
         <v>3</v>
       </c>
-      <c r="B106" s="166"/>
-      <c r="C106" s="166"/>
-      <c r="D106" s="166"/>
-      <c r="E106" s="166"/>
+      <c r="B106" s="176"/>
+      <c r="C106" s="176"/>
+      <c r="D106" s="176"/>
+      <c r="E106" s="176"/>
       <c r="F106" s="48"/>
       <c r="H106" s="48"/>
       <c r="I106" s="48"/>
@@ -7746,10 +7746,10 @@
       </c>
     </row>
     <row r="109" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A109" s="167">
+      <c r="A109" s="168">
         <v>0.4375</v>
       </c>
-      <c r="B109" s="167">
+      <c r="B109" s="168">
         <v>0.5</v>
       </c>
       <c r="C109" s="165" t="s">
@@ -7784,8 +7784,8 @@
       </c>
     </row>
     <row r="110" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A110" s="167"/>
-      <c r="B110" s="167"/>
+      <c r="A110" s="168"/>
+      <c r="B110" s="168"/>
       <c r="C110" s="165"/>
       <c r="D110" s="57">
         <v>0.44791666666666669</v>
@@ -7819,8 +7819,8 @@
       </c>
     </row>
     <row r="111" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A111" s="167"/>
-      <c r="B111" s="167"/>
+      <c r="A111" s="168"/>
+      <c r="B111" s="168"/>
       <c r="C111" s="165"/>
       <c r="D111" s="57">
         <v>0.45833333333333331</v>
@@ -7854,8 +7854,8 @@
       </c>
     </row>
     <row r="112" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A112" s="167"/>
-      <c r="B112" s="167"/>
+      <c r="A112" s="168"/>
+      <c r="B112" s="168"/>
       <c r="C112" s="165"/>
       <c r="D112" s="57">
         <v>0.46875</v>
@@ -7889,8 +7889,8 @@
       </c>
     </row>
     <row r="113" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A113" s="167"/>
-      <c r="B113" s="167"/>
+      <c r="A113" s="168"/>
+      <c r="B113" s="168"/>
       <c r="C113" s="165"/>
       <c r="D113" s="58">
         <v>0.47916666666666669</v>
@@ -7942,10 +7942,10 @@
       <c r="K114" s="48"/>
     </row>
     <row r="115" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A115" s="167">
+      <c r="A115" s="168">
         <v>0.4375</v>
       </c>
-      <c r="B115" s="167">
+      <c r="B115" s="168">
         <v>0.5</v>
       </c>
       <c r="C115" s="165" t="s">
@@ -7985,8 +7985,8 @@
       </c>
     </row>
     <row r="116" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A116" s="167"/>
-      <c r="B116" s="167"/>
+      <c r="A116" s="168"/>
+      <c r="B116" s="168"/>
       <c r="C116" s="165"/>
       <c r="D116" s="57">
         <v>0.44791666666666669</v>
@@ -8020,8 +8020,8 @@
       </c>
     </row>
     <row r="117" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A117" s="167"/>
-      <c r="B117" s="167"/>
+      <c r="A117" s="168"/>
+      <c r="B117" s="168"/>
       <c r="C117" s="165"/>
       <c r="D117" s="57">
         <v>0.45833333333333331</v>
@@ -8055,8 +8055,8 @@
       </c>
     </row>
     <row r="118" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A118" s="167"/>
-      <c r="B118" s="167"/>
+      <c r="A118" s="168"/>
+      <c r="B118" s="168"/>
       <c r="C118" s="165"/>
       <c r="D118" s="57">
         <v>0.46875</v>
@@ -8090,8 +8090,8 @@
       </c>
     </row>
     <row r="119" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A119" s="167"/>
-      <c r="B119" s="167"/>
+      <c r="A119" s="168"/>
+      <c r="B119" s="168"/>
       <c r="C119" s="165"/>
       <c r="D119" s="58">
         <v>0.47916666666666669</v>
@@ -8156,10 +8156,10 @@
       <c r="K121" s="48"/>
     </row>
     <row r="122" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A122" s="167">
+      <c r="A122" s="168">
         <v>0.4375</v>
       </c>
-      <c r="B122" s="167">
+      <c r="B122" s="168">
         <v>0.5</v>
       </c>
       <c r="C122" s="165" t="s">
@@ -8199,8 +8199,8 @@
       </c>
     </row>
     <row r="123" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A123" s="167"/>
-      <c r="B123" s="167"/>
+      <c r="A123" s="168"/>
+      <c r="B123" s="168"/>
       <c r="C123" s="165"/>
       <c r="D123" s="57">
         <v>0.4513888888888889</v>
@@ -8234,8 +8234,8 @@
       </c>
     </row>
     <row r="124" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A124" s="167"/>
-      <c r="B124" s="167"/>
+      <c r="A124" s="168"/>
+      <c r="B124" s="168"/>
       <c r="C124" s="165"/>
       <c r="D124" s="57">
         <v>0.46527777777777773</v>
@@ -8269,8 +8269,8 @@
       </c>
     </row>
     <row r="125" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A125" s="167"/>
-      <c r="B125" s="167"/>
+      <c r="A125" s="168"/>
+      <c r="B125" s="168"/>
       <c r="C125" s="165"/>
       <c r="D125" s="57">
         <v>0.47916666666666669</v>
@@ -8304,8 +8304,8 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A126" s="167"/>
-      <c r="B126" s="167"/>
+      <c r="A126" s="168"/>
+      <c r="B126" s="168"/>
       <c r="C126" s="165"/>
       <c r="D126" s="59">
         <v>0.49305555555555558</v>
@@ -8330,13 +8330,13 @@
       <c r="K127" s="48"/>
     </row>
     <row r="128" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A128" s="167">
+      <c r="A128" s="168">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B128" s="167">
+      <c r="B128" s="168">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C128" s="168" t="s">
+      <c r="C128" s="174" t="s">
         <v>352</v>
       </c>
       <c r="D128" s="57">
@@ -8373,9 +8373,9 @@
       </c>
     </row>
     <row r="129" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A129" s="167"/>
-      <c r="B129" s="167"/>
-      <c r="C129" s="168"/>
+      <c r="A129" s="168"/>
+      <c r="B129" s="168"/>
+      <c r="C129" s="174"/>
       <c r="D129" s="57">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -8400,9 +8400,9 @@
       </c>
     </row>
     <row r="130" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A130" s="167"/>
-      <c r="B130" s="167"/>
-      <c r="C130" s="168"/>
+      <c r="A130" s="168"/>
+      <c r="B130" s="168"/>
+      <c r="C130" s="174"/>
       <c r="D130" s="57">
         <v>6.25E-2</v>
       </c>
@@ -8435,9 +8435,9 @@
       </c>
     </row>
     <row r="131" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="A131" s="167"/>
-      <c r="B131" s="167"/>
-      <c r="C131" s="168"/>
+      <c r="A131" s="168"/>
+      <c r="B131" s="168"/>
+      <c r="C131" s="174"/>
       <c r="D131" s="57">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -8462,9 +8462,9 @@
       </c>
     </row>
     <row r="132" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A132" s="167"/>
-      <c r="B132" s="167"/>
-      <c r="C132" s="168"/>
+      <c r="A132" s="168"/>
+      <c r="B132" s="168"/>
+      <c r="C132" s="174"/>
       <c r="D132" s="58">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -8528,10 +8528,10 @@
       <c r="M134" s="86"/>
     </row>
     <row r="135" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A135" s="167">
+      <c r="A135" s="168">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B135" s="167">
+      <c r="B135" s="168">
         <v>0.60416666666666663</v>
       </c>
       <c r="C135" s="165" t="s">
@@ -8569,8 +8569,8 @@
       </c>
     </row>
     <row r="136" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A136" s="167"/>
-      <c r="B136" s="167"/>
+      <c r="A136" s="168"/>
+      <c r="B136" s="168"/>
       <c r="C136" s="165"/>
       <c r="D136" s="57">
         <v>5.2083333333333336E-2</v>
@@ -8602,8 +8602,8 @@
       </c>
     </row>
     <row r="137" spans="1:13" ht="42" x14ac:dyDescent="0.2">
-      <c r="A137" s="167"/>
-      <c r="B137" s="167"/>
+      <c r="A137" s="168"/>
+      <c r="B137" s="168"/>
       <c r="C137" s="165"/>
       <c r="D137" s="57">
         <v>6.25E-2</v>
@@ -8632,8 +8632,8 @@
       </c>
     </row>
     <row r="138" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A138" s="167"/>
-      <c r="B138" s="167"/>
+      <c r="A138" s="168"/>
+      <c r="B138" s="168"/>
       <c r="C138" s="165"/>
       <c r="D138" s="57">
         <v>7.2916666666666671E-2</v>
@@ -8665,8 +8665,8 @@
       </c>
     </row>
     <row r="139" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A139" s="167"/>
-      <c r="B139" s="167"/>
+      <c r="A139" s="168"/>
+      <c r="B139" s="168"/>
       <c r="C139" s="165"/>
       <c r="D139" s="58">
         <v>8.3333333333333329E-2</v>
@@ -8729,10 +8729,10 @@
       <c r="K141" s="48"/>
     </row>
     <row r="142" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A142" s="167">
+      <c r="A142" s="168">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B142" s="167">
+      <c r="B142" s="168">
         <v>0.60416666666666663</v>
       </c>
       <c r="C142" s="165" t="s">
@@ -8770,8 +8770,8 @@
       </c>
     </row>
     <row r="143" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A143" s="167"/>
-      <c r="B143" s="167"/>
+      <c r="A143" s="168"/>
+      <c r="B143" s="168"/>
       <c r="C143" s="165"/>
       <c r="D143" s="57">
         <v>5.2083333333333336E-2</v>
@@ -8803,8 +8803,8 @@
       </c>
     </row>
     <row r="144" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A144" s="167"/>
-      <c r="B144" s="167"/>
+      <c r="A144" s="168"/>
+      <c r="B144" s="168"/>
       <c r="C144" s="165"/>
       <c r="D144" s="57">
         <v>6.25E-2</v>
@@ -8836,8 +8836,8 @@
       </c>
     </row>
     <row r="145" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A145" s="167"/>
-      <c r="B145" s="167"/>
+      <c r="A145" s="168"/>
+      <c r="B145" s="168"/>
       <c r="C145" s="165"/>
       <c r="D145" s="57">
         <v>7.2916666666666671E-2</v>
@@ -8871,8 +8871,8 @@
       </c>
     </row>
     <row r="146" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A146" s="167"/>
-      <c r="B146" s="167"/>
+      <c r="A146" s="168"/>
+      <c r="B146" s="168"/>
       <c r="C146" s="165"/>
       <c r="D146" s="58">
         <v>8.3333333333333329E-2</v>
@@ -8930,10 +8930,10 @@
       <c r="K148" s="48"/>
     </row>
     <row r="149" spans="1:13" ht="28" x14ac:dyDescent="0.2">
-      <c r="A149" s="167">
+      <c r="A149" s="168">
         <v>0.625</v>
       </c>
-      <c r="B149" s="167">
+      <c r="B149" s="168">
         <v>0.6875</v>
       </c>
       <c r="C149" s="165" t="s">
@@ -8973,8 +8973,8 @@
       </c>
     </row>
     <row r="150" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A150" s="167"/>
-      <c r="B150" s="167"/>
+      <c r="A150" s="168"/>
+      <c r="B150" s="168"/>
       <c r="C150" s="165"/>
       <c r="D150" s="57">
         <v>0.13541666666666666</v>
@@ -9003,8 +9003,8 @@
       </c>
     </row>
     <row r="151" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A151" s="167"/>
-      <c r="B151" s="167"/>
+      <c r="A151" s="168"/>
+      <c r="B151" s="168"/>
       <c r="C151" s="165"/>
       <c r="D151" s="57">
         <v>0.14583333333333334</v>
@@ -9030,8 +9030,8 @@
       </c>
     </row>
     <row r="152" spans="1:13" ht="42" x14ac:dyDescent="0.2">
-      <c r="A152" s="167"/>
-      <c r="B152" s="167"/>
+      <c r="A152" s="168"/>
+      <c r="B152" s="168"/>
       <c r="C152" s="165"/>
       <c r="D152" s="57">
         <v>0.15625</v>
@@ -9063,8 +9063,8 @@
       </c>
     </row>
     <row r="153" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A153" s="167"/>
-      <c r="B153" s="167"/>
+      <c r="A153" s="168"/>
+      <c r="B153" s="168"/>
       <c r="C153" s="165"/>
       <c r="D153" s="58">
         <v>0.16666666666666666</v>
@@ -9145,10 +9145,10 @@
       <c r="K155" s="48"/>
     </row>
     <row r="156" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A156" s="167">
+      <c r="A156" s="168">
         <v>0.625</v>
       </c>
-      <c r="B156" s="167">
+      <c r="B156" s="168">
         <v>0.6875</v>
       </c>
       <c r="C156" s="165" t="s">
@@ -9186,8 +9186,8 @@
       </c>
     </row>
     <row r="157" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A157" s="167"/>
-      <c r="B157" s="167"/>
+      <c r="A157" s="168"/>
+      <c r="B157" s="168"/>
       <c r="C157" s="165"/>
       <c r="D157" s="57">
         <v>0.13541666666666666</v>
@@ -9219,8 +9219,8 @@
       </c>
     </row>
     <row r="158" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A158" s="167"/>
-      <c r="B158" s="167"/>
+      <c r="A158" s="168"/>
+      <c r="B158" s="168"/>
       <c r="C158" s="165"/>
       <c r="D158" s="57">
         <v>0.14583333333333334</v>
@@ -9252,8 +9252,8 @@
       </c>
     </row>
     <row r="159" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A159" s="167"/>
-      <c r="B159" s="167"/>
+      <c r="A159" s="168"/>
+      <c r="B159" s="168"/>
       <c r="C159" s="165"/>
       <c r="D159" s="57">
         <v>0.15625</v>
@@ -9279,8 +9279,8 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A160" s="167"/>
-      <c r="B160" s="167"/>
+      <c r="A160" s="168"/>
+      <c r="B160" s="168"/>
       <c r="C160" s="165"/>
       <c r="D160" s="59">
         <v>0.17361111111111113</v>
@@ -9355,13 +9355,13 @@
       <c r="C163" s="48"/>
     </row>
     <row r="165" spans="1:15" ht="24" x14ac:dyDescent="0.2">
-      <c r="A165" s="166" t="s">
+      <c r="A165" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="B165" s="166"/>
-      <c r="C165" s="166"/>
-      <c r="D165" s="166"/>
-      <c r="E165" s="166"/>
+      <c r="B165" s="176"/>
+      <c r="C165" s="176"/>
+      <c r="D165" s="176"/>
+      <c r="E165" s="176"/>
       <c r="F165" s="48"/>
       <c r="H165" s="48"/>
       <c r="I165" s="48"/>
@@ -9432,10 +9432,10 @@
       <c r="K167" s="48"/>
     </row>
     <row r="168" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A168" s="167">
+      <c r="A168" s="168">
         <v>0.41666666666666669</v>
       </c>
-      <c r="B168" s="167">
+      <c r="B168" s="168">
         <v>0.5</v>
       </c>
       <c r="C168" s="165" t="s">
@@ -9470,8 +9470,8 @@
       </c>
     </row>
     <row r="169" spans="1:15" ht="28" x14ac:dyDescent="0.2">
-      <c r="A169" s="167"/>
-      <c r="B169" s="167"/>
+      <c r="A169" s="168"/>
+      <c r="B169" s="168"/>
       <c r="C169" s="165"/>
       <c r="D169" s="57">
         <v>0.43055555555555558</v>
@@ -9504,8 +9504,8 @@
       <c r="N169"/>
     </row>
     <row r="170" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A170" s="167"/>
-      <c r="B170" s="167"/>
+      <c r="A170" s="168"/>
+      <c r="B170" s="168"/>
       <c r="C170" s="165"/>
       <c r="D170" s="57">
         <v>0.44444444444444442</v>
@@ -9538,8 +9538,8 @@
       <c r="N170"/>
     </row>
     <row r="171" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A171" s="167"/>
-      <c r="B171" s="167"/>
+      <c r="A171" s="168"/>
+      <c r="B171" s="168"/>
       <c r="C171" s="165"/>
       <c r="D171" s="57">
         <v>0.45833333333333331</v>
@@ -9571,8 +9571,8 @@
       </c>
     </row>
     <row r="172" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A172" s="167"/>
-      <c r="B172" s="167"/>
+      <c r="A172" s="168"/>
+      <c r="B172" s="168"/>
       <c r="C172" s="165"/>
       <c r="D172" s="57">
         <v>0.47222222222222227</v>
@@ -9598,8 +9598,8 @@
       </c>
     </row>
     <row r="173" spans="1:15" ht="16" x14ac:dyDescent="0.2">
-      <c r="A173" s="167"/>
-      <c r="B173" s="167"/>
+      <c r="A173" s="168"/>
+      <c r="B173" s="168"/>
       <c r="C173" s="165"/>
       <c r="D173" s="59">
         <v>0.4861111111111111</v>
@@ -9664,9 +9664,9 @@
     <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="61"/>
       <c r="B176" s="61"/>
-      <c r="C176" s="169"/>
-      <c r="D176" s="169"/>
-      <c r="E176" s="169"/>
+      <c r="C176" s="175"/>
+      <c r="D176" s="175"/>
+      <c r="E176" s="175"/>
     </row>
     <row r="180" spans="1:12" ht="24" x14ac:dyDescent="0.2">
       <c r="J180" s="97"/>
@@ -9783,6 +9783,90 @@
     </row>
   </sheetData>
   <mergeCells count="100">
+    <mergeCell ref="I122:I126"/>
+    <mergeCell ref="F126:H126"/>
+    <mergeCell ref="I168:I173"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A69:E69"/>
+    <mergeCell ref="A106:E106"/>
+    <mergeCell ref="A165:E165"/>
+    <mergeCell ref="A156:A160"/>
+    <mergeCell ref="B156:B160"/>
+    <mergeCell ref="C156:C160"/>
+    <mergeCell ref="I156:I160"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="B142:B146"/>
+    <mergeCell ref="C142:C146"/>
+    <mergeCell ref="I142:I147"/>
+    <mergeCell ref="I149:I154"/>
+    <mergeCell ref="B128:B132"/>
+    <mergeCell ref="C128:C132"/>
+    <mergeCell ref="I128:I133"/>
+    <mergeCell ref="F133:H133"/>
+    <mergeCell ref="B135:B139"/>
+    <mergeCell ref="C135:C139"/>
+    <mergeCell ref="I135:I140"/>
+    <mergeCell ref="F140:H140"/>
+    <mergeCell ref="I109:I114"/>
+    <mergeCell ref="F114:H114"/>
+    <mergeCell ref="A115:A119"/>
+    <mergeCell ref="B115:B119"/>
+    <mergeCell ref="C115:C119"/>
+    <mergeCell ref="I115:I120"/>
+    <mergeCell ref="F120:H120"/>
+    <mergeCell ref="C176:E176"/>
+    <mergeCell ref="A109:A113"/>
+    <mergeCell ref="B109:B113"/>
+    <mergeCell ref="C109:C113"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="B122:B126"/>
+    <mergeCell ref="C122:C126"/>
+    <mergeCell ref="A135:A139"/>
+    <mergeCell ref="A149:A153"/>
+    <mergeCell ref="B149:B153"/>
+    <mergeCell ref="C149:C153"/>
+    <mergeCell ref="A168:A173"/>
+    <mergeCell ref="B168:B173"/>
+    <mergeCell ref="C168:C173"/>
+    <mergeCell ref="A128:A132"/>
+    <mergeCell ref="C175:E175"/>
+    <mergeCell ref="C167:G167"/>
+    <mergeCell ref="C81:G81"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="C83:C87"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="F160:H160"/>
+    <mergeCell ref="C162:E162"/>
+    <mergeCell ref="F154:H154"/>
+    <mergeCell ref="F147:H147"/>
+    <mergeCell ref="C103:H103"/>
+    <mergeCell ref="C104:H104"/>
+    <mergeCell ref="C108:G108"/>
+    <mergeCell ref="I71:I75"/>
+    <mergeCell ref="I9:I20"/>
+    <mergeCell ref="C9:C21"/>
+    <mergeCell ref="I35:I46"/>
+    <mergeCell ref="I61:I68"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="B97:B101"/>
+    <mergeCell ref="C97:C101"/>
+    <mergeCell ref="I97:I102"/>
+    <mergeCell ref="F102:H102"/>
+    <mergeCell ref="A90:A94"/>
+    <mergeCell ref="B90:B94"/>
+    <mergeCell ref="C90:C94"/>
+    <mergeCell ref="I83:I88"/>
+    <mergeCell ref="F88:H88"/>
+    <mergeCell ref="I90:I95"/>
+    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A9:A21"/>
+    <mergeCell ref="B9:B21"/>
+    <mergeCell ref="I22:I33"/>
+    <mergeCell ref="A22:A34"/>
+    <mergeCell ref="B22:B34"/>
+    <mergeCell ref="C22:C34"/>
     <mergeCell ref="I103:I104"/>
     <mergeCell ref="A35:A47"/>
     <mergeCell ref="B35:B47"/>
@@ -9799,90 +9883,6 @@
     <mergeCell ref="A61:A68"/>
     <mergeCell ref="B61:B68"/>
     <mergeCell ref="C61:C68"/>
-    <mergeCell ref="A9:A21"/>
-    <mergeCell ref="B9:B21"/>
-    <mergeCell ref="I22:I33"/>
-    <mergeCell ref="A22:A34"/>
-    <mergeCell ref="B22:B34"/>
-    <mergeCell ref="C22:C34"/>
-    <mergeCell ref="A90:A94"/>
-    <mergeCell ref="B90:B94"/>
-    <mergeCell ref="C90:C94"/>
-    <mergeCell ref="I83:I88"/>
-    <mergeCell ref="F88:H88"/>
-    <mergeCell ref="I90:I95"/>
-    <mergeCell ref="F95:H95"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="B97:B101"/>
-    <mergeCell ref="C97:C101"/>
-    <mergeCell ref="I97:I102"/>
-    <mergeCell ref="F102:H102"/>
-    <mergeCell ref="I71:I75"/>
-    <mergeCell ref="I9:I20"/>
-    <mergeCell ref="C9:C21"/>
-    <mergeCell ref="I35:I46"/>
-    <mergeCell ref="I61:I68"/>
-    <mergeCell ref="C167:G167"/>
-    <mergeCell ref="C81:G81"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="D1:F1"/>
-    <mergeCell ref="C83:C87"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="F160:H160"/>
-    <mergeCell ref="C162:E162"/>
-    <mergeCell ref="F154:H154"/>
-    <mergeCell ref="F147:H147"/>
-    <mergeCell ref="C103:H103"/>
-    <mergeCell ref="C104:H104"/>
-    <mergeCell ref="C108:G108"/>
-    <mergeCell ref="C176:E176"/>
-    <mergeCell ref="A109:A113"/>
-    <mergeCell ref="B109:B113"/>
-    <mergeCell ref="C109:C113"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="B122:B126"/>
-    <mergeCell ref="C122:C126"/>
-    <mergeCell ref="A135:A139"/>
-    <mergeCell ref="A149:A153"/>
-    <mergeCell ref="B149:B153"/>
-    <mergeCell ref="C149:C153"/>
-    <mergeCell ref="A168:A173"/>
-    <mergeCell ref="B168:B173"/>
-    <mergeCell ref="C168:C173"/>
-    <mergeCell ref="A128:A132"/>
-    <mergeCell ref="C175:E175"/>
-    <mergeCell ref="I109:I114"/>
-    <mergeCell ref="F114:H114"/>
-    <mergeCell ref="A115:A119"/>
-    <mergeCell ref="B115:B119"/>
-    <mergeCell ref="C115:C119"/>
-    <mergeCell ref="I115:I120"/>
-    <mergeCell ref="F120:H120"/>
-    <mergeCell ref="B128:B132"/>
-    <mergeCell ref="C128:C132"/>
-    <mergeCell ref="I128:I133"/>
-    <mergeCell ref="F133:H133"/>
-    <mergeCell ref="B135:B139"/>
-    <mergeCell ref="C135:C139"/>
-    <mergeCell ref="I135:I140"/>
-    <mergeCell ref="F140:H140"/>
-    <mergeCell ref="I122:I126"/>
-    <mergeCell ref="F126:H126"/>
-    <mergeCell ref="I168:I173"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A69:E69"/>
-    <mergeCell ref="A106:E106"/>
-    <mergeCell ref="A165:E165"/>
-    <mergeCell ref="A156:A160"/>
-    <mergeCell ref="B156:B160"/>
-    <mergeCell ref="C156:C160"/>
-    <mergeCell ref="I156:I160"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="B142:B146"/>
-    <mergeCell ref="C142:C146"/>
-    <mergeCell ref="I142:I147"/>
-    <mergeCell ref="I149:I154"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
